--- a/Code/Results/Cases/Case_1_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.42823869679561</v>
+        <v>8.428238696795628</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.955565414864706</v>
+        <v>2.955565414864647</v>
       </c>
       <c r="E2">
-        <v>5.128832386975319</v>
+        <v>5.128832386975388</v>
       </c>
       <c r="F2">
         <v>38.0877875241828</v>
       </c>
       <c r="G2">
-        <v>29.28715638833297</v>
+        <v>29.28715638833296</v>
       </c>
       <c r="H2">
-        <v>12.10972418247194</v>
+        <v>12.10972418247191</v>
       </c>
       <c r="I2">
-        <v>4.972027089476165</v>
+        <v>4.972027089476197</v>
       </c>
       <c r="J2">
-        <v>41.06808832431322</v>
+        <v>41.0680883243132</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>27.93570311957627</v>
+        <v>27.93570311957626</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.929362693815782</v>
+        <v>7.929362693815781</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.718906474498848</v>
+        <v>2.718906474498793</v>
       </c>
       <c r="E3">
-        <v>5.282586021739882</v>
+        <v>5.282586021739818</v>
       </c>
       <c r="F3">
-        <v>35.57084139353864</v>
+        <v>35.57084139353859</v>
       </c>
       <c r="G3">
-        <v>27.42095406316225</v>
+        <v>27.42095406316222</v>
       </c>
       <c r="H3">
-        <v>12.54843986259494</v>
+        <v>12.54843986259504</v>
       </c>
       <c r="I3">
-        <v>5.154332868973482</v>
+        <v>5.154332868973512</v>
       </c>
       <c r="J3">
         <v>38.17915510563981</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>25.96619843355834</v>
+        <v>25.96619843355835</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.607068349937738</v>
+        <v>7.607068349937713</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.571774828900241</v>
+        <v>2.571774828900177</v>
       </c>
       <c r="E4">
-        <v>5.379715664606064</v>
+        <v>5.379715664605938</v>
       </c>
       <c r="F4">
-        <v>34.02184043410223</v>
+        <v>34.02184043410221</v>
       </c>
       <c r="G4">
-        <v>26.28010714235358</v>
+        <v>26.28010714235356</v>
       </c>
       <c r="H4">
-        <v>12.82807891528318</v>
+        <v>12.8280789152832</v>
       </c>
       <c r="I4">
-        <v>5.269968708569217</v>
+        <v>5.269968708569125</v>
       </c>
       <c r="J4">
-        <v>36.31996320154493</v>
+        <v>36.31996320154494</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>24.70052914995955</v>
+        <v>24.7005291499596</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.471729044998029</v>
+        <v>7.471729044998055</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.511243672290186</v>
+        <v>2.511243672290122</v>
       </c>
       <c r="E5">
-        <v>5.419991378634291</v>
+        <v>5.419991378634351</v>
       </c>
       <c r="F5">
-        <v>33.38970653101026</v>
+        <v>33.38970653101027</v>
       </c>
       <c r="G5">
-        <v>25.8164692618063</v>
+        <v>25.81646926180631</v>
       </c>
       <c r="H5">
-        <v>12.94453774466926</v>
+        <v>12.94453774466933</v>
       </c>
       <c r="I5">
-        <v>5.317994888691857</v>
+        <v>5.317994888691882</v>
       </c>
       <c r="J5">
-        <v>35.54030502469094</v>
+        <v>35.54030502469095</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.449015136740861</v>
+        <v>7.449015136740828</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.501154785843912</v>
+        <v>2.501154785843858</v>
       </c>
       <c r="E6">
-        <v>5.426721399398906</v>
+        <v>5.426721399398773</v>
       </c>
       <c r="F6">
-        <v>33.28469131887722</v>
+        <v>33.28469131887719</v>
       </c>
       <c r="G6">
-        <v>25.73956271190722</v>
+        <v>25.7395627119072</v>
       </c>
       <c r="H6">
-        <v>12.96402505343167</v>
+        <v>12.96402505343162</v>
       </c>
       <c r="I6">
-        <v>5.326023609989469</v>
+        <v>5.326023609989403</v>
       </c>
       <c r="J6">
-        <v>35.40949825626517</v>
+        <v>35.40949825626507</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>24.08123435003406</v>
+        <v>24.08123435003402</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -608,31 +608,31 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.570960949099805</v>
+        <v>2.57096094909981</v>
       </c>
       <c r="E7">
-        <v>5.38025601043584</v>
+        <v>5.380256010435774</v>
       </c>
       <c r="F7">
-        <v>34.01331873485145</v>
+        <v>34.01331873485146</v>
       </c>
       <c r="G7">
-        <v>26.27384909027269</v>
+        <v>26.2738490902727</v>
       </c>
       <c r="H7">
-        <v>12.82963946716705</v>
+        <v>12.82963946716704</v>
       </c>
       <c r="I7">
-        <v>5.270612774559751</v>
+        <v>5.270612774559721</v>
       </c>
       <c r="J7">
-        <v>36.30953831448462</v>
+        <v>36.30953831448465</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>24.69343626275199</v>
+        <v>24.69343626275202</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.259549487287066</v>
+        <v>8.259549487287112</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.874268646698426</v>
+        <v>2.874268646698382</v>
       </c>
       <c r="E8">
-        <v>5.181286246116457</v>
+        <v>5.181286246116524</v>
       </c>
       <c r="F8">
-        <v>37.22060763886486</v>
+        <v>37.22060763886489</v>
       </c>
       <c r="G8">
-        <v>28.6425950889481</v>
+        <v>28.64259508894811</v>
       </c>
       <c r="H8">
-        <v>12.25880738039059</v>
+        <v>12.2588073803906</v>
       </c>
       <c r="I8">
-        <v>5.034098419553069</v>
+        <v>5.034098419553132</v>
       </c>
       <c r="J8">
         <v>40.0893494648063</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>27.26806908554382</v>
+        <v>27.2680690855438</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.415735915076565</v>
+        <v>9.415735915076539</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.460833881570219</v>
+        <v>3.460833881570103</v>
       </c>
       <c r="E9">
-        <v>4.812454041634017</v>
+        <v>4.812454041633883</v>
       </c>
       <c r="F9">
-        <v>43.88777457232429</v>
+        <v>43.88777457232435</v>
       </c>
       <c r="G9">
-        <v>33.93144035964264</v>
+        <v>33.93144035964269</v>
       </c>
       <c r="H9">
-        <v>11.22608868015909</v>
+        <v>11.22608868015904</v>
       </c>
       <c r="I9">
-        <v>4.601667566354208</v>
+        <v>4.601667566354205</v>
       </c>
       <c r="J9">
-        <v>46.85308433590517</v>
+        <v>46.8530843359052</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>31.8901504213175</v>
+        <v>31.89015042131754</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.18866574899749</v>
+        <v>10.18866574899748</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.8974693178236</v>
+        <v>3.897469317823615</v>
       </c>
       <c r="E10">
-        <v>4.554536237057652</v>
+        <v>4.554536237057679</v>
       </c>
       <c r="F10">
-        <v>48.84066302811404</v>
+        <v>48.84066302811391</v>
       </c>
       <c r="G10">
-        <v>37.85719772398</v>
+        <v>37.85719772397991</v>
       </c>
       <c r="H10">
-        <v>10.53122062873331</v>
+        <v>10.53122062873333</v>
       </c>
       <c r="I10">
-        <v>4.307822073668328</v>
+        <v>4.307822073668359</v>
       </c>
       <c r="J10">
-        <v>51.47517954561085</v>
+        <v>51.47517954561075</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>35.06024539900459</v>
+        <v>35.0602453990045</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -760,31 +760,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.100491275141283</v>
+        <v>4.100491275141246</v>
       </c>
       <c r="E11">
-        <v>4.440253552214467</v>
+        <v>4.440253552214435</v>
       </c>
       <c r="F11">
-        <v>51.10319307541865</v>
+        <v>51.10319307541872</v>
       </c>
       <c r="G11">
-        <v>39.64856655066974</v>
+        <v>39.64856655066979</v>
       </c>
       <c r="H11">
-        <v>10.23297646302219</v>
+        <v>10.2329764630222</v>
       </c>
       <c r="I11">
-        <v>4.181221206579529</v>
+        <v>4.181221206579477</v>
       </c>
       <c r="J11">
-        <v>53.5161544790755</v>
+        <v>53.51615447907556</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>36.46319007708355</v>
+        <v>36.4631900770836</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.64883073376357</v>
+        <v>10.64883073376358</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.178346254412516</v>
+        <v>4.178346254412628</v>
       </c>
       <c r="E12">
-        <v>4.397457274787696</v>
+        <v>4.397457274787789</v>
       </c>
       <c r="F12">
-        <v>51.9636857935898</v>
+        <v>51.96368579358981</v>
       </c>
       <c r="G12">
-        <v>40.32965804083469</v>
+        <v>40.3296580408347</v>
       </c>
       <c r="H12">
         <v>10.12310455372785</v>
       </c>
       <c r="I12">
-        <v>4.134549744102105</v>
+        <v>4.134549744102156</v>
       </c>
       <c r="J12">
-        <v>54.28160642483903</v>
+        <v>54.28160642483908</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>36.98986229828955</v>
+        <v>36.98986229828956</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.62206638686704</v>
+        <v>10.62206638686705</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -839,28 +839,28 @@
         <v>4.161529034917278</v>
       </c>
       <c r="E13">
-        <v>4.406651912511633</v>
+        <v>4.406651912511609</v>
       </c>
       <c r="F13">
-        <v>51.77815278475398</v>
+        <v>51.77815278475389</v>
       </c>
       <c r="G13">
-        <v>40.18281420837022</v>
+        <v>40.18281420837011</v>
       </c>
       <c r="H13">
-        <v>10.14662126932431</v>
+        <v>10.14662126932429</v>
       </c>
       <c r="I13">
-        <v>4.144539699200593</v>
+        <v>4.144539699200601</v>
       </c>
       <c r="J13">
-        <v>54.11705610463395</v>
+        <v>54.11705610463381</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>36.87661915038301</v>
+        <v>36.87661915038295</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.53439928090557</v>
+        <v>10.53439928090562</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.106874639547184</v>
+        <v>4.106874639547142</v>
       </c>
       <c r="E14">
-        <v>4.436722720695645</v>
+        <v>4.436722720695614</v>
       </c>
       <c r="F14">
-        <v>51.17389577961955</v>
+        <v>51.17389577961951</v>
       </c>
       <c r="G14">
-        <v>39.70453240952941</v>
+        <v>39.70453240952936</v>
       </c>
       <c r="H14">
-        <v>10.22387231321673</v>
+        <v>10.22387231321666</v>
       </c>
       <c r="I14">
-        <v>4.177354267179849</v>
+        <v>4.177354267179852</v>
       </c>
       <c r="J14">
-        <v>53.57926794186179</v>
+        <v>53.57926794186174</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>36.50660496189449</v>
+        <v>36.50660496189445</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.48040546241031</v>
+        <v>10.48040546241034</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.073535846005467</v>
+        <v>4.073535846005471</v>
       </c>
       <c r="E15">
-        <v>4.455206169521177</v>
+        <v>4.455206169521143</v>
       </c>
       <c r="F15">
-        <v>50.80433722053491</v>
+        <v>50.80433722053507</v>
       </c>
       <c r="G15">
-        <v>39.41199448351655</v>
+        <v>39.41199448351667</v>
       </c>
       <c r="H15">
-        <v>10.27160784264684</v>
+        <v>10.27160784264671</v>
       </c>
       <c r="I15">
-        <v>4.197628665131533</v>
+        <v>4.197628665131507</v>
       </c>
       <c r="J15">
-        <v>53.24893919427281</v>
+        <v>53.24893919427288</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>36.27939733651515</v>
+        <v>36.27939733651521</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.16642302606222</v>
+        <v>10.16642302606224</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.884317253200028</v>
+        <v>3.884317253200086</v>
       </c>
       <c r="E16">
-        <v>4.562069213633714</v>
+        <v>4.562069213633805</v>
       </c>
       <c r="F16">
-        <v>48.69317867219593</v>
+        <v>48.69317867219598</v>
       </c>
       <c r="G16">
-        <v>37.74039328336805</v>
+        <v>37.74039328336811</v>
       </c>
       <c r="H16">
-        <v>10.55110989663439</v>
+        <v>10.55110989663437</v>
       </c>
       <c r="I16">
-        <v>4.316257471283566</v>
+        <v>4.316257471283587</v>
       </c>
       <c r="J16">
-        <v>51.34067280054902</v>
+        <v>51.34067280054919</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>34.96785536687705</v>
+        <v>34.96785536687712</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.969689977717779</v>
+        <v>9.96968997771779</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.76958254625471</v>
+        <v>3.769582546254816</v>
       </c>
       <c r="E17">
-        <v>4.628428920734825</v>
+        <v>4.628428920734888</v>
       </c>
       <c r="F17">
-        <v>47.40195251263653</v>
+        <v>47.40195251263651</v>
       </c>
       <c r="G17">
-        <v>36.71756158644538</v>
+        <v>36.7175615864454</v>
       </c>
       <c r="H17">
-        <v>10.72745471745746</v>
+        <v>10.72745471745739</v>
       </c>
       <c r="I17">
-        <v>4.390994504744559</v>
+        <v>4.390994504744556</v>
       </c>
       <c r="J17">
-        <v>50.15515569984975</v>
+        <v>50.15515569984979</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>34.15390852342951</v>
+        <v>34.1539085234295</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.855007413932539</v>
+        <v>9.855007413932535</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.703979108123846</v>
+        <v>3.703979108123887</v>
       </c>
       <c r="E18">
-        <v>4.666880228341528</v>
+        <v>4.666880228341502</v>
       </c>
       <c r="F18">
-        <v>46.65998593132951</v>
+        <v>46.65998593132933</v>
       </c>
       <c r="G18">
-        <v>36.12963236994853</v>
+        <v>36.12963236994836</v>
       </c>
       <c r="H18">
-        <v>10.83052609012804</v>
+        <v>10.83052609012809</v>
       </c>
       <c r="I18">
-        <v>4.434626981210932</v>
+        <v>4.434626981210873</v>
       </c>
       <c r="J18">
-        <v>49.46737330186807</v>
+        <v>49.46737330186787</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>33.68198937626595</v>
+        <v>33.68198937626585</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.815914366623186</v>
+        <v>9.815914366623213</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.681824550852977</v>
+        <v>3.681824550853092</v>
       </c>
       <c r="E19">
-        <v>4.679946876338774</v>
+        <v>4.679946876338902</v>
       </c>
       <c r="F19">
-        <v>46.40882943639321</v>
+        <v>46.40882943639323</v>
       </c>
       <c r="G19">
-        <v>35.93058320173848</v>
+        <v>35.93058320173851</v>
       </c>
       <c r="H19">
-        <v>10.86569372464011</v>
+        <v>10.86569372464004</v>
       </c>
       <c r="I19">
-        <v>4.449504890212596</v>
+        <v>4.449504890212623</v>
       </c>
       <c r="J19">
         <v>49.23344900804565</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>33.52153217291375</v>
+        <v>33.52153217291374</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.990790270485467</v>
+        <v>9.990790270485501</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.781753773181965</v>
+        <v>3.781753773181896</v>
       </c>
       <c r="E20">
-        <v>4.621335303273582</v>
+        <v>4.621335303273419</v>
       </c>
       <c r="F20">
-        <v>47.53931692362112</v>
+        <v>47.53931692362117</v>
       </c>
       <c r="G20">
-        <v>36.82639233854092</v>
+        <v>36.82639233854096</v>
       </c>
       <c r="H20">
         <v>10.70850941310563</v>
       </c>
       <c r="I20">
-        <v>4.382970262753899</v>
+        <v>4.382970262753781</v>
       </c>
       <c r="J20">
-        <v>50.28195765307194</v>
+        <v>50.28195765307202</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>34.24093675482928</v>
+        <v>34.24093675482935</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.56021064683144</v>
+        <v>10.5602106468315</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1143,28 +1143,28 @@
         <v>4.122898338133941</v>
       </c>
       <c r="E21">
-        <v>4.427876700481852</v>
+        <v>4.427876700481754</v>
       </c>
       <c r="F21">
-        <v>51.35125748829275</v>
+        <v>51.35125748829249</v>
       </c>
       <c r="G21">
-        <v>39.84492286270908</v>
+        <v>39.84492286270886</v>
       </c>
       <c r="H21">
         <v>10.20109376306218</v>
       </c>
       <c r="I21">
-        <v>4.167678863414897</v>
+        <v>4.16767886341484</v>
       </c>
       <c r="J21">
-        <v>53.73741760290616</v>
+        <v>53.73741760290604</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>36.61540227861352</v>
+        <v>36.61540227861344</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.91910640329355</v>
+        <v>10.91910640329357</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.351765899836717</v>
+        <v>4.351765899836573</v>
       </c>
       <c r="E22">
-        <v>4.304279251392913</v>
+        <v>4.304279251392914</v>
       </c>
       <c r="F22">
-        <v>53.86589858432186</v>
+        <v>53.86589858432189</v>
       </c>
       <c r="G22">
-        <v>41.83499313876487</v>
+        <v>41.83499313876488</v>
       </c>
       <c r="H22">
-        <v>9.887707106006303</v>
+        <v>9.887707106006307</v>
       </c>
       <c r="I22">
-        <v>4.034570633162436</v>
+        <v>4.034570633162474</v>
       </c>
       <c r="J22">
-        <v>55.95343830797419</v>
+        <v>55.95343830797424</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>38.14115447789919</v>
+        <v>38.14115447789923</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.72875029304127</v>
+        <v>10.72875029304135</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.228936967725564</v>
+        <v>4.228936967725554</v>
       </c>
       <c r="E23">
-        <v>4.369964496411226</v>
+        <v>4.369964496411159</v>
       </c>
       <c r="F23">
-        <v>52.52068566070347</v>
+        <v>52.52068566070339</v>
       </c>
       <c r="G23">
-        <v>40.77048274984108</v>
+        <v>40.77048274984102</v>
       </c>
       <c r="H23">
-        <v>10.05308701583017</v>
+        <v>10.05308701583016</v>
       </c>
       <c r="I23">
-        <v>4.104806232526462</v>
+        <v>4.104806232526426</v>
       </c>
       <c r="J23">
-        <v>54.77400923823215</v>
+        <v>54.77400923823213</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.981255747049623</v>
+        <v>9.981255747049603</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.776250067766979</v>
+        <v>3.776250067767058</v>
       </c>
       <c r="E24">
-        <v>4.624541395380648</v>
+        <v>4.624541395380778</v>
       </c>
       <c r="F24">
-        <v>47.47721346989209</v>
+        <v>47.47721346989218</v>
       </c>
       <c r="G24">
-        <v>36.77718975131749</v>
+        <v>36.77718975131759</v>
       </c>
       <c r="H24">
-        <v>10.7170693615728</v>
+        <v>10.71706936157286</v>
       </c>
       <c r="I24">
-        <v>4.386595968359925</v>
+        <v>4.386595968359995</v>
       </c>
       <c r="J24">
-        <v>50.22464994590605</v>
+        <v>50.22464994590617</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>34.20160373288575</v>
+        <v>34.20160373288581</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.116497300942218</v>
+        <v>9.116497300942189</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.302054053819591</v>
+        <v>3.302054053819546</v>
       </c>
       <c r="E25">
-        <v>4.909969579531459</v>
+        <v>4.909969579531527</v>
       </c>
       <c r="F25">
-        <v>42.05972094121547</v>
+        <v>42.05972094121554</v>
       </c>
       <c r="G25">
-        <v>32.48027111212279</v>
+        <v>32.48027111212284</v>
       </c>
       <c r="H25">
-        <v>11.49528329296808</v>
+        <v>11.49528329296797</v>
       </c>
       <c r="I25">
-        <v>4.71492584197058</v>
+        <v>4.714925841970645</v>
       </c>
       <c r="J25">
-        <v>45.08826360594094</v>
+        <v>45.0882636059409</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.428238696795628</v>
+        <v>8.42823869679561</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.955565414864647</v>
+        <v>2.955565414864706</v>
       </c>
       <c r="E2">
-        <v>5.128832386975388</v>
+        <v>5.128832386975319</v>
       </c>
       <c r="F2">
         <v>38.0877875241828</v>
       </c>
       <c r="G2">
-        <v>29.28715638833296</v>
+        <v>29.28715638833297</v>
       </c>
       <c r="H2">
-        <v>12.10972418247191</v>
+        <v>12.10972418247194</v>
       </c>
       <c r="I2">
-        <v>4.972027089476197</v>
+        <v>4.972027089476165</v>
       </c>
       <c r="J2">
-        <v>41.0680883243132</v>
+        <v>41.06808832431322</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>27.93570311957626</v>
+        <v>27.93570311957627</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.929362693815781</v>
+        <v>7.929362693815782</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.718906474498793</v>
+        <v>2.718906474498848</v>
       </c>
       <c r="E3">
-        <v>5.282586021739818</v>
+        <v>5.282586021739882</v>
       </c>
       <c r="F3">
-        <v>35.57084139353859</v>
+        <v>35.57084139353864</v>
       </c>
       <c r="G3">
-        <v>27.42095406316222</v>
+        <v>27.42095406316225</v>
       </c>
       <c r="H3">
-        <v>12.54843986259504</v>
+        <v>12.54843986259494</v>
       </c>
       <c r="I3">
-        <v>5.154332868973512</v>
+        <v>5.154332868973482</v>
       </c>
       <c r="J3">
         <v>38.17915510563981</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>25.96619843355835</v>
+        <v>25.96619843355834</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.607068349937713</v>
+        <v>7.607068349937738</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.571774828900177</v>
+        <v>2.571774828900241</v>
       </c>
       <c r="E4">
-        <v>5.379715664605938</v>
+        <v>5.379715664606064</v>
       </c>
       <c r="F4">
-        <v>34.02184043410221</v>
+        <v>34.02184043410223</v>
       </c>
       <c r="G4">
-        <v>26.28010714235356</v>
+        <v>26.28010714235358</v>
       </c>
       <c r="H4">
-        <v>12.8280789152832</v>
+        <v>12.82807891528318</v>
       </c>
       <c r="I4">
-        <v>5.269968708569125</v>
+        <v>5.269968708569217</v>
       </c>
       <c r="J4">
-        <v>36.31996320154494</v>
+        <v>36.31996320154493</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>24.7005291499596</v>
+        <v>24.70052914995955</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.471729044998055</v>
+        <v>7.471729044998029</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.511243672290122</v>
+        <v>2.511243672290186</v>
       </c>
       <c r="E5">
-        <v>5.419991378634351</v>
+        <v>5.419991378634291</v>
       </c>
       <c r="F5">
-        <v>33.38970653101027</v>
+        <v>33.38970653101026</v>
       </c>
       <c r="G5">
-        <v>25.81646926180631</v>
+        <v>25.8164692618063</v>
       </c>
       <c r="H5">
-        <v>12.94453774466933</v>
+        <v>12.94453774466926</v>
       </c>
       <c r="I5">
-        <v>5.317994888691882</v>
+        <v>5.317994888691857</v>
       </c>
       <c r="J5">
-        <v>35.54030502469095</v>
+        <v>35.54030502469094</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.449015136740828</v>
+        <v>7.449015136740861</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.501154785843858</v>
+        <v>2.501154785843912</v>
       </c>
       <c r="E6">
-        <v>5.426721399398773</v>
+        <v>5.426721399398906</v>
       </c>
       <c r="F6">
-        <v>33.28469131887719</v>
+        <v>33.28469131887722</v>
       </c>
       <c r="G6">
-        <v>25.7395627119072</v>
+        <v>25.73956271190722</v>
       </c>
       <c r="H6">
-        <v>12.96402505343162</v>
+        <v>12.96402505343167</v>
       </c>
       <c r="I6">
-        <v>5.326023609989403</v>
+        <v>5.326023609989469</v>
       </c>
       <c r="J6">
-        <v>35.40949825626507</v>
+        <v>35.40949825626517</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>24.08123435003402</v>
+        <v>24.08123435003406</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -608,31 +608,31 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.57096094909981</v>
+        <v>2.570960949099805</v>
       </c>
       <c r="E7">
-        <v>5.380256010435774</v>
+        <v>5.38025601043584</v>
       </c>
       <c r="F7">
-        <v>34.01331873485146</v>
+        <v>34.01331873485145</v>
       </c>
       <c r="G7">
-        <v>26.2738490902727</v>
+        <v>26.27384909027269</v>
       </c>
       <c r="H7">
-        <v>12.82963946716704</v>
+        <v>12.82963946716705</v>
       </c>
       <c r="I7">
-        <v>5.270612774559721</v>
+        <v>5.270612774559751</v>
       </c>
       <c r="J7">
-        <v>36.30953831448465</v>
+        <v>36.30953831448462</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>24.69343626275202</v>
+        <v>24.69343626275199</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.259549487287112</v>
+        <v>8.259549487287066</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.874268646698382</v>
+        <v>2.874268646698426</v>
       </c>
       <c r="E8">
-        <v>5.181286246116524</v>
+        <v>5.181286246116457</v>
       </c>
       <c r="F8">
-        <v>37.22060763886489</v>
+        <v>37.22060763886486</v>
       </c>
       <c r="G8">
-        <v>28.64259508894811</v>
+        <v>28.6425950889481</v>
       </c>
       <c r="H8">
-        <v>12.2588073803906</v>
+        <v>12.25880738039059</v>
       </c>
       <c r="I8">
-        <v>5.034098419553132</v>
+        <v>5.034098419553069</v>
       </c>
       <c r="J8">
         <v>40.0893494648063</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>27.2680690855438</v>
+        <v>27.26806908554382</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.415735915076539</v>
+        <v>9.415735915076565</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.460833881570103</v>
+        <v>3.460833881570219</v>
       </c>
       <c r="E9">
-        <v>4.812454041633883</v>
+        <v>4.812454041634017</v>
       </c>
       <c r="F9">
-        <v>43.88777457232435</v>
+        <v>43.88777457232429</v>
       </c>
       <c r="G9">
-        <v>33.93144035964269</v>
+        <v>33.93144035964264</v>
       </c>
       <c r="H9">
-        <v>11.22608868015904</v>
+        <v>11.22608868015909</v>
       </c>
       <c r="I9">
-        <v>4.601667566354205</v>
+        <v>4.601667566354208</v>
       </c>
       <c r="J9">
-        <v>46.8530843359052</v>
+        <v>46.85308433590517</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>31.89015042131754</v>
+        <v>31.8901504213175</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.18866574899748</v>
+        <v>10.18866574899749</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.897469317823615</v>
+        <v>3.8974693178236</v>
       </c>
       <c r="E10">
-        <v>4.554536237057679</v>
+        <v>4.554536237057652</v>
       </c>
       <c r="F10">
-        <v>48.84066302811391</v>
+        <v>48.84066302811404</v>
       </c>
       <c r="G10">
-        <v>37.85719772397991</v>
+        <v>37.85719772398</v>
       </c>
       <c r="H10">
-        <v>10.53122062873333</v>
+        <v>10.53122062873331</v>
       </c>
       <c r="I10">
-        <v>4.307822073668359</v>
+        <v>4.307822073668328</v>
       </c>
       <c r="J10">
-        <v>51.47517954561075</v>
+        <v>51.47517954561085</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>35.0602453990045</v>
+        <v>35.06024539900459</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -760,31 +760,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.100491275141246</v>
+        <v>4.100491275141283</v>
       </c>
       <c r="E11">
-        <v>4.440253552214435</v>
+        <v>4.440253552214467</v>
       </c>
       <c r="F11">
-        <v>51.10319307541872</v>
+        <v>51.10319307541865</v>
       </c>
       <c r="G11">
-        <v>39.64856655066979</v>
+        <v>39.64856655066974</v>
       </c>
       <c r="H11">
-        <v>10.2329764630222</v>
+        <v>10.23297646302219</v>
       </c>
       <c r="I11">
-        <v>4.181221206579477</v>
+        <v>4.181221206579529</v>
       </c>
       <c r="J11">
-        <v>53.51615447907556</v>
+        <v>53.5161544790755</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>36.4631900770836</v>
+        <v>36.46319007708355</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.64883073376358</v>
+        <v>10.64883073376357</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.178346254412628</v>
+        <v>4.178346254412516</v>
       </c>
       <c r="E12">
-        <v>4.397457274787789</v>
+        <v>4.397457274787696</v>
       </c>
       <c r="F12">
-        <v>51.96368579358981</v>
+        <v>51.9636857935898</v>
       </c>
       <c r="G12">
-        <v>40.3296580408347</v>
+        <v>40.32965804083469</v>
       </c>
       <c r="H12">
         <v>10.12310455372785</v>
       </c>
       <c r="I12">
-        <v>4.134549744102156</v>
+        <v>4.134549744102105</v>
       </c>
       <c r="J12">
-        <v>54.28160642483908</v>
+        <v>54.28160642483903</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>36.98986229828956</v>
+        <v>36.98986229828955</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.62206638686705</v>
+        <v>10.62206638686704</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -839,28 +839,28 @@
         <v>4.161529034917278</v>
       </c>
       <c r="E13">
-        <v>4.406651912511609</v>
+        <v>4.406651912511633</v>
       </c>
       <c r="F13">
-        <v>51.77815278475389</v>
+        <v>51.77815278475398</v>
       </c>
       <c r="G13">
-        <v>40.18281420837011</v>
+        <v>40.18281420837022</v>
       </c>
       <c r="H13">
-        <v>10.14662126932429</v>
+        <v>10.14662126932431</v>
       </c>
       <c r="I13">
-        <v>4.144539699200601</v>
+        <v>4.144539699200593</v>
       </c>
       <c r="J13">
-        <v>54.11705610463381</v>
+        <v>54.11705610463395</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>36.87661915038295</v>
+        <v>36.87661915038301</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.53439928090562</v>
+        <v>10.53439928090557</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.106874639547142</v>
+        <v>4.106874639547184</v>
       </c>
       <c r="E14">
-        <v>4.436722720695614</v>
+        <v>4.436722720695645</v>
       </c>
       <c r="F14">
-        <v>51.17389577961951</v>
+        <v>51.17389577961955</v>
       </c>
       <c r="G14">
-        <v>39.70453240952936</v>
+        <v>39.70453240952941</v>
       </c>
       <c r="H14">
-        <v>10.22387231321666</v>
+        <v>10.22387231321673</v>
       </c>
       <c r="I14">
-        <v>4.177354267179852</v>
+        <v>4.177354267179849</v>
       </c>
       <c r="J14">
-        <v>53.57926794186174</v>
+        <v>53.57926794186179</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>36.50660496189445</v>
+        <v>36.50660496189449</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.48040546241034</v>
+        <v>10.48040546241031</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.073535846005471</v>
+        <v>4.073535846005467</v>
       </c>
       <c r="E15">
-        <v>4.455206169521143</v>
+        <v>4.455206169521177</v>
       </c>
       <c r="F15">
-        <v>50.80433722053507</v>
+        <v>50.80433722053491</v>
       </c>
       <c r="G15">
-        <v>39.41199448351667</v>
+        <v>39.41199448351655</v>
       </c>
       <c r="H15">
-        <v>10.27160784264671</v>
+        <v>10.27160784264684</v>
       </c>
       <c r="I15">
-        <v>4.197628665131507</v>
+        <v>4.197628665131533</v>
       </c>
       <c r="J15">
-        <v>53.24893919427288</v>
+        <v>53.24893919427281</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>36.27939733651521</v>
+        <v>36.27939733651515</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.16642302606224</v>
+        <v>10.16642302606222</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.884317253200086</v>
+        <v>3.884317253200028</v>
       </c>
       <c r="E16">
-        <v>4.562069213633805</v>
+        <v>4.562069213633714</v>
       </c>
       <c r="F16">
-        <v>48.69317867219598</v>
+        <v>48.69317867219593</v>
       </c>
       <c r="G16">
-        <v>37.74039328336811</v>
+        <v>37.74039328336805</v>
       </c>
       <c r="H16">
-        <v>10.55110989663437</v>
+        <v>10.55110989663439</v>
       </c>
       <c r="I16">
-        <v>4.316257471283587</v>
+        <v>4.316257471283566</v>
       </c>
       <c r="J16">
-        <v>51.34067280054919</v>
+        <v>51.34067280054902</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>34.96785536687712</v>
+        <v>34.96785536687705</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.96968997771779</v>
+        <v>9.969689977717779</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.769582546254816</v>
+        <v>3.76958254625471</v>
       </c>
       <c r="E17">
-        <v>4.628428920734888</v>
+        <v>4.628428920734825</v>
       </c>
       <c r="F17">
-        <v>47.40195251263651</v>
+        <v>47.40195251263653</v>
       </c>
       <c r="G17">
-        <v>36.7175615864454</v>
+        <v>36.71756158644538</v>
       </c>
       <c r="H17">
-        <v>10.72745471745739</v>
+        <v>10.72745471745746</v>
       </c>
       <c r="I17">
-        <v>4.390994504744556</v>
+        <v>4.390994504744559</v>
       </c>
       <c r="J17">
-        <v>50.15515569984979</v>
+        <v>50.15515569984975</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>34.1539085234295</v>
+        <v>34.15390852342951</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.855007413932535</v>
+        <v>9.855007413932539</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.703979108123887</v>
+        <v>3.703979108123846</v>
       </c>
       <c r="E18">
-        <v>4.666880228341502</v>
+        <v>4.666880228341528</v>
       </c>
       <c r="F18">
-        <v>46.65998593132933</v>
+        <v>46.65998593132951</v>
       </c>
       <c r="G18">
-        <v>36.12963236994836</v>
+        <v>36.12963236994853</v>
       </c>
       <c r="H18">
-        <v>10.83052609012809</v>
+        <v>10.83052609012804</v>
       </c>
       <c r="I18">
-        <v>4.434626981210873</v>
+        <v>4.434626981210932</v>
       </c>
       <c r="J18">
-        <v>49.46737330186787</v>
+        <v>49.46737330186807</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>33.68198937626585</v>
+        <v>33.68198937626595</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.815914366623213</v>
+        <v>9.815914366623186</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.681824550853092</v>
+        <v>3.681824550852977</v>
       </c>
       <c r="E19">
-        <v>4.679946876338902</v>
+        <v>4.679946876338774</v>
       </c>
       <c r="F19">
-        <v>46.40882943639323</v>
+        <v>46.40882943639321</v>
       </c>
       <c r="G19">
-        <v>35.93058320173851</v>
+        <v>35.93058320173848</v>
       </c>
       <c r="H19">
-        <v>10.86569372464004</v>
+        <v>10.86569372464011</v>
       </c>
       <c r="I19">
-        <v>4.449504890212623</v>
+        <v>4.449504890212596</v>
       </c>
       <c r="J19">
         <v>49.23344900804565</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>33.52153217291374</v>
+        <v>33.52153217291375</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.990790270485501</v>
+        <v>9.990790270485467</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.781753773181896</v>
+        <v>3.781753773181965</v>
       </c>
       <c r="E20">
-        <v>4.621335303273419</v>
+        <v>4.621335303273582</v>
       </c>
       <c r="F20">
-        <v>47.53931692362117</v>
+        <v>47.53931692362112</v>
       </c>
       <c r="G20">
-        <v>36.82639233854096</v>
+        <v>36.82639233854092</v>
       </c>
       <c r="H20">
         <v>10.70850941310563</v>
       </c>
       <c r="I20">
-        <v>4.382970262753781</v>
+        <v>4.382970262753899</v>
       </c>
       <c r="J20">
-        <v>50.28195765307202</v>
+        <v>50.28195765307194</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>34.24093675482935</v>
+        <v>34.24093675482928</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.5602106468315</v>
+        <v>10.56021064683144</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1143,28 +1143,28 @@
         <v>4.122898338133941</v>
       </c>
       <c r="E21">
-        <v>4.427876700481754</v>
+        <v>4.427876700481852</v>
       </c>
       <c r="F21">
-        <v>51.35125748829249</v>
+        <v>51.35125748829275</v>
       </c>
       <c r="G21">
-        <v>39.84492286270886</v>
+        <v>39.84492286270908</v>
       </c>
       <c r="H21">
         <v>10.20109376306218</v>
       </c>
       <c r="I21">
-        <v>4.16767886341484</v>
+        <v>4.167678863414897</v>
       </c>
       <c r="J21">
-        <v>53.73741760290604</v>
+        <v>53.73741760290616</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>36.61540227861344</v>
+        <v>36.61540227861352</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.91910640329357</v>
+        <v>10.91910640329355</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.351765899836573</v>
+        <v>4.351765899836717</v>
       </c>
       <c r="E22">
-        <v>4.304279251392914</v>
+        <v>4.304279251392913</v>
       </c>
       <c r="F22">
-        <v>53.86589858432189</v>
+        <v>53.86589858432186</v>
       </c>
       <c r="G22">
-        <v>41.83499313876488</v>
+        <v>41.83499313876487</v>
       </c>
       <c r="H22">
-        <v>9.887707106006307</v>
+        <v>9.887707106006303</v>
       </c>
       <c r="I22">
-        <v>4.034570633162474</v>
+        <v>4.034570633162436</v>
       </c>
       <c r="J22">
-        <v>55.95343830797424</v>
+        <v>55.95343830797419</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>38.14115447789923</v>
+        <v>38.14115447789919</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.72875029304135</v>
+        <v>10.72875029304127</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.228936967725554</v>
+        <v>4.228936967725564</v>
       </c>
       <c r="E23">
-        <v>4.369964496411159</v>
+        <v>4.369964496411226</v>
       </c>
       <c r="F23">
-        <v>52.52068566070339</v>
+        <v>52.52068566070347</v>
       </c>
       <c r="G23">
-        <v>40.77048274984102</v>
+        <v>40.77048274984108</v>
       </c>
       <c r="H23">
-        <v>10.05308701583016</v>
+        <v>10.05308701583017</v>
       </c>
       <c r="I23">
-        <v>4.104806232526426</v>
+        <v>4.104806232526462</v>
       </c>
       <c r="J23">
-        <v>54.77400923823213</v>
+        <v>54.77400923823215</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.981255747049603</v>
+        <v>9.981255747049623</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.776250067767058</v>
+        <v>3.776250067766979</v>
       </c>
       <c r="E24">
-        <v>4.624541395380778</v>
+        <v>4.624541395380648</v>
       </c>
       <c r="F24">
-        <v>47.47721346989218</v>
+        <v>47.47721346989209</v>
       </c>
       <c r="G24">
-        <v>36.77718975131759</v>
+        <v>36.77718975131749</v>
       </c>
       <c r="H24">
-        <v>10.71706936157286</v>
+        <v>10.7170693615728</v>
       </c>
       <c r="I24">
-        <v>4.386595968359995</v>
+        <v>4.386595968359925</v>
       </c>
       <c r="J24">
-        <v>50.22464994590617</v>
+        <v>50.22464994590605</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>34.20160373288581</v>
+        <v>34.20160373288575</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.116497300942189</v>
+        <v>9.116497300942218</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.302054053819546</v>
+        <v>3.302054053819591</v>
       </c>
       <c r="E25">
-        <v>4.909969579531527</v>
+        <v>4.909969579531459</v>
       </c>
       <c r="F25">
-        <v>42.05972094121554</v>
+        <v>42.05972094121547</v>
       </c>
       <c r="G25">
-        <v>32.48027111212284</v>
+        <v>32.48027111212279</v>
       </c>
       <c r="H25">
-        <v>11.49528329296797</v>
+        <v>11.49528329296808</v>
       </c>
       <c r="I25">
-        <v>4.714925841970645</v>
+        <v>4.71492584197058</v>
       </c>
       <c r="J25">
-        <v>45.0882636059409</v>
+        <v>45.08826360594094</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.42823869679561</v>
+        <v>8.431450620303169</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.955565414864706</v>
+        <v>2.949430094925969</v>
       </c>
       <c r="E2">
-        <v>5.128832386975319</v>
+        <v>5.127516144525881</v>
       </c>
       <c r="F2">
-        <v>38.0877875241828</v>
+        <v>38.05627675837292</v>
       </c>
       <c r="G2">
-        <v>29.28715638833297</v>
+        <v>29.31835647347576</v>
       </c>
       <c r="H2">
-        <v>12.10972418247194</v>
+        <v>29.33082867472965</v>
       </c>
       <c r="I2">
-        <v>4.972027089476165</v>
+        <v>12.11464839387097</v>
       </c>
       <c r="J2">
-        <v>41.06808832431322</v>
+        <v>4.97140645627083</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>41.05565145348992</v>
       </c>
       <c r="L2">
-        <v>27.93570311957627</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>27.92965920870791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.929362693815782</v>
+        <v>7.932332563097042</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.718906474498848</v>
+        <v>2.713443668440263</v>
       </c>
       <c r="E3">
-        <v>5.282586021739882</v>
+        <v>5.281614827508763</v>
       </c>
       <c r="F3">
-        <v>35.57084139353864</v>
+        <v>35.54202561547126</v>
       </c>
       <c r="G3">
-        <v>27.42095406316225</v>
+        <v>27.14821129824819</v>
       </c>
       <c r="H3">
-        <v>12.54843986259494</v>
+        <v>27.46206504682173</v>
       </c>
       <c r="I3">
-        <v>5.154332868973482</v>
+        <v>12.55232639521434</v>
       </c>
       <c r="J3">
-        <v>38.17915510563981</v>
+        <v>5.153817342058193</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>38.16806218625978</v>
       </c>
       <c r="L3">
-        <v>25.96619843355834</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>25.96088624671717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.607068349937738</v>
+        <v>7.609879431454296</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.571774828900241</v>
+        <v>2.566737083305092</v>
       </c>
       <c r="E4">
-        <v>5.379715664606064</v>
+        <v>5.378966025263271</v>
       </c>
       <c r="F4">
-        <v>34.02184043410223</v>
+        <v>33.994666843159</v>
       </c>
       <c r="G4">
-        <v>26.28010714235358</v>
+        <v>25.83201504404472</v>
       </c>
       <c r="H4">
-        <v>12.82807891528318</v>
+        <v>26.31963253916713</v>
       </c>
       <c r="I4">
-        <v>5.269968708569217</v>
+        <v>12.83135868470373</v>
       </c>
       <c r="J4">
-        <v>36.31996320154493</v>
+        <v>5.269521150195229</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>36.30969008091665</v>
       </c>
       <c r="L4">
-        <v>24.70052914995955</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>24.6956578468355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.471729044998029</v>
+        <v>7.474472824467601</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.511243672290186</v>
+        <v>2.506382695053035</v>
       </c>
       <c r="E5">
-        <v>5.419991378634291</v>
+        <v>5.419334376679514</v>
       </c>
       <c r="F5">
-        <v>33.38970653101026</v>
+        <v>33.36320093198484</v>
       </c>
       <c r="G5">
-        <v>25.8164692618063</v>
+        <v>25.29173669964751</v>
       </c>
       <c r="H5">
-        <v>12.94453774466926</v>
+        <v>25.85534680830403</v>
       </c>
       <c r="I5">
-        <v>5.317994888691857</v>
+        <v>12.94757656846915</v>
       </c>
       <c r="J5">
-        <v>35.54030502469094</v>
+        <v>5.317575847512209</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>35.53036624465221</v>
       </c>
       <c r="L5">
-        <v>24.17018776657004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>24.16549505967382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.449015136740861</v>
+        <v>7.451747582795864</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.501154785843912</v>
+        <v>2.496323389191026</v>
       </c>
       <c r="E6">
-        <v>5.426721399398906</v>
+        <v>5.42607991979392</v>
       </c>
       <c r="F6">
-        <v>33.28469131887722</v>
+        <v>33.25829661273105</v>
       </c>
       <c r="G6">
-        <v>25.73956271190722</v>
+        <v>25.20178709133817</v>
       </c>
       <c r="H6">
-        <v>12.96402505343167</v>
+        <v>25.77833262619849</v>
       </c>
       <c r="I6">
-        <v>5.326023609989469</v>
+        <v>12.96702421366274</v>
       </c>
       <c r="J6">
-        <v>35.40949825626517</v>
+        <v>5.325609352440496</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>35.39961505278296</v>
       </c>
       <c r="L6">
-        <v>24.08123435003406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>24.07657126230367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.60525928688218</v>
+        <v>7.608069471301201</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.570960949099805</v>
+        <v>2.565925572452057</v>
       </c>
       <c r="E7">
-        <v>5.38025601043584</v>
+        <v>5.379507611006475</v>
       </c>
       <c r="F7">
-        <v>34.01331873485145</v>
+        <v>33.98615415541529</v>
       </c>
       <c r="G7">
-        <v>26.27384909027269</v>
+        <v>25.82474456138528</v>
       </c>
       <c r="H7">
-        <v>12.82963946716705</v>
+        <v>26.31336575480119</v>
       </c>
       <c r="I7">
-        <v>5.270612774559751</v>
+        <v>12.83291596319283</v>
       </c>
       <c r="J7">
-        <v>36.30953831448462</v>
+        <v>5.270165597512269</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>36.29926969982268</v>
       </c>
       <c r="L7">
-        <v>24.69343626275199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>24.68856737128456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.259549487287066</v>
+        <v>8.262680039101152</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.874268646698426</v>
+        <v>2.868363010210147</v>
       </c>
       <c r="E8">
-        <v>5.181286246116457</v>
+        <v>5.180086904964809</v>
       </c>
       <c r="F8">
-        <v>37.22060763886486</v>
+        <v>37.1900300558295</v>
       </c>
       <c r="G8">
-        <v>28.6425950889481</v>
+        <v>28.55836197164541</v>
       </c>
       <c r="H8">
-        <v>12.25880738039059</v>
+        <v>28.68538783841919</v>
       </c>
       <c r="I8">
-        <v>5.034098419553069</v>
+        <v>12.26336665767571</v>
       </c>
       <c r="J8">
-        <v>40.0893494648063</v>
+        <v>5.03351328542379</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>40.07737815717019</v>
       </c>
       <c r="L8">
-        <v>27.26806908554382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>27.26227989395974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.415735915076565</v>
+        <v>9.419415416698659</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.460833881570219</v>
+        <v>3.45329170499344</v>
       </c>
       <c r="E9">
-        <v>4.812454041634017</v>
+        <v>4.810452761311683</v>
       </c>
       <c r="F9">
-        <v>43.88777457232429</v>
+        <v>43.84916026150798</v>
       </c>
       <c r="G9">
-        <v>33.93144035964264</v>
+        <v>33.98129631194925</v>
       </c>
       <c r="H9">
-        <v>11.22608868015909</v>
+        <v>33.76252247611377</v>
       </c>
       <c r="I9">
-        <v>4.601667566354208</v>
+        <v>11.23347102175289</v>
       </c>
       <c r="J9">
-        <v>46.85308433590517</v>
+        <v>4.600841613518038</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>46.837642998816</v>
       </c>
       <c r="L9">
-        <v>31.8901504213175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>31.88243261162105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.18866574899749</v>
+        <v>10.19270150856183</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.8974693178236</v>
+        <v>3.888722198914098</v>
       </c>
       <c r="E10">
-        <v>4.554536237057652</v>
+        <v>4.552006940213678</v>
       </c>
       <c r="F10">
-        <v>48.84066302811404</v>
+        <v>48.79657286678266</v>
       </c>
       <c r="G10">
-        <v>37.85719772398</v>
+        <v>37.91182588297365</v>
       </c>
       <c r="H10">
-        <v>10.53122062873331</v>
+        <v>37.58211337674194</v>
       </c>
       <c r="I10">
-        <v>4.307822073668328</v>
+        <v>10.54096515981333</v>
       </c>
       <c r="J10">
-        <v>51.47517954561085</v>
+        <v>4.306841556456039</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>51.45695118692318</v>
       </c>
       <c r="L10">
-        <v>35.06024539900459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>35.05093193429729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.52409155467431</v>
+        <v>10.52827923015618</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.100491275141283</v>
+        <v>4.091181486860329</v>
       </c>
       <c r="E11">
-        <v>4.440253552214467</v>
+        <v>4.437501130016615</v>
       </c>
       <c r="F11">
-        <v>51.10319307541865</v>
+        <v>51.05644556336134</v>
       </c>
       <c r="G11">
-        <v>39.64856655066974</v>
+        <v>39.70525979725786</v>
       </c>
       <c r="H11">
-        <v>10.23297646302219</v>
+        <v>39.3318282737763</v>
       </c>
       <c r="I11">
-        <v>4.181221206579529</v>
+        <v>10.2438810816687</v>
       </c>
       <c r="J11">
-        <v>53.5161544790755</v>
+        <v>4.180176350797995</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>53.49655647633308</v>
       </c>
       <c r="L11">
-        <v>36.46319007708355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>36.45307880227611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.64883073376357</v>
+        <v>10.65307446105457</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.178346254412516</v>
+        <v>4.168819685768745</v>
       </c>
       <c r="E12">
-        <v>4.397457274787696</v>
+        <v>4.394623272561477</v>
       </c>
       <c r="F12">
-        <v>51.9636857935898</v>
+        <v>51.91589803654026</v>
       </c>
       <c r="G12">
-        <v>40.32965804083469</v>
+        <v>40.3871145054594</v>
       </c>
       <c r="H12">
-        <v>10.12310455372785</v>
+        <v>39.99802254066966</v>
       </c>
       <c r="I12">
-        <v>4.134549744102105</v>
+        <v>10.13446247880768</v>
       </c>
       <c r="J12">
-        <v>54.28160642483903</v>
+        <v>4.133481474962117</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>54.26146920321422</v>
       </c>
       <c r="L12">
-        <v>36.98986229828955</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>36.97943463220421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.62206638686704</v>
+        <v>10.62629810851056</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.161529034917278</v>
+        <v>4.152049350207348</v>
       </c>
       <c r="E13">
-        <v>4.406651912511633</v>
+        <v>4.403835341678489</v>
       </c>
       <c r="F13">
-        <v>51.77815278475398</v>
+        <v>51.73059077123207</v>
       </c>
       <c r="G13">
-        <v>40.18281420837022</v>
+        <v>40.2401072087686</v>
       </c>
       <c r="H13">
-        <v>10.14662126932431</v>
+        <v>39.85434930798403</v>
       </c>
       <c r="I13">
-        <v>4.144539699200593</v>
+        <v>10.15788092113942</v>
       </c>
       <c r="J13">
-        <v>54.11705610463395</v>
+        <v>4.143476429107947</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>54.09703604361298</v>
       </c>
       <c r="L13">
-        <v>36.87661915038301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>36.86626033678552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.53439928090557</v>
+        <v>10.53859159754279</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.106874639547184</v>
+        <v>4.097547102085151</v>
       </c>
       <c r="E14">
-        <v>4.436722720695645</v>
+        <v>4.433963525369474</v>
       </c>
       <c r="F14">
-        <v>51.17389577961955</v>
+        <v>51.12706343655857</v>
       </c>
       <c r="G14">
-        <v>39.70453240952941</v>
+        <v>39.76128884878842</v>
       </c>
       <c r="H14">
-        <v>10.22387231321673</v>
+        <v>39.38655139645107</v>
       </c>
       <c r="I14">
-        <v>4.177354267179849</v>
+        <v>10.23481393660957</v>
       </c>
       <c r="J14">
-        <v>53.57926794186179</v>
+        <v>4.176307465686532</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>53.55962603029541</v>
       </c>
       <c r="L14">
-        <v>36.50660496189449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>36.49646797076286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.48040546241031</v>
+        <v>10.48457344935625</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.073535846005467</v>
+        <v>4.064300963256313</v>
       </c>
       <c r="E15">
-        <v>4.455206169521177</v>
+        <v>4.452482513596374</v>
       </c>
       <c r="F15">
-        <v>50.80433722053491</v>
+        <v>50.75794704226395</v>
       </c>
       <c r="G15">
-        <v>39.41199448351655</v>
+        <v>39.4684196860997</v>
       </c>
       <c r="H15">
-        <v>10.27160784264684</v>
+        <v>39.10054703858407</v>
       </c>
       <c r="I15">
-        <v>4.197628665131533</v>
+        <v>10.28235653255792</v>
       </c>
       <c r="J15">
-        <v>53.24893919427281</v>
+        <v>4.196592077205229</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>53.22952602344672</v>
       </c>
       <c r="L15">
-        <v>36.27939733651515</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>36.26939421978565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.16642302606222</v>
+        <v>10.17044865243475</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.884317253200028</v>
+        <v>3.875606486120719</v>
       </c>
       <c r="E16">
-        <v>4.562069213633714</v>
+        <v>4.55955487819941</v>
       </c>
       <c r="F16">
-        <v>48.69317867219593</v>
+        <v>48.64925804284571</v>
       </c>
       <c r="G16">
-        <v>37.74039328336805</v>
+        <v>37.79488408075724</v>
       </c>
       <c r="H16">
-        <v>10.55110989663439</v>
+        <v>37.46815786395371</v>
       </c>
       <c r="I16">
-        <v>4.316257471283566</v>
+        <v>10.56078048797658</v>
       </c>
       <c r="J16">
-        <v>51.34067280054902</v>
+        <v>4.315281287164948</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>51.32253143771904</v>
       </c>
       <c r="L16">
-        <v>34.96785536687705</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>34.95859228511207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.969689977717779</v>
+        <v>9.973625665938853</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.76958254625471</v>
+        <v>3.761188577834885</v>
       </c>
       <c r="E17">
-        <v>4.628428920734825</v>
+        <v>4.62604765418807</v>
       </c>
       <c r="F17">
-        <v>47.40195251263653</v>
+        <v>47.35949809880172</v>
       </c>
       <c r="G17">
-        <v>36.71756158644538</v>
+        <v>36.77083645595062</v>
       </c>
       <c r="H17">
-        <v>10.72745471745746</v>
+        <v>36.47102413270423</v>
       </c>
       <c r="I17">
-        <v>4.390994504744559</v>
+        <v>10.73648714520754</v>
       </c>
       <c r="J17">
-        <v>50.15515569984975</v>
+        <v>4.390056975950947</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>50.13776480945006</v>
       </c>
       <c r="L17">
-        <v>34.15390852342951</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>34.14507857678957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.855007413932539</v>
+        <v>9.858890418925778</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.703979108123846</v>
+        <v>3.695766106023561</v>
       </c>
       <c r="E18">
-        <v>4.666880228341528</v>
+        <v>4.664577071982244</v>
       </c>
       <c r="F18">
-        <v>46.65998593132951</v>
+        <v>46.61835994624785</v>
       </c>
       <c r="G18">
-        <v>36.12963236994853</v>
+        <v>36.18219818538287</v>
       </c>
       <c r="H18">
-        <v>10.83052609012804</v>
+        <v>35.8985050288636</v>
       </c>
       <c r="I18">
-        <v>4.434626981210932</v>
+        <v>10.83919941925142</v>
       </c>
       <c r="J18">
-        <v>49.46737330186807</v>
+        <v>4.433712242816069</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>49.45040492302905</v>
       </c>
       <c r="L18">
-        <v>33.68198937626595</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>33.67340208115039</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.815914366623186</v>
+        <v>9.81977937045057</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.681824550852977</v>
+        <v>3.673672648249375</v>
       </c>
       <c r="E19">
-        <v>4.679946876338774</v>
+        <v>4.677670424997677</v>
       </c>
       <c r="F19">
-        <v>46.40882943639321</v>
+        <v>46.36748163882996</v>
       </c>
       <c r="G19">
-        <v>35.93058320173848</v>
+        <v>35.98290736773198</v>
       </c>
       <c r="H19">
-        <v>10.86569372464011</v>
+        <v>35.70478406860409</v>
       </c>
       <c r="I19">
-        <v>4.449504890212596</v>
+        <v>10.8742467784544</v>
       </c>
       <c r="J19">
-        <v>49.23344900804565</v>
+        <v>4.448597960873193</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>49.2166222662235</v>
       </c>
       <c r="L19">
-        <v>33.52153217291375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>33.51302602357528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.990790270485467</v>
+        <v>9.994735631481113</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.781753773181965</v>
+        <v>3.773326220349562</v>
       </c>
       <c r="E20">
-        <v>4.621335303273582</v>
+        <v>4.618939705678428</v>
       </c>
       <c r="F20">
-        <v>47.53931692362112</v>
+        <v>47.49670803311011</v>
       </c>
       <c r="G20">
-        <v>36.82639233854092</v>
+        <v>36.87979766945805</v>
       </c>
       <c r="H20">
-        <v>10.70850941310563</v>
+        <v>36.57705475354425</v>
       </c>
       <c r="I20">
-        <v>4.382970262753899</v>
+        <v>10.71760893755079</v>
       </c>
       <c r="J20">
-        <v>50.28195765307194</v>
+        <v>4.382028560682736</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>50.26448785668971</v>
       </c>
       <c r="L20">
-        <v>34.24093675482928</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>34.23206139506819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.56021064683144</v>
+        <v>10.56441457795322</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.122898338133941</v>
+        <v>4.113526227496676</v>
       </c>
       <c r="E21">
-        <v>4.427876700481852</v>
+        <v>4.425100569192404</v>
       </c>
       <c r="F21">
-        <v>51.35125748829275</v>
+        <v>51.30421184237797</v>
       </c>
       <c r="G21">
-        <v>39.84492286270908</v>
+        <v>39.90183744868374</v>
       </c>
       <c r="H21">
-        <v>10.20109376306218</v>
+        <v>39.52383929299535</v>
       </c>
       <c r="I21">
-        <v>4.167678863414897</v>
+        <v>10.2121284073859</v>
       </c>
       <c r="J21">
-        <v>53.73741760290616</v>
+        <v>4.166627198298188</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>53.71766523471189</v>
       </c>
       <c r="L21">
-        <v>36.61540227861352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>36.60520055823955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.91910640329355</v>
+        <v>10.92347070015522</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.351765899836717</v>
+        <v>4.341753672815339</v>
       </c>
       <c r="E22">
-        <v>4.304279251392913</v>
+        <v>4.301271715457543</v>
       </c>
       <c r="F22">
-        <v>53.86589858432186</v>
+        <v>53.81574783491211</v>
       </c>
       <c r="G22">
-        <v>41.83499313876487</v>
+        <v>41.89408882965438</v>
       </c>
       <c r="H22">
-        <v>9.887707106006303</v>
+        <v>41.47209421044409</v>
       </c>
       <c r="I22">
-        <v>4.034570633162436</v>
+        <v>9.900088511695534</v>
       </c>
       <c r="J22">
-        <v>55.95343830797419</v>
+        <v>4.033452655201648</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>55.93206995445898</v>
       </c>
       <c r="L22">
-        <v>38.14115447789919</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>38.1299997912258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.72875029304127</v>
+        <v>10.73302980024585</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.228936967725564</v>
+        <v>4.219269150048236</v>
       </c>
       <c r="E23">
-        <v>4.369964496411226</v>
+        <v>4.367078693922332</v>
       </c>
       <c r="F23">
-        <v>52.52068566070347</v>
+        <v>52.47221525811688</v>
       </c>
       <c r="G23">
-        <v>40.77048274984108</v>
+        <v>40.82842623832252</v>
       </c>
       <c r="H23">
-        <v>10.05308701583017</v>
+        <v>40.42946158615344</v>
       </c>
       <c r="I23">
-        <v>4.104806232526462</v>
+        <v>10.06474168600013</v>
       </c>
       <c r="J23">
-        <v>54.77400923823215</v>
+        <v>4.103723117269129</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>54.75351723978766</v>
       </c>
       <c r="L23">
-        <v>37.32881053000499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>37.31817401093621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.981255747049623</v>
+        <v>9.985196738024801</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.776250067766979</v>
+        <v>3.767837701962887</v>
       </c>
       <c r="E24">
-        <v>4.624541395380648</v>
+        <v>4.622152271879366</v>
       </c>
       <c r="F24">
-        <v>47.47721346989209</v>
+        <v>47.43467446279906</v>
       </c>
       <c r="G24">
-        <v>36.77718975131749</v>
+        <v>36.8305361315342</v>
       </c>
       <c r="H24">
-        <v>10.7170693615728</v>
+        <v>36.52911611859809</v>
       </c>
       <c r="I24">
-        <v>4.386595968359925</v>
+        <v>10.72613852747471</v>
       </c>
       <c r="J24">
-        <v>50.22464994590605</v>
+        <v>4.385656151269126</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>50.20721585036137</v>
       </c>
       <c r="L24">
-        <v>34.20160373288575</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>34.19274892394017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.116497300942218</v>
+        <v>9.120036620934489</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.302054053819591</v>
+        <v>3.294951200910842</v>
       </c>
       <c r="E25">
-        <v>4.909969579531459</v>
+        <v>4.908175508299243</v>
       </c>
       <c r="F25">
-        <v>42.05972094121547</v>
+        <v>42.02302695921269</v>
       </c>
       <c r="G25">
-        <v>32.48027111212279</v>
+        <v>32.52829337198449</v>
       </c>
       <c r="H25">
-        <v>11.49528329296808</v>
+        <v>32.3569100014379</v>
       </c>
       <c r="I25">
-        <v>4.71492584197058</v>
+        <v>11.50185905010903</v>
       </c>
       <c r="J25">
-        <v>45.08826360594094</v>
+        <v>4.714161462704954</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>45.07378905572111</v>
       </c>
       <c r="L25">
-        <v>30.68224772363132</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>30.67507405613111</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.431450620303169</v>
+        <v>16.16913898695687</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.949430094925969</v>
+        <v>6.076513625159278</v>
       </c>
       <c r="E2">
-        <v>5.127516144525881</v>
+        <v>11.57445526957383</v>
       </c>
       <c r="F2">
-        <v>38.05627675837292</v>
+        <v>40.00528419359849</v>
       </c>
       <c r="G2">
-        <v>29.31835647347576</v>
+        <v>2.113536623922414</v>
       </c>
       <c r="H2">
-        <v>29.33082867472965</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>12.11464839387097</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.97140645627083</v>
+        <v>8.181973871447781</v>
       </c>
       <c r="K2">
-        <v>41.05565145348992</v>
+        <v>22.91418333120207</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.051322931486236</v>
       </c>
       <c r="M2">
-        <v>27.92965920870791</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.12309386199773</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>31.41453664209716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.932332563097042</v>
+        <v>15.37541590158568</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.713443668440263</v>
+        <v>5.748954949373446</v>
       </c>
       <c r="E3">
-        <v>5.281614827508763</v>
+        <v>11.20206728170705</v>
       </c>
       <c r="F3">
-        <v>35.54202561547126</v>
+        <v>38.92493695731268</v>
       </c>
       <c r="G3">
-        <v>27.14821129824819</v>
+        <v>2.125355633864978</v>
       </c>
       <c r="H3">
-        <v>27.46206504682173</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.55232639521434</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5.153817342058193</v>
+        <v>8.083306338939666</v>
       </c>
       <c r="K3">
-        <v>38.16806218625978</v>
+        <v>21.30610762314038</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8.600856189087535</v>
       </c>
       <c r="M3">
-        <v>25.96088624671717</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.60881602840855</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>30.49160660413991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.609879431454296</v>
+        <v>14.877947099511</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.566737083305092</v>
+        <v>5.541697108404299</v>
       </c>
       <c r="E4">
-        <v>5.378966025263271</v>
+        <v>10.96891031863665</v>
       </c>
       <c r="F4">
-        <v>33.994666843159</v>
+        <v>38.28889867242006</v>
       </c>
       <c r="G4">
-        <v>25.83201504404472</v>
+        <v>2.132774486258908</v>
       </c>
       <c r="H4">
-        <v>26.31963253916713</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>12.83135868470373</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>5.269521150195229</v>
+        <v>8.022477147003697</v>
       </c>
       <c r="K4">
-        <v>36.30969008091665</v>
+        <v>20.26693052485485</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.318357195759686</v>
       </c>
       <c r="M4">
-        <v>24.6956578468355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.29089486313607</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>29.94511341530704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.474472824467601</v>
+        <v>14.67290956953304</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.506382695053035</v>
+        <v>5.455679496437088</v>
       </c>
       <c r="E5">
-        <v>5.419334376679514</v>
+        <v>10.87276588493683</v>
       </c>
       <c r="F5">
-        <v>33.36320093198484</v>
+        <v>38.03654915612441</v>
       </c>
       <c r="G5">
-        <v>25.29173669964751</v>
+        <v>2.135841442373885</v>
       </c>
       <c r="H5">
-        <v>25.85534680830403</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>12.94757656846915</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>5.317575847512209</v>
+        <v>7.99761322461525</v>
       </c>
       <c r="K5">
-        <v>35.53036624465221</v>
+        <v>19.83023241420315</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.201868389883005</v>
       </c>
       <c r="M5">
-        <v>24.16549505967382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.16095034361331</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>29.72750958169941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.451747582795864</v>
+        <v>14.6387310388927</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.496323389191026</v>
+        <v>5.441302015213829</v>
       </c>
       <c r="E6">
-        <v>5.42607991979392</v>
+        <v>10.85673315523081</v>
       </c>
       <c r="F6">
-        <v>33.25829661273105</v>
+        <v>37.99505920180252</v>
       </c>
       <c r="G6">
-        <v>25.20178709133817</v>
+        <v>2.136353431346797</v>
       </c>
       <c r="H6">
-        <v>25.77833262619849</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>12.96702421366274</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5.325609352440496</v>
+        <v>7.993479673895361</v>
       </c>
       <c r="K6">
-        <v>35.39961505278296</v>
+        <v>19.75691473497474</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.182446854332387</v>
       </c>
       <c r="M6">
-        <v>24.07657126230367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.13935451991901</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>29.69168510024641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.608069471301201</v>
+        <v>14.8751909275268</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.565925572452057</v>
+        <v>5.540543365582266</v>
       </c>
       <c r="E7">
-        <v>5.379507611006475</v>
+        <v>10.96761824911892</v>
       </c>
       <c r="F7">
-        <v>33.98615415541529</v>
+        <v>38.28546772955937</v>
       </c>
       <c r="G7">
-        <v>25.82474456138528</v>
+        <v>2.132815667520028</v>
       </c>
       <c r="H7">
-        <v>26.31336575480119</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>12.83291596319283</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>5.270165597512269</v>
+        <v>8.022142145532031</v>
       </c>
       <c r="K7">
-        <v>36.29926969982268</v>
+        <v>20.26109486100289</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.316791550900739</v>
       </c>
       <c r="M7">
-        <v>24.68856737128456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.2891437443398</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>29.94215806862046</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.262680039101152</v>
+        <v>15.8976871311795</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.868363010210147</v>
+        <v>5.964831300639724</v>
       </c>
       <c r="E8">
-        <v>5.180086904964809</v>
+        <v>11.44698978953681</v>
       </c>
       <c r="F8">
-        <v>37.1900300558295</v>
+        <v>39.62709896462531</v>
       </c>
       <c r="G8">
-        <v>28.55836197164541</v>
+        <v>2.117580090459679</v>
       </c>
       <c r="H8">
-        <v>28.68538783841919</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>12.26336665767571</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>5.03351328542379</v>
+        <v>8.14799575401706</v>
       </c>
       <c r="K8">
-        <v>40.07737815717019</v>
+        <v>22.37035043943438</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.897291243947532</v>
       </c>
       <c r="M8">
-        <v>27.26227989395974</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12.94630202378017</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>31.09212914147679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.419415416698659</v>
+        <v>17.81479776398328</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.45329170499344</v>
+        <v>6.74961383927892</v>
       </c>
       <c r="E9">
-        <v>4.810452761311683</v>
+        <v>12.35182880833699</v>
       </c>
       <c r="F9">
-        <v>43.84916026150798</v>
+        <v>42.47641248659582</v>
       </c>
       <c r="G9">
-        <v>33.98129631194925</v>
+        <v>2.088838568274222</v>
       </c>
       <c r="H9">
-        <v>33.76252247611377</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>11.23347102175289</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>4.600841613518038</v>
+        <v>8.393579848768493</v>
       </c>
       <c r="K9">
-        <v>46.837642998816</v>
+        <v>26.10502305248303</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.20656882987555</v>
       </c>
       <c r="M9">
-        <v>31.88243261162105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14.21244344095244</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>33.50741570559989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.19270150856183</v>
+        <v>19.16261587236478</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.888722198914098</v>
+        <v>7.300490531179592</v>
       </c>
       <c r="E10">
-        <v>4.552006940213678</v>
+        <v>12.99709024317037</v>
       </c>
       <c r="F10">
-        <v>48.79657286678266</v>
+        <v>44.70770156235881</v>
       </c>
       <c r="G10">
-        <v>37.91182588297365</v>
+        <v>2.068180789564776</v>
       </c>
       <c r="H10">
-        <v>37.58211337674194</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>10.54096515981333</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4.306841556456039</v>
+        <v>8.57455696974808</v>
       </c>
       <c r="K10">
-        <v>51.45695118692318</v>
+        <v>28.61854893196234</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.16852576886309</v>
       </c>
       <c r="M10">
-        <v>35.05093193429729</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>15.12351057763892</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>35.3819638940699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.52827923015618</v>
+        <v>19.76200323215864</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.091181486860329</v>
+        <v>7.546524987932271</v>
       </c>
       <c r="E11">
-        <v>4.437501130016615</v>
+        <v>13.28717906244693</v>
       </c>
       <c r="F11">
-        <v>51.05644556336134</v>
+        <v>45.75471182449542</v>
       </c>
       <c r="G11">
-        <v>39.70525979725786</v>
+        <v>2.058822332814078</v>
       </c>
       <c r="H11">
-        <v>39.3318282737763</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>10.2438810816687</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4.180176350797995</v>
+        <v>8.65737548924486</v>
       </c>
       <c r="K11">
-        <v>53.49655647633308</v>
+        <v>29.71560485859157</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.58867454388258</v>
       </c>
       <c r="M11">
-        <v>36.45307880227611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>15.53323416372412</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>36.25790234551476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.65307446105457</v>
+        <v>19.98700512355796</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.168819685768745</v>
+        <v>7.639144037966507</v>
       </c>
       <c r="E12">
-        <v>4.394623272561477</v>
+        <v>13.3966251092449</v>
       </c>
       <c r="F12">
-        <v>51.91589803654026</v>
+        <v>46.15604062271441</v>
       </c>
       <c r="G12">
-        <v>40.3871145054594</v>
+        <v>2.055278301337337</v>
       </c>
       <c r="H12">
-        <v>39.99802254066966</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>10.13446247880768</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4.133481474962117</v>
+        <v>8.688845381547047</v>
       </c>
       <c r="K12">
-        <v>54.26146920321422</v>
+        <v>30.12470278965418</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.74539237007652</v>
       </c>
       <c r="M12">
-        <v>36.97943463220421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15.72857976608596</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>36.59313285312331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.62629810851056</v>
+        <v>19.9386341987773</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.152049350207348</v>
+        <v>7.619219334518084</v>
       </c>
       <c r="E13">
-        <v>4.403835341678489</v>
+        <v>13.37307020974993</v>
       </c>
       <c r="F13">
-        <v>51.73059077123207</v>
+        <v>46.06938669171097</v>
       </c>
       <c r="G13">
-        <v>40.2401072087686</v>
+        <v>2.056041680838808</v>
       </c>
       <c r="H13">
-        <v>39.85434930798403</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>10.15788092113942</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4.143476429107947</v>
+        <v>8.68206228069765</v>
       </c>
       <c r="K13">
-        <v>54.09703604361298</v>
+        <v>30.03687217130245</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.71174420488832</v>
       </c>
       <c r="M13">
-        <v>36.86626033678552</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15.68303073364879</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>36.5207739136108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.53859159754279</v>
+        <v>19.78055365038262</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.097547102085151</v>
+        <v>7.554155120082924</v>
       </c>
       <c r="E14">
-        <v>4.433963525369474</v>
+        <v>13.29619074746089</v>
       </c>
       <c r="F14">
-        <v>51.12706343655857</v>
+        <v>45.78763045985665</v>
       </c>
       <c r="G14">
-        <v>39.76128884878842</v>
+        <v>2.058530802898278</v>
       </c>
       <c r="H14">
-        <v>39.38655139645107</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>10.23481393660957</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4.176307465686532</v>
+        <v>8.659962123399374</v>
       </c>
       <c r="K14">
-        <v>53.55962603029541</v>
+        <v>29.74938647024871</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.60161480158644</v>
       </c>
       <c r="M14">
-        <v>36.49646797076286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15.54595565367342</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>36.28540977450331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.48457344935625</v>
+        <v>19.68346860003247</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.064300963256313</v>
+        <v>7.514233489271025</v>
       </c>
       <c r="E15">
-        <v>4.452482513596374</v>
+        <v>13.24905032843306</v>
       </c>
       <c r="F15">
-        <v>50.75794704226395</v>
+        <v>45.61568701241216</v>
       </c>
       <c r="G15">
-        <v>39.4684196860997</v>
+        <v>2.06005525267691</v>
       </c>
       <c r="H15">
-        <v>39.10054703858407</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>10.28235653255792</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4.196592077205229</v>
+        <v>8.646440487709986</v>
       </c>
       <c r="K15">
-        <v>53.22952602344672</v>
+        <v>29.57247895537722</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.53385098548552</v>
       </c>
       <c r="M15">
-        <v>36.26939421978565</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15.47940339429136</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>36.1417095372285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.17044865243475</v>
+        <v>19.12316727576594</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.875606486120719</v>
+        <v>7.284328467760604</v>
       </c>
       <c r="E16">
-        <v>4.55955487819941</v>
+        <v>12.978070176211</v>
       </c>
       <c r="F16">
-        <v>48.64925804284571</v>
+        <v>44.63993992892286</v>
       </c>
       <c r="G16">
-        <v>37.79488408075724</v>
+        <v>2.068792692735864</v>
       </c>
       <c r="H16">
-        <v>37.46815786395371</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>10.56078048797658</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4.315281287164948</v>
+        <v>8.569157528248311</v>
       </c>
       <c r="K16">
-        <v>51.32253143771904</v>
+        <v>28.54594846613609</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.14072732169905</v>
       </c>
       <c r="M16">
-        <v>34.95859228511207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>15.09663736166739</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>35.32520102405289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.973625665938853</v>
+        <v>18.77590980679219</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.761188577834885</v>
+        <v>7.142190241195976</v>
       </c>
       <c r="E17">
-        <v>4.62604765418807</v>
+        <v>12.81100771614439</v>
       </c>
       <c r="F17">
-        <v>47.35949809880172</v>
+        <v>44.04969341587472</v>
       </c>
       <c r="G17">
-        <v>36.77083645595062</v>
+        <v>2.074158914169741</v>
       </c>
       <c r="H17">
-        <v>36.47102413270423</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>10.73648714520754</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4.390056975950947</v>
+        <v>8.521897355613877</v>
       </c>
       <c r="K17">
-        <v>50.13776480945006</v>
+        <v>27.90455649339921</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.89517399664029</v>
       </c>
       <c r="M17">
-        <v>34.14507857678957</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14.86059429563851</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>34.83035629927986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.858890418925778</v>
+        <v>18.57488024124708</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.695766106023561</v>
+        <v>7.05999903380834</v>
       </c>
       <c r="E18">
-        <v>4.664577071982244</v>
+        <v>12.71458683109682</v>
       </c>
       <c r="F18">
-        <v>46.61835994624785</v>
+        <v>43.71319022921034</v>
       </c>
       <c r="G18">
-        <v>36.18219818538287</v>
+        <v>2.077249469832412</v>
       </c>
       <c r="H18">
-        <v>35.8985050288636</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>10.83919941925142</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4.433712242816069</v>
+        <v>8.494758135615033</v>
       </c>
       <c r="K18">
-        <v>49.45040492302905</v>
+        <v>27.53125914792662</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.75228730854976</v>
       </c>
       <c r="M18">
-        <v>33.67340208115039</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14.72438264200835</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>34.54790213910005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.81977937045057</v>
+        <v>18.50659304447861</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.673672648249375</v>
+        <v>7.032092521417474</v>
       </c>
       <c r="E19">
-        <v>4.677670424997677</v>
+        <v>12.68188115233321</v>
       </c>
       <c r="F19">
-        <v>46.36748163882996</v>
+        <v>43.59976354716053</v>
       </c>
       <c r="G19">
-        <v>35.98290736773198</v>
+        <v>2.078296737521245</v>
       </c>
       <c r="H19">
-        <v>35.70478406860409</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>10.8742467784544</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4.448597960873193</v>
+        <v>8.485575712377232</v>
       </c>
       <c r="K19">
-        <v>49.2166222662235</v>
+        <v>27.40410431489184</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.70362120125276</v>
       </c>
       <c r="M19">
-        <v>33.51302602357528</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14.67818799388332</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>34.45263554938579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.994735631481113</v>
+        <v>18.81301022581505</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.773326220349562</v>
+        <v>7.157365624492333</v>
       </c>
       <c r="E20">
-        <v>4.618939705678428</v>
+        <v>12.82882547383101</v>
       </c>
       <c r="F20">
-        <v>47.49670803311011</v>
+        <v>44.11221508174363</v>
       </c>
       <c r="G20">
-        <v>36.87979766945805</v>
+        <v>2.073587291260512</v>
       </c>
       <c r="H20">
-        <v>36.57705475354425</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>10.71760893755079</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4.382028560682736</v>
+        <v>8.526923520695497</v>
       </c>
       <c r="K20">
-        <v>50.26448785668971</v>
+        <v>27.97328537211271</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.92148356798594</v>
       </c>
       <c r="M20">
-        <v>34.23206139506819</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.88576781913763</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>34.88280787160456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.56441457795322</v>
+        <v>19.82703905636396</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.113526227496676</v>
+        <v>7.573279988748335</v>
       </c>
       <c r="E21">
-        <v>4.425100569192404</v>
+        <v>13.31878223284219</v>
       </c>
       <c r="F21">
-        <v>51.30421184237797</v>
+        <v>45.8702550651236</v>
       </c>
       <c r="G21">
-        <v>39.90183744868374</v>
+        <v>2.057799742499358</v>
       </c>
       <c r="H21">
-        <v>39.52383929299535</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>10.2121284073859</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4.166627198298188</v>
+        <v>8.666450198844819</v>
       </c>
       <c r="K21">
-        <v>53.71766523471189</v>
+        <v>29.83399702038237</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.63402607755137</v>
       </c>
       <c r="M21">
-        <v>36.60520055823955</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15.57784487625069</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>36.35444412080903</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.92347070015522</v>
+        <v>20.47829622642445</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.341753672815339</v>
+        <v>7.841971146108184</v>
       </c>
       <c r="E22">
-        <v>4.301271715457543</v>
+        <v>13.63670161111565</v>
       </c>
       <c r="F22">
-        <v>53.81574783491211</v>
+        <v>47.04768253909787</v>
       </c>
       <c r="G22">
-        <v>41.89408882965438</v>
+        <v>2.04747729133626</v>
       </c>
       <c r="H22">
-        <v>41.47209421044409</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>9.900088511695534</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4.033452655201648</v>
+        <v>8.75829333816621</v>
       </c>
       <c r="K22">
-        <v>55.93206995445898</v>
+        <v>31.0133490351217</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.08589217456282</v>
       </c>
       <c r="M22">
-        <v>38.1299997912258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>16.18927864274358</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>37.3369799840162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.73302980024585</v>
+        <v>20.13174552446</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.219269150048236</v>
+        <v>7.698810940729668</v>
       </c>
       <c r="E23">
-        <v>4.367078693922332</v>
+        <v>13.46719537715376</v>
       </c>
       <c r="F23">
-        <v>52.47221525811688</v>
+        <v>46.41655755629371</v>
       </c>
       <c r="G23">
-        <v>40.82842623832252</v>
+        <v>2.052989102780514</v>
       </c>
       <c r="H23">
-        <v>40.42946158615344</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>10.06474168600013</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4.103723117269129</v>
+        <v>8.709200615058061</v>
       </c>
       <c r="K23">
-        <v>54.75351723978766</v>
+        <v>30.38714662306795</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.84594144338488</v>
       </c>
       <c r="M23">
-        <v>37.31817401093621</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15.86466733835012</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>36.81059835538476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.985196738024801</v>
+        <v>18.79624144508752</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.767837701962887</v>
+        <v>7.150506318043333</v>
       </c>
       <c r="E24">
-        <v>4.622152271879366</v>
+        <v>12.82077123842439</v>
       </c>
       <c r="F24">
-        <v>47.43467446279906</v>
+        <v>44.08394021634292</v>
       </c>
       <c r="G24">
-        <v>36.8305361315342</v>
+        <v>2.07384570459701</v>
       </c>
       <c r="H24">
-        <v>36.52911611859809</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>10.72613852747471</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4.385656151269126</v>
+        <v>8.524651096763174</v>
       </c>
       <c r="K24">
-        <v>50.20721585036137</v>
+        <v>27.94222725086929</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.90959436132828</v>
       </c>
       <c r="M24">
-        <v>34.19274892394017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.87438844813693</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>34.85908817948826</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.120036620934489</v>
+        <v>17.30648205710478</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.294951200910842</v>
+        <v>6.542105165056913</v>
       </c>
       <c r="E25">
-        <v>4.908175508299243</v>
+        <v>12.11067463889507</v>
       </c>
       <c r="F25">
-        <v>42.02302695921269</v>
+        <v>41.68185933117689</v>
       </c>
       <c r="G25">
-        <v>32.52829337198449</v>
+        <v>2.096514872183208</v>
       </c>
       <c r="H25">
-        <v>32.3569100014379</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>11.50185905010903</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4.714161462704954</v>
+        <v>8.327154388053438</v>
       </c>
       <c r="K25">
-        <v>45.07378905572111</v>
+        <v>25.13627029667136</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.83608998804624</v>
       </c>
       <c r="M25">
-        <v>30.67507405613111</v>
+        <v>13.87299213871202</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>32.8367530225439</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.16913898695687</v>
+        <v>14.36576245480743</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.076513625159278</v>
+        <v>3.221343179411167</v>
       </c>
       <c r="E2">
-        <v>11.57445526957383</v>
+        <v>18.24122788489608</v>
       </c>
       <c r="F2">
-        <v>40.00528419359849</v>
+        <v>18.43528113326553</v>
       </c>
       <c r="G2">
-        <v>2.113536623922414</v>
+        <v>24.80425567035772</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.662085975750599</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>14.09090962509058</v>
       </c>
       <c r="J2">
-        <v>8.181973871447781</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>22.91418333120207</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>9.051322931486236</v>
+        <v>7.593073632537532</v>
       </c>
       <c r="M2">
-        <v>13.12309386199773</v>
+        <v>11.26255750724823</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>14.40942713429888</v>
       </c>
       <c r="O2">
-        <v>31.41453664209716</v>
+        <v>13.59719319193684</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.37541590158568</v>
+        <v>13.52508214785927</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.748954949373446</v>
+        <v>3.067903049027031</v>
       </c>
       <c r="E3">
-        <v>11.20206728170705</v>
+        <v>17.93323676876492</v>
       </c>
       <c r="F3">
-        <v>38.92493695731268</v>
+        <v>17.42472665214989</v>
       </c>
       <c r="G3">
-        <v>2.125355633864978</v>
+        <v>23.21656416402212</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.474732092258327</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>14.45063447584745</v>
       </c>
       <c r="J3">
-        <v>8.083306338939666</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>21.30610762314038</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>8.600856189087535</v>
+        <v>7.140660715024273</v>
       </c>
       <c r="M3">
-        <v>12.60881602840855</v>
+        <v>10.75243343509157</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>14.322849640362</v>
       </c>
       <c r="O3">
-        <v>30.49160660413991</v>
+        <v>12.98972022901303</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.877947099511</v>
+        <v>12.98326987452121</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.541697108404299</v>
+        <v>2.969319646497217</v>
       </c>
       <c r="E4">
-        <v>10.96891031863665</v>
+        <v>17.74323520343085</v>
       </c>
       <c r="F4">
-        <v>38.28889867242006</v>
+        <v>16.78737729906629</v>
       </c>
       <c r="G4">
-        <v>2.132774486258908</v>
+        <v>22.20354536697383</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.362753309758132</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>14.67862792653769</v>
       </c>
       <c r="J4">
-        <v>8.022477147003697</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>20.26693052485485</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>8.318357195759686</v>
+        <v>6.847710081218472</v>
       </c>
       <c r="M4">
-        <v>12.29089486313607</v>
+        <v>10.42876551316031</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>14.27334971611983</v>
       </c>
       <c r="O4">
-        <v>29.94511341530704</v>
+        <v>12.61293902166315</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.67290956953304</v>
+        <v>12.75617599479597</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.455679496437088</v>
+        <v>2.928072455479012</v>
       </c>
       <c r="E5">
-        <v>10.87276588493683</v>
+        <v>17.66567768108024</v>
       </c>
       <c r="F5">
-        <v>38.03654915612441</v>
+        <v>16.52374054170109</v>
       </c>
       <c r="G5">
-        <v>2.135841442373885</v>
+        <v>21.78142855911824</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.317936932280442</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>14.77334799492021</v>
       </c>
       <c r="J5">
-        <v>7.99761322461525</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>19.83023241420315</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>8.201868389883005</v>
+        <v>6.724540143803996</v>
       </c>
       <c r="M5">
-        <v>12.16095034361331</v>
+        <v>10.29441009267823</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>14.25410311955709</v>
       </c>
       <c r="O5">
-        <v>29.72750958169941</v>
+        <v>12.45867913005169</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.6387310388927</v>
+        <v>12.71809157034217</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.441302015213829</v>
+        <v>2.921159380326586</v>
       </c>
       <c r="E6">
-        <v>10.85673315523081</v>
+        <v>17.6527942439273</v>
       </c>
       <c r="F6">
-        <v>37.99505920180252</v>
+        <v>16.47973843360638</v>
       </c>
       <c r="G6">
-        <v>2.136353431346797</v>
+        <v>21.71078475460518</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.310545837169677</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>14.78918615137419</v>
       </c>
       <c r="J6">
-        <v>7.993479673895361</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>19.75691473497474</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>8.182446854332387</v>
+        <v>6.703859834772984</v>
       </c>
       <c r="M6">
-        <v>12.13935451991901</v>
+        <v>10.27195745864613</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>14.25096323004209</v>
       </c>
       <c r="O6">
-        <v>29.69168510024641</v>
+        <v>12.43302839404349</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.8751909275268</v>
+        <v>12.98023250347457</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.540543365582266</v>
+        <v>2.968767682643116</v>
       </c>
       <c r="E7">
-        <v>10.96761824911892</v>
+        <v>17.7421896369106</v>
       </c>
       <c r="F7">
-        <v>38.28546772955937</v>
+        <v>16.78383715973943</v>
       </c>
       <c r="G7">
-        <v>2.132815667520028</v>
+        <v>22.19788977038855</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.36214553551275</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>14.67989799559485</v>
       </c>
       <c r="J7">
-        <v>8.022142145532031</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>20.26109486100289</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>8.316791550900739</v>
+        <v>6.846064276398415</v>
       </c>
       <c r="M7">
-        <v>12.2891437443398</v>
+        <v>10.42696325945977</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>14.27308639861848</v>
       </c>
       <c r="O7">
-        <v>29.94215806862046</v>
+        <v>12.61086119755115</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.8976871311795</v>
+        <v>14.0812918377424</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.964831300639724</v>
+        <v>3.169357897125955</v>
       </c>
       <c r="E8">
-        <v>11.44698978953681</v>
+        <v>18.13527393798444</v>
       </c>
       <c r="F8">
-        <v>39.62709896462531</v>
+        <v>18.09052095284667</v>
       </c>
       <c r="G8">
-        <v>2.117580090459679</v>
+        <v>24.26489361786731</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.596880324943372</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>14.21347712261131</v>
       </c>
       <c r="J8">
-        <v>8.14799575401706</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>22.37035043943438</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>8.897291243947532</v>
+        <v>7.440241042447017</v>
       </c>
       <c r="M8">
-        <v>12.94630202378017</v>
+        <v>11.08892971504096</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>14.37881903768893</v>
       </c>
       <c r="O8">
-        <v>31.09212914147679</v>
+        <v>13.38865526185124</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.81479776398328</v>
+        <v>16.03234725009971</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.74961383927892</v>
+        <v>3.527150642789155</v>
       </c>
       <c r="E9">
-        <v>12.35182880833699</v>
+        <v>18.89500870283338</v>
       </c>
       <c r="F9">
-        <v>42.47641248659582</v>
+        <v>20.50764541650307</v>
       </c>
       <c r="G9">
-        <v>2.088838568274222</v>
+        <v>28.08042953580627</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.07937785509397</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>13.35438922024613</v>
       </c>
       <c r="J9">
-        <v>8.393579848768493</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>26.10502305248303</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>10.20656882987555</v>
+        <v>8.484476576023901</v>
       </c>
       <c r="M9">
-        <v>14.21244344095244</v>
+        <v>12.29788902155026</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>14.6149387810767</v>
       </c>
       <c r="O9">
-        <v>33.50741570559989</v>
+        <v>14.87499223141687</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.16261587236478</v>
+        <v>17.33435859574952</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.300490531179592</v>
+        <v>3.767429418150399</v>
       </c>
       <c r="E10">
-        <v>12.99709024317037</v>
+        <v>19.44128723196798</v>
       </c>
       <c r="F10">
-        <v>44.70770156235881</v>
+        <v>22.20756253491555</v>
       </c>
       <c r="G10">
-        <v>2.068180789564776</v>
+        <v>30.71740759934141</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.444709446058067</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>12.75575929523951</v>
       </c>
       <c r="J10">
-        <v>8.57455696974808</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>28.61854893196234</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>11.16852576886309</v>
+        <v>9.177660691304554</v>
       </c>
       <c r="M10">
-        <v>15.12351057763892</v>
+        <v>13.28425663717329</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>14.80557323727561</v>
       </c>
       <c r="O10">
-        <v>35.3819638940699</v>
+        <v>15.93350941559302</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.76200323215864</v>
+        <v>17.89758433723246</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.546524987932271</v>
+        <v>3.871706052095174</v>
       </c>
       <c r="E11">
-        <v>13.28717906244693</v>
+        <v>19.68621535642113</v>
       </c>
       <c r="F11">
-        <v>45.75471182449542</v>
+        <v>23.03234811118397</v>
       </c>
       <c r="G11">
-        <v>2.058822332814078</v>
+        <v>31.86842332080192</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.61274366603786</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>12.49020529293385</v>
       </c>
       <c r="J11">
-        <v>8.65737548924486</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>29.71560485859157</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>11.58867454388258</v>
+        <v>9.47699088197535</v>
       </c>
       <c r="M11">
-        <v>15.53323416372412</v>
+        <v>13.72273934385938</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>14.89592551844537</v>
       </c>
       <c r="O11">
-        <v>36.25790234551476</v>
+        <v>16.43553828885086</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.98700512355796</v>
+        <v>18.10665658462838</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.639144037966507</v>
+        <v>3.910462685977593</v>
       </c>
       <c r="E12">
-        <v>13.3966251092449</v>
+        <v>19.77837153250687</v>
       </c>
       <c r="F12">
-        <v>46.15604062271441</v>
+        <v>23.33954384931311</v>
       </c>
       <c r="G12">
-        <v>2.055278301337337</v>
+        <v>32.29735889751066</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.67660034325589</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>12.39059729517863</v>
       </c>
       <c r="J12">
-        <v>8.688845381547047</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>30.12470278965418</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>11.74539237007652</v>
+        <v>9.588047665377371</v>
       </c>
       <c r="M12">
-        <v>15.72857976608596</v>
+        <v>13.88529599329905</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>14.93065227542799</v>
       </c>
       <c r="O12">
-        <v>36.59313285312331</v>
+        <v>16.65996397569581</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.9386341987773</v>
+        <v>18.06181667668335</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.619219334518084</v>
+        <v>3.902148347520897</v>
       </c>
       <c r="E13">
-        <v>13.37307020974993</v>
+        <v>19.75855160833916</v>
       </c>
       <c r="F13">
-        <v>46.06938669171097</v>
+        <v>23.27361129137069</v>
       </c>
       <c r="G13">
-        <v>2.056041680838808</v>
+        <v>32.20528698688751</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.662838199450471</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>12.41200767638539</v>
       </c>
       <c r="J13">
-        <v>8.68206228069765</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>30.03687217130245</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>11.71174420488832</v>
+        <v>9.564231417070209</v>
       </c>
       <c r="M13">
-        <v>15.68303073364879</v>
+        <v>13.85044133506154</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>14.92315062493439</v>
       </c>
       <c r="O13">
-        <v>36.5207739136108</v>
+        <v>16.61179950894135</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.78055365038262</v>
+        <v>17.91486931911938</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.554155120082924</v>
+        <v>3.874909263689962</v>
       </c>
       <c r="E14">
-        <v>13.29619074746089</v>
+        <v>19.69380941143802</v>
       </c>
       <c r="F14">
-        <v>45.78763045985665</v>
+        <v>23.05772389558571</v>
       </c>
       <c r="G14">
-        <v>2.058530802898278</v>
+        <v>31.90385057757622</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.617992876904443</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>12.48199153395383</v>
       </c>
       <c r="J14">
-        <v>8.659962123399374</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>29.74938647024871</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>11.60161480158644</v>
+        <v>9.48617348746696</v>
       </c>
       <c r="M14">
-        <v>15.54595565367342</v>
+        <v>13.73618277018594</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>14.8987723007463</v>
       </c>
       <c r="O14">
-        <v>36.28540977450331</v>
+        <v>16.45407844580746</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.68346860003247</v>
+        <v>17.82431100394494</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.514233489271025</v>
+        <v>3.858129192875427</v>
       </c>
       <c r="E15">
-        <v>13.24905032843306</v>
+        <v>19.65407350938637</v>
       </c>
       <c r="F15">
-        <v>45.61568701241216</v>
+        <v>22.92481953257578</v>
       </c>
       <c r="G15">
-        <v>2.06005525267691</v>
+        <v>31.718311742533</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.59055213732907</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>12.5249819573735</v>
       </c>
       <c r="J15">
-        <v>8.646440487709986</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>29.57247895537722</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>11.53385098548552</v>
+        <v>9.438062429944379</v>
       </c>
       <c r="M15">
-        <v>15.47940339429136</v>
+        <v>13.6657424538349</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>14.88390628826318</v>
       </c>
       <c r="O15">
-        <v>36.1417095372285</v>
+        <v>16.35697206524215</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.12316727576594</v>
+        <v>17.29696278165211</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.284328467760604</v>
+        <v>3.760512818224811</v>
       </c>
       <c r="E16">
-        <v>12.978070176211</v>
+        <v>19.42520180352202</v>
       </c>
       <c r="F16">
-        <v>44.63993992892286</v>
+        <v>22.15294033303833</v>
       </c>
       <c r="G16">
-        <v>2.068792692735864</v>
+        <v>30.64121285682312</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.433761641085866</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>12.77324818494666</v>
       </c>
       <c r="J16">
-        <v>8.569157528248311</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>28.54594846613609</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>11.14072732169905</v>
+        <v>9.157777352256199</v>
       </c>
       <c r="M16">
-        <v>15.09663736166739</v>
+        <v>13.25511189720509</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>14.79974074532786</v>
       </c>
       <c r="O16">
-        <v>35.32520102405289</v>
+        <v>15.90242804044667</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.77590980679219</v>
+        <v>16.96598221862938</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.142190241195976</v>
+        <v>3.699334467568959</v>
       </c>
       <c r="E17">
-        <v>12.81100771614439</v>
+        <v>19.28382286465947</v>
       </c>
       <c r="F17">
-        <v>44.04969341587472</v>
+        <v>21.7045044409129</v>
       </c>
       <c r="G17">
-        <v>2.074158914169741</v>
+        <v>29.96804001560483</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.338018442363149</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>12.92726905921295</v>
       </c>
       <c r="J17">
-        <v>8.521897355613877</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>27.90455649339921</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>10.89517399664029</v>
+        <v>8.981737430733769</v>
       </c>
       <c r="M17">
-        <v>14.86059429563851</v>
+        <v>12.99697544617525</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>14.74903117910869</v>
       </c>
       <c r="O17">
-        <v>34.83035629927986</v>
+        <v>15.6290456223761</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.57488024124708</v>
+        <v>16.77287602285244</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.05999903380834</v>
+        <v>3.663673403253113</v>
       </c>
       <c r="E18">
-        <v>12.71458683109682</v>
+        <v>19.20217315275489</v>
       </c>
       <c r="F18">
-        <v>43.71319022921034</v>
+        <v>21.45497099824311</v>
       </c>
       <c r="G18">
-        <v>2.077249469832412</v>
+        <v>29.57627318390409</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.283125049714771</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.01649588489405</v>
       </c>
       <c r="J18">
-        <v>8.494758135615033</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>27.53125914792662</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>10.75228730854976</v>
+        <v>8.878976931033433</v>
       </c>
       <c r="M18">
-        <v>14.72438264200835</v>
+        <v>12.84620902734217</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>14.7202068422295</v>
       </c>
       <c r="O18">
-        <v>34.54790213910005</v>
+        <v>15.47098332745652</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.50659304447861</v>
+        <v>16.70702496372795</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.032092521417474</v>
+        <v>3.651518232471988</v>
       </c>
       <c r="E19">
-        <v>12.68188115233321</v>
+        <v>19.17447336908659</v>
       </c>
       <c r="F19">
-        <v>43.59976354716053</v>
+        <v>21.37011075278104</v>
       </c>
       <c r="G19">
-        <v>2.078296737521245</v>
+        <v>29.44284060776973</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.264570513553979</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.04681680340528</v>
       </c>
       <c r="J19">
-        <v>8.485575712377232</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>27.40410431489184</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>10.70362120125276</v>
+        <v>8.843924977871653</v>
       </c>
       <c r="M19">
-        <v>14.67818799388332</v>
+        <v>12.79476788425615</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>14.71050652977823</v>
       </c>
       <c r="O19">
-        <v>34.45263554938579</v>
+        <v>15.41732856246859</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.81301022581505</v>
+        <v>17.0014989728023</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.157365624492333</v>
+        <v>3.705896013439015</v>
       </c>
       <c r="E20">
-        <v>12.82882547383101</v>
+        <v>19.29890786940025</v>
       </c>
       <c r="F20">
-        <v>44.11221508174363</v>
+        <v>21.75050978498042</v>
       </c>
       <c r="G20">
-        <v>2.073587291260512</v>
+        <v>30.04017366901993</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.348192598222337</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>12.91080738979204</v>
       </c>
       <c r="J20">
-        <v>8.526923520695497</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>27.97328537211271</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>10.92148356798594</v>
+        <v>9.000633101802649</v>
       </c>
       <c r="M20">
-        <v>14.88576781913763</v>
+        <v>13.02469175378083</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>14.75439392558601</v>
       </c>
       <c r="O20">
-        <v>34.88280787160456</v>
+        <v>15.65823326264876</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.82703905636396</v>
+        <v>17.95814572846426</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.573279988748335</v>
+        <v>3.882929923527306</v>
       </c>
       <c r="E21">
-        <v>13.31878223284219</v>
+        <v>19.71284245117848</v>
       </c>
       <c r="F21">
-        <v>45.8702550651236</v>
+        <v>23.12127419381627</v>
       </c>
       <c r="G21">
-        <v>2.057799742499358</v>
+        <v>31.99257725374007</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.631159197725232</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>12.46140992269905</v>
       </c>
       <c r="J21">
-        <v>8.666450198844819</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>29.83399702038237</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>11.63402607755137</v>
+        <v>9.509163144023283</v>
       </c>
       <c r="M21">
-        <v>15.57784487625069</v>
+        <v>13.76983778865576</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>14.90591898303832</v>
       </c>
       <c r="O21">
-        <v>36.35444412080903</v>
+        <v>16.50050855535094</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.47829622642445</v>
+        <v>18.55883031017779</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.841971146108184</v>
+        <v>3.994370868612384</v>
       </c>
       <c r="E22">
-        <v>13.63670161111565</v>
+        <v>19.97988481207636</v>
       </c>
       <c r="F22">
-        <v>47.04768253909787</v>
+        <v>24.00591264925742</v>
       </c>
       <c r="G22">
-        <v>2.04747729133626</v>
+        <v>33.22824071635942</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.817395390807995</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>12.17323937346729</v>
       </c>
       <c r="J22">
-        <v>8.75829333816621</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>31.0133490351217</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>12.08589217456282</v>
+        <v>9.828157426937159</v>
       </c>
       <c r="M22">
-        <v>16.18927864274358</v>
+        <v>14.23651688005675</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>15.00793058661273</v>
       </c>
       <c r="O22">
-        <v>37.3369799840162</v>
+        <v>17.14666095119802</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.13174552446</v>
+        <v>18.24048565510405</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.698810940729668</v>
+        <v>3.935284609413746</v>
       </c>
       <c r="E23">
-        <v>13.46719537715376</v>
+        <v>19.83770295063368</v>
       </c>
       <c r="F23">
-        <v>46.41655755629371</v>
+        <v>23.53648342140741</v>
       </c>
       <c r="G23">
-        <v>2.052989102780514</v>
+        <v>32.57241104721574</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.717890304623973</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>12.32654177465647</v>
       </c>
       <c r="J23">
-        <v>8.709200615058061</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>30.38714662306795</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>11.84594144338488</v>
+        <v>9.659122972464735</v>
       </c>
       <c r="M23">
-        <v>15.86466733835012</v>
+        <v>13.98929471337252</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>14.95321568742244</v>
       </c>
       <c r="O23">
-        <v>36.81059835538476</v>
+        <v>16.80382011803453</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.79624144508752</v>
+        <v>16.98545063285008</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.150506318043333</v>
+        <v>3.70293106049218</v>
       </c>
       <c r="E24">
-        <v>12.82077123842439</v>
+        <v>19.29208908233567</v>
       </c>
       <c r="F24">
-        <v>44.08394021634292</v>
+        <v>21.72971792197444</v>
       </c>
       <c r="G24">
-        <v>2.07384570459701</v>
+        <v>30.00757684574811</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.343592390085425</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>12.9182475965554</v>
       </c>
       <c r="J24">
-        <v>8.524651096763174</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>27.94222725086929</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>10.90959436132828</v>
+        <v>8.992095206123402</v>
       </c>
       <c r="M24">
-        <v>14.87438844813693</v>
+        <v>13.01216856407374</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>14.75196840155848</v>
       </c>
       <c r="O24">
-        <v>34.85908817948826</v>
+        <v>15.6450402987111</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.30648205710478</v>
+        <v>15.52737013172703</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.542105165056913</v>
+        <v>3.43427289441445</v>
       </c>
       <c r="E25">
-        <v>12.11067463889507</v>
+        <v>18.6912135985598</v>
       </c>
       <c r="F25">
-        <v>41.68185933117689</v>
+        <v>19.8706855813129</v>
       </c>
       <c r="G25">
-        <v>2.096514872183208</v>
+        <v>27.06608406003507</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.946758621973301</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>13.58098384914707</v>
       </c>
       <c r="J25">
-        <v>8.327154388053438</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>25.13627029667136</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>9.83608998804624</v>
+        <v>8.214983419567847</v>
       </c>
       <c r="M25">
-        <v>13.87299213871202</v>
+        <v>11.9811607964712</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>14.54801779931779</v>
       </c>
       <c r="O25">
-        <v>32.8367530225439</v>
+        <v>14.47818143801143</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.36576245480743</v>
+        <v>13.95311048416221</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.221343179411167</v>
+        <v>3.021000841075117</v>
       </c>
       <c r="E2">
-        <v>18.24122788489608</v>
+        <v>21.84986980018313</v>
       </c>
       <c r="F2">
-        <v>18.43528113326553</v>
+        <v>18.09084327943867</v>
       </c>
       <c r="G2">
-        <v>24.80425567035772</v>
+        <v>19.23381989760912</v>
       </c>
       <c r="H2">
-        <v>7.662085975750599</v>
+        <v>11.16362239624939</v>
       </c>
       <c r="I2">
-        <v>14.09090962509058</v>
+        <v>23.45497124202965</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.593073632537532</v>
+        <v>8.613128260836604</v>
       </c>
       <c r="M2">
-        <v>11.26255750724823</v>
+        <v>13.99936275408525</v>
       </c>
       <c r="N2">
-        <v>14.40942713429888</v>
+        <v>18.60532215384137</v>
       </c>
       <c r="O2">
-        <v>13.59719319193684</v>
+        <v>15.77549662627584</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.52508214785927</v>
+        <v>13.71403913183276</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.067903049027031</v>
+        <v>2.975564266117376</v>
       </c>
       <c r="E3">
-        <v>17.93323676876492</v>
+        <v>21.79147934319596</v>
       </c>
       <c r="F3">
-        <v>17.42472665214989</v>
+        <v>17.89144133139383</v>
       </c>
       <c r="G3">
-        <v>23.21656416402212</v>
+        <v>18.76531818884532</v>
       </c>
       <c r="H3">
-        <v>7.474732092258327</v>
+        <v>11.16504833229945</v>
       </c>
       <c r="I3">
-        <v>14.45063447584745</v>
+        <v>23.58991053081361</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.140660715024273</v>
+        <v>8.536192770116221</v>
       </c>
       <c r="M3">
-        <v>10.75243343509157</v>
+        <v>13.90019448626649</v>
       </c>
       <c r="N3">
-        <v>14.322849640362</v>
+        <v>18.60599224046507</v>
       </c>
       <c r="O3">
-        <v>12.98972022901303</v>
+        <v>15.69982921135823</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.98326987452121</v>
+        <v>13.5666107040239</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.969319646497217</v>
+        <v>2.956068068504205</v>
       </c>
       <c r="E4">
-        <v>17.74323520343085</v>
+        <v>21.75708217808031</v>
       </c>
       <c r="F4">
-        <v>16.78737729906629</v>
+        <v>17.77369449657812</v>
       </c>
       <c r="G4">
-        <v>22.20354536697383</v>
+        <v>18.47905491308302</v>
       </c>
       <c r="H4">
-        <v>7.362753309758132</v>
+        <v>11.16822077166237</v>
       </c>
       <c r="I4">
-        <v>14.67862792653769</v>
+        <v>23.6771061985449</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.847710081218472</v>
+        <v>8.4896439178164</v>
       </c>
       <c r="M4">
-        <v>10.42876551316031</v>
+        <v>13.84043773660549</v>
       </c>
       <c r="N4">
-        <v>14.27334971611983</v>
+        <v>18.60847909058312</v>
       </c>
       <c r="O4">
-        <v>12.61293902166315</v>
+        <v>15.65765240014532</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.75617599479597</v>
+        <v>13.50644395588689</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.928072455479012</v>
+        <v>2.948216745534363</v>
       </c>
       <c r="E5">
-        <v>17.66567768108024</v>
+        <v>21.74343976721936</v>
       </c>
       <c r="F5">
-        <v>16.52374054170109</v>
+        <v>17.72694961915625</v>
       </c>
       <c r="G5">
-        <v>21.78142855911824</v>
+        <v>18.36296147266134</v>
       </c>
       <c r="H5">
-        <v>7.317936932280442</v>
+        <v>11.17009170751185</v>
       </c>
       <c r="I5">
-        <v>14.77334799492021</v>
+        <v>23.71373402415408</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.724540143803996</v>
+        <v>8.470864948085644</v>
       </c>
       <c r="M5">
-        <v>10.29441009267823</v>
+        <v>13.81639011250459</v>
       </c>
       <c r="N5">
-        <v>14.25410311955709</v>
+        <v>18.6100167732415</v>
       </c>
       <c r="O5">
-        <v>12.45867913005169</v>
+        <v>15.64155704409685</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.71809157034217</v>
+        <v>13.49645009540426</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.921159380326586</v>
+        <v>2.946918931229818</v>
       </c>
       <c r="E6">
-        <v>17.6527942439273</v>
+        <v>21.74119734238752</v>
       </c>
       <c r="F6">
-        <v>16.47973843360638</v>
+        <v>17.71926411505339</v>
       </c>
       <c r="G6">
-        <v>21.71078475460518</v>
+        <v>18.34372435535732</v>
       </c>
       <c r="H6">
-        <v>7.310545837169677</v>
+        <v>11.17043730433871</v>
       </c>
       <c r="I6">
-        <v>14.78918615137419</v>
+        <v>23.71988226190565</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.703859834772984</v>
+        <v>8.467758672476803</v>
       </c>
       <c r="M6">
-        <v>10.27195745864613</v>
+        <v>13.81241590916713</v>
       </c>
       <c r="N6">
-        <v>14.25096323004209</v>
+        <v>18.61030383667921</v>
       </c>
       <c r="O6">
-        <v>12.43302839404349</v>
+        <v>15.63895078301438</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.98023250347457</v>
+        <v>13.56579953651994</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.968767682643116</v>
+        <v>2.955961793097467</v>
       </c>
       <c r="E7">
-        <v>17.7421896369106</v>
+        <v>21.75689666296382</v>
       </c>
       <c r="F7">
-        <v>16.78383715973943</v>
+        <v>17.77305899017524</v>
       </c>
       <c r="G7">
-        <v>22.19788977038855</v>
+        <v>18.47748668377851</v>
       </c>
       <c r="H7">
-        <v>7.36214553551275</v>
+        <v>11.16824366235646</v>
       </c>
       <c r="I7">
-        <v>14.67989799559485</v>
+        <v>23.67759573713476</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.846064276398415</v>
+        <v>8.489389866819122</v>
       </c>
       <c r="M7">
-        <v>10.42696325945977</v>
+        <v>13.8401121675842</v>
       </c>
       <c r="N7">
-        <v>14.27308639861848</v>
+        <v>18.60849770247574</v>
       </c>
       <c r="O7">
-        <v>12.61086119755115</v>
+        <v>15.65743089242551</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.0812918377424</v>
+        <v>13.87085371586262</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.169357897125955</v>
+        <v>3.001220925319708</v>
       </c>
       <c r="E8">
-        <v>18.13527393798444</v>
+        <v>21.82944021727103</v>
       </c>
       <c r="F8">
-        <v>18.09052095284667</v>
+        <v>18.02115321061076</v>
       </c>
       <c r="G8">
-        <v>24.26489361786731</v>
+        <v>19.07211418886468</v>
       </c>
       <c r="H8">
-        <v>7.596880324943372</v>
+        <v>11.16363775394355</v>
       </c>
       <c r="I8">
-        <v>14.21347712261131</v>
+        <v>23.50059882452279</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.440241042447017</v>
+        <v>8.58646777515612</v>
       </c>
       <c r="M8">
-        <v>11.08892971504096</v>
+        <v>13.96494582556428</v>
       </c>
       <c r="N8">
-        <v>14.37881903768893</v>
+        <v>18.60512391134727</v>
       </c>
       <c r="O8">
-        <v>13.38865526185124</v>
+        <v>15.74852699667855</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.03234725009971</v>
+        <v>14.46092606348855</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.527150642789155</v>
+        <v>3.139583061728506</v>
       </c>
       <c r="E9">
-        <v>18.89500870283338</v>
+        <v>21.98284413006223</v>
       </c>
       <c r="F9">
-        <v>20.50764541650307</v>
+        <v>18.54211733232056</v>
       </c>
       <c r="G9">
-        <v>28.08042953580627</v>
+        <v>20.24038673859481</v>
       </c>
       <c r="H9">
-        <v>8.07937785509397</v>
+        <v>11.17279510262513</v>
       </c>
       <c r="I9">
-        <v>13.35438922024613</v>
+        <v>23.18782796008752</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.484476576023901</v>
+        <v>8.781569262148533</v>
       </c>
       <c r="M9">
-        <v>12.29788902155026</v>
+        <v>14.21788786823367</v>
       </c>
       <c r="N9">
-        <v>14.6149387810767</v>
+        <v>18.61486762332304</v>
       </c>
       <c r="O9">
-        <v>14.87499223141687</v>
+        <v>15.9604157194541</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.33435859574952</v>
+        <v>14.88551064521858</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.767429418150399</v>
+        <v>3.235169265904108</v>
       </c>
       <c r="E10">
-        <v>19.44128723196798</v>
+        <v>22.10180367399632</v>
       </c>
       <c r="F10">
-        <v>22.20756253491555</v>
+        <v>18.94207153420929</v>
       </c>
       <c r="G10">
-        <v>30.71740759934141</v>
+        <v>21.08874873832353</v>
       </c>
       <c r="H10">
-        <v>8.444709446058067</v>
+        <v>11.1905485494308</v>
       </c>
       <c r="I10">
-        <v>12.75575929523951</v>
+        <v>22.97876666886652</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.177660691304554</v>
+        <v>8.926789561515074</v>
       </c>
       <c r="M10">
-        <v>13.28425663717329</v>
+        <v>14.40753463456773</v>
       </c>
       <c r="N10">
-        <v>14.80557323727561</v>
+        <v>18.63185090261868</v>
       </c>
       <c r="O10">
-        <v>15.93350941559302</v>
+        <v>16.13526642250771</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.89758433723246</v>
+        <v>15.07592991137344</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.871706052095174</v>
+        <v>3.277237963557564</v>
       </c>
       <c r="E11">
-        <v>19.68621535642113</v>
+        <v>22.15716022924797</v>
       </c>
       <c r="F11">
-        <v>23.03234811118397</v>
+        <v>19.12692426962258</v>
       </c>
       <c r="G11">
-        <v>31.86842332080192</v>
+        <v>21.47033571344265</v>
       </c>
       <c r="H11">
-        <v>8.61274366603786</v>
+        <v>11.20099963342469</v>
       </c>
       <c r="I11">
-        <v>12.49020529293385</v>
+        <v>22.88812045659785</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.47699088197535</v>
+        <v>8.993046700161129</v>
       </c>
       <c r="M11">
-        <v>13.72273934385938</v>
+        <v>14.4943867996847</v>
       </c>
       <c r="N11">
-        <v>14.89592551844537</v>
+        <v>18.64167637472136</v>
       </c>
       <c r="O11">
-        <v>16.43553828885086</v>
+        <v>16.21871156477589</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.10665658462838</v>
+        <v>15.14758236025306</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.910462685977593</v>
+        <v>3.292957443738364</v>
       </c>
       <c r="E12">
-        <v>19.77837153250687</v>
+        <v>22.17829039001439</v>
       </c>
       <c r="F12">
-        <v>23.33954384931311</v>
+        <v>19.19727180057389</v>
       </c>
       <c r="G12">
-        <v>32.29735889751066</v>
+        <v>21.61404256316742</v>
       </c>
       <c r="H12">
-        <v>8.67660034325589</v>
+        <v>11.2052965228015</v>
       </c>
       <c r="I12">
-        <v>12.39059729517863</v>
+        <v>22.85443297279715</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.588047665377371</v>
+        <v>9.018146650072774</v>
       </c>
       <c r="M12">
-        <v>13.88529599329905</v>
+        <v>14.52733770228645</v>
       </c>
       <c r="N12">
-        <v>14.93065227542799</v>
+        <v>18.64569584826069</v>
       </c>
       <c r="O12">
-        <v>16.65996397569581</v>
+        <v>16.2508475574561</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.06181667668335</v>
+        <v>15.13217193924537</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.902148347520897</v>
+        <v>3.289581474480722</v>
       </c>
       <c r="E13">
-        <v>19.75855160833916</v>
+        <v>22.17373233864502</v>
       </c>
       <c r="F13">
-        <v>23.27361129137069</v>
+        <v>19.18210685597826</v>
       </c>
       <c r="G13">
-        <v>32.20528698688751</v>
+        <v>21.58313048622269</v>
       </c>
       <c r="H13">
-        <v>8.662838199450471</v>
+        <v>11.20435605940748</v>
       </c>
       <c r="I13">
-        <v>12.41200767638539</v>
+        <v>22.86165982930303</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.564231417070209</v>
+        <v>9.012740780564172</v>
       </c>
       <c r="M13">
-        <v>13.85044133506154</v>
+        <v>14.5202387288105</v>
       </c>
       <c r="N13">
-        <v>14.92315062493439</v>
+        <v>18.64481694588751</v>
       </c>
       <c r="O13">
-        <v>16.61179950894135</v>
+        <v>16.24390300672702</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.91486931911938</v>
+        <v>15.0818342744362</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.874909263689962</v>
+        <v>3.278535486014127</v>
       </c>
       <c r="E14">
-        <v>19.69380941143802</v>
+        <v>22.15889531821779</v>
       </c>
       <c r="F14">
-        <v>23.05772389558571</v>
+        <v>19.13270523714566</v>
       </c>
       <c r="G14">
-        <v>31.90385057757622</v>
+        <v>21.48217535182678</v>
       </c>
       <c r="H14">
-        <v>8.617992876904443</v>
+        <v>11.20134635503406</v>
       </c>
       <c r="I14">
-        <v>12.48199153395383</v>
+        <v>22.88533619003279</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.48617348746696</v>
+        <v>8.995111595957198</v>
       </c>
       <c r="M14">
-        <v>13.73618277018594</v>
+        <v>14.49709657429163</v>
       </c>
       <c r="N14">
-        <v>14.8987723007463</v>
+        <v>18.6420010897191</v>
       </c>
       <c r="O14">
-        <v>16.45407844580746</v>
+        <v>16.22134479072107</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.82431100394494</v>
+        <v>15.0509399025362</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.858129192875427</v>
+        <v>3.271741798610493</v>
       </c>
       <c r="E15">
-        <v>19.65407350938637</v>
+        <v>22.14982875292285</v>
       </c>
       <c r="F15">
-        <v>22.92481953257578</v>
+        <v>19.10248851784275</v>
       </c>
       <c r="G15">
-        <v>31.718311742533</v>
+        <v>21.42022951335036</v>
       </c>
       <c r="H15">
-        <v>8.59055213732907</v>
+        <v>11.19954693864119</v>
       </c>
       <c r="I15">
-        <v>12.5249819573735</v>
+        <v>22.89992168904483</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.438062429944379</v>
+        <v>8.984313947576084</v>
       </c>
       <c r="M15">
-        <v>13.6657424538349</v>
+        <v>14.48292875130738</v>
       </c>
       <c r="N15">
-        <v>14.88390628826318</v>
+        <v>18.64031511087488</v>
       </c>
       <c r="O15">
-        <v>16.35697206524215</v>
+        <v>16.20759644066221</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.29696278165211</v>
+        <v>14.87300596565914</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.760512818224811</v>
+        <v>3.232390854718187</v>
       </c>
       <c r="E16">
-        <v>19.42520180352202</v>
+        <v>22.09821006284335</v>
       </c>
       <c r="F16">
-        <v>22.15294033303833</v>
+        <v>18.93004349617954</v>
       </c>
       <c r="G16">
-        <v>30.64121285682312</v>
+        <v>21.06370920002803</v>
       </c>
       <c r="H16">
-        <v>8.433761641085866</v>
+        <v>11.18991315342982</v>
       </c>
       <c r="I16">
-        <v>12.77324818494666</v>
+        <v>22.98478007031924</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.157777352256199</v>
+        <v>8.922461869090286</v>
       </c>
       <c r="M16">
-        <v>13.25511189720509</v>
+        <v>14.4018684791182</v>
       </c>
       <c r="N16">
-        <v>14.79974074532786</v>
+        <v>18.63125076941362</v>
       </c>
       <c r="O16">
-        <v>15.90242804044667</v>
+        <v>16.12988960108779</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.96598221862938</v>
+        <v>14.7631050280164</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.699334467568959</v>
+        <v>3.207882527515803</v>
       </c>
       <c r="E17">
-        <v>19.28382286465947</v>
+        <v>22.06685405301539</v>
       </c>
       <c r="F17">
-        <v>21.7045044409129</v>
+        <v>18.82494927824717</v>
       </c>
       <c r="G17">
-        <v>29.96804001560483</v>
+        <v>20.84376113043674</v>
       </c>
       <c r="H17">
-        <v>8.338018442363149</v>
+        <v>11.18460993467997</v>
       </c>
       <c r="I17">
-        <v>12.92726905921295</v>
+        <v>23.03797756606218</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.981737430733769</v>
+        <v>8.884554656541461</v>
       </c>
       <c r="M17">
-        <v>12.99697544617525</v>
+        <v>14.35227400442456</v>
       </c>
       <c r="N17">
-        <v>14.74903117910869</v>
+        <v>18.6262256673511</v>
       </c>
       <c r="O17">
-        <v>15.6290456223761</v>
+        <v>16.08320207629615</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.77287602285244</v>
+        <v>14.69963987370576</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.663673403253113</v>
+        <v>3.193653323786003</v>
       </c>
       <c r="E18">
-        <v>19.20217315275489</v>
+        <v>22.04893638705346</v>
       </c>
       <c r="F18">
-        <v>21.45497099824311</v>
+        <v>18.76478015178456</v>
       </c>
       <c r="G18">
-        <v>29.57627318390409</v>
+        <v>20.71685387177315</v>
       </c>
       <c r="H18">
-        <v>8.283125049714771</v>
+        <v>11.18178335774902</v>
       </c>
       <c r="I18">
-        <v>13.01649588489405</v>
+        <v>23.06899500983432</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.878976931033433</v>
+        <v>8.862770940028094</v>
       </c>
       <c r="M18">
-        <v>12.84620902734217</v>
+        <v>14.32380455048188</v>
       </c>
       <c r="N18">
-        <v>14.7202068422295</v>
+        <v>18.62353319107502</v>
       </c>
       <c r="O18">
-        <v>15.47098332745652</v>
+        <v>16.05671770637045</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.70702496372795</v>
+        <v>14.67811017905817</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.651518232471988</v>
+        <v>3.188813018627096</v>
       </c>
       <c r="E19">
-        <v>19.17447336908659</v>
+        <v>22.04289027292534</v>
       </c>
       <c r="F19">
-        <v>21.37011075278104</v>
+        <v>18.74445787964705</v>
       </c>
       <c r="G19">
-        <v>29.44284060776973</v>
+        <v>20.67382206100027</v>
       </c>
       <c r="H19">
-        <v>8.264570513553979</v>
+        <v>11.18086480985804</v>
       </c>
       <c r="I19">
-        <v>13.04681680340528</v>
+        <v>23.07956913903784</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.843924977871653</v>
+        <v>8.855399259669355</v>
       </c>
       <c r="M19">
-        <v>12.79476788425615</v>
+        <v>14.31417555628763</v>
       </c>
       <c r="N19">
-        <v>14.71050652977823</v>
+        <v>18.6226556363228</v>
       </c>
       <c r="O19">
-        <v>15.41732856246859</v>
+        <v>16.04781466421431</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.0014989728023</v>
+        <v>14.77483082687932</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.705896013439015</v>
+        <v>3.210505268320492</v>
       </c>
       <c r="E20">
-        <v>19.29890786940025</v>
+        <v>22.07017987161132</v>
       </c>
       <c r="F20">
-        <v>21.75050978498042</v>
+        <v>18.83610844978767</v>
       </c>
       <c r="G20">
-        <v>30.04017366901993</v>
+        <v>20.86721752475292</v>
       </c>
       <c r="H20">
-        <v>8.348192598222337</v>
+        <v>11.18515133499167</v>
       </c>
       <c r="I20">
-        <v>12.91080738979204</v>
+        <v>23.03227118853972</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.000633101802649</v>
+        <v>8.888588058141691</v>
       </c>
       <c r="M20">
-        <v>13.02469175378083</v>
+        <v>14.35754778447407</v>
       </c>
       <c r="N20">
-        <v>14.75439392558601</v>
+        <v>18.62674014587884</v>
       </c>
       <c r="O20">
-        <v>15.65823326264876</v>
+        <v>16.08813401971349</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.95814572846426</v>
+        <v>15.09663250784249</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.882929923527306</v>
+        <v>3.281785746321545</v>
       </c>
       <c r="E21">
-        <v>19.71284245117848</v>
+        <v>22.16324884147558</v>
       </c>
       <c r="F21">
-        <v>23.12127419381627</v>
+        <v>19.14720681336517</v>
       </c>
       <c r="G21">
-        <v>31.99257725374007</v>
+        <v>21.5118510917812</v>
       </c>
       <c r="H21">
-        <v>8.631159197725232</v>
+        <v>11.20222118915119</v>
       </c>
       <c r="I21">
-        <v>12.46140992269905</v>
+        <v>22.87836456720712</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.509163144023283</v>
+        <v>9.00028959385179</v>
       </c>
       <c r="M21">
-        <v>13.76983778865576</v>
+        <v>14.50389247942187</v>
       </c>
       <c r="N21">
-        <v>14.90591898303832</v>
+        <v>18.64282009185377</v>
       </c>
       <c r="O21">
-        <v>16.50050855535094</v>
+        <v>16.22795630751778</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.55883031017779</v>
+        <v>15.30426830429993</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.994370868612384</v>
+        <v>3.327138470334056</v>
       </c>
       <c r="E22">
-        <v>19.97988481207636</v>
+        <v>22.22504801514036</v>
       </c>
       <c r="F22">
-        <v>24.00591264925742</v>
+        <v>19.3525224055754</v>
       </c>
       <c r="G22">
-        <v>33.22824071635942</v>
+        <v>21.92847158896611</v>
       </c>
       <c r="H22">
-        <v>8.817395390807995</v>
+        <v>11.21535372501888</v>
       </c>
       <c r="I22">
-        <v>12.17323937346729</v>
+        <v>22.78149682400817</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.828157426937159</v>
+        <v>9.073341811961114</v>
       </c>
       <c r="M22">
-        <v>14.23651688005675</v>
+        <v>14.59988781362466</v>
       </c>
       <c r="N22">
-        <v>15.00793058661273</v>
+        <v>18.65506923816456</v>
       </c>
       <c r="O22">
-        <v>17.14666095119802</v>
+        <v>16.3224570261643</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.24048565510405</v>
+        <v>15.19371443058325</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.935284609413746</v>
+        <v>3.303048107506203</v>
       </c>
       <c r="E23">
-        <v>19.83770295063368</v>
+        <v>22.19197914248623</v>
       </c>
       <c r="F23">
-        <v>23.53648342140741</v>
+        <v>19.24278236853256</v>
       </c>
       <c r="G23">
-        <v>32.57241104721574</v>
+        <v>21.70659441053733</v>
       </c>
       <c r="H23">
-        <v>8.717890304623973</v>
+        <v>11.20816461629941</v>
       </c>
       <c r="I23">
-        <v>12.32654177465647</v>
+        <v>22.83285751719215</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.659122972464735</v>
+        <v>9.034354011922805</v>
       </c>
       <c r="M23">
-        <v>13.98929471337252</v>
+        <v>14.54862836562617</v>
       </c>
       <c r="N23">
-        <v>14.95321568742244</v>
+        <v>18.64837350405941</v>
       </c>
       <c r="O23">
-        <v>16.80382011803453</v>
+        <v>16.27174316377314</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.98545063285008</v>
+        <v>14.76953046561357</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.70293106049218</v>
+        <v>3.209319959693147</v>
       </c>
       <c r="E24">
-        <v>19.29208908233567</v>
+        <v>22.06867592772347</v>
       </c>
       <c r="F24">
-        <v>21.72971792197444</v>
+        <v>18.83106260125896</v>
       </c>
       <c r="G24">
-        <v>30.00757684574811</v>
+        <v>20.85661429682824</v>
       </c>
       <c r="H24">
-        <v>8.343592390085425</v>
+        <v>11.18490587524013</v>
       </c>
       <c r="I24">
-        <v>12.9182475965554</v>
+        <v>23.0348496913238</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.992095206123402</v>
+        <v>8.886764525828719</v>
       </c>
       <c r="M24">
-        <v>13.01216856407374</v>
+        <v>14.35516337269316</v>
       </c>
       <c r="N24">
-        <v>14.75196840155848</v>
+        <v>18.62650693775528</v>
       </c>
       <c r="O24">
-        <v>15.6450402987111</v>
+        <v>16.08590317449159</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.52737013172703</v>
+        <v>14.30258727726826</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.43427289441445</v>
+        <v>3.103182902902393</v>
       </c>
       <c r="E25">
-        <v>18.6912135985598</v>
+        <v>21.94020608812513</v>
       </c>
       <c r="F25">
-        <v>19.8706855813129</v>
+        <v>18.39788136063837</v>
       </c>
       <c r="G25">
-        <v>27.06608406003507</v>
+        <v>19.92530757286121</v>
       </c>
       <c r="H25">
-        <v>7.946758621973301</v>
+        <v>11.16837583733166</v>
       </c>
       <c r="I25">
-        <v>13.58098384914707</v>
+        <v>23.26878644044808</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.214983419567847</v>
+        <v>8.728385899234098</v>
       </c>
       <c r="M25">
-        <v>11.9811607964712</v>
+        <v>14.14870658843297</v>
       </c>
       <c r="N25">
-        <v>14.54801779931779</v>
+        <v>18.61049514527085</v>
       </c>
       <c r="O25">
-        <v>14.47818143801143</v>
+        <v>15.89964164860299</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_line/loading_percent.xlsx
@@ -420,1128 +420,624 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>13.95311048416221</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
-        <v>3.021000841075117</v>
+        <v>2.349720135345092</v>
       </c>
       <c r="E2">
-        <v>21.84986980018313</v>
+        <v>31.35800337974209</v>
       </c>
       <c r="F2">
-        <v>18.09084327943867</v>
+        <v>33.21936882378018</v>
       </c>
       <c r="G2">
-        <v>19.23381989760912</v>
+        <v>1.972485176699833</v>
       </c>
       <c r="H2">
-        <v>11.16362239624939</v>
-      </c>
-      <c r="I2">
-        <v>23.45497124202965</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>8.613128260836604</v>
-      </c>
-      <c r="M2">
-        <v>13.99936275408525</v>
-      </c>
-      <c r="N2">
-        <v>18.60532215384137</v>
-      </c>
       <c r="O2">
-        <v>15.77549662627584</v>
+        <v>26.43978069555541</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>13.71403913183276</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
-        <v>2.975564266117376</v>
+        <v>2.252862348009495</v>
       </c>
       <c r="E3">
-        <v>21.79147934319596</v>
+        <v>28.97648187263925</v>
       </c>
       <c r="F3">
-        <v>17.89144133139383</v>
+        <v>30.78999478642798</v>
       </c>
       <c r="G3">
-        <v>18.76531818884532</v>
+        <v>1.982984461186607</v>
       </c>
       <c r="H3">
-        <v>11.16504833229945</v>
-      </c>
-      <c r="I3">
-        <v>23.58991053081361</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>8.536192770116221</v>
-      </c>
-      <c r="M3">
-        <v>13.90019448626649</v>
-      </c>
-      <c r="N3">
-        <v>18.60599224046507</v>
-      </c>
       <c r="O3">
-        <v>15.69982921135823</v>
+        <v>24.48849958122704</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>13.5666107040239</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
       <c r="D4">
-        <v>2.956068068504205</v>
+        <v>2.193806291917495</v>
       </c>
       <c r="E4">
-        <v>21.75708217808031</v>
+        <v>27.45768493464443</v>
       </c>
       <c r="F4">
-        <v>17.77369449657812</v>
+        <v>29.2329618408612</v>
       </c>
       <c r="G4">
-        <v>18.47905491308302</v>
+        <v>1.9895429514371</v>
       </c>
       <c r="H4">
-        <v>11.16822077166237</v>
-      </c>
-      <c r="I4">
-        <v>23.6771061985449</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>8.4896439178164</v>
-      </c>
-      <c r="M4">
-        <v>13.84043773660549</v>
-      </c>
-      <c r="N4">
-        <v>18.60847909058312</v>
-      </c>
       <c r="O4">
-        <v>15.65765240014532</v>
+        <v>23.23684182374441</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>13.50644395588689</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
       <c r="D5">
-        <v>2.948216745534363</v>
+        <v>2.169796820415629</v>
       </c>
       <c r="E5">
-        <v>21.74343976721936</v>
+        <v>26.82386341189581</v>
       </c>
       <c r="F5">
-        <v>17.72694961915625</v>
+        <v>28.58168610131683</v>
       </c>
       <c r="G5">
-        <v>18.36296147266134</v>
+        <v>1.992247343678895</v>
       </c>
       <c r="H5">
-        <v>11.17009170751185</v>
-      </c>
-      <c r="I5">
-        <v>23.71373402415408</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>8.470864948085644</v>
-      </c>
-      <c r="M5">
-        <v>13.81639011250459</v>
-      </c>
-      <c r="N5">
-        <v>18.6100167732415</v>
-      </c>
       <c r="O5">
-        <v>15.64155704409685</v>
+        <v>22.71298257078601</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>13.49645009540426</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
       <c r="D6">
-        <v>2.946918931229818</v>
+        <v>2.165812207870548</v>
       </c>
       <c r="E6">
-        <v>21.74119734238752</v>
+        <v>26.71769931539484</v>
       </c>
       <c r="F6">
-        <v>17.71926411505339</v>
+        <v>28.47252089774414</v>
       </c>
       <c r="G6">
-        <v>18.34372435535732</v>
+        <v>1.992698422672597</v>
       </c>
       <c r="H6">
-        <v>11.17043730433871</v>
-      </c>
-      <c r="I6">
-        <v>23.71988226190565</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>8.467758672476803</v>
-      </c>
-      <c r="M6">
-        <v>13.81241590916713</v>
-      </c>
-      <c r="N6">
-        <v>18.61030383667921</v>
-      </c>
       <c r="O6">
-        <v>15.63895078301438</v>
+        <v>22.62515391665233</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>13.56579953651994</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
-        <v>2.955961793097467</v>
+        <v>2.193482321617039</v>
       </c>
       <c r="E7">
-        <v>21.75689666296382</v>
+        <v>27.44919817488973</v>
       </c>
       <c r="F7">
-        <v>17.77305899017524</v>
+        <v>29.2242468066048</v>
       </c>
       <c r="G7">
-        <v>18.47748668377851</v>
+        <v>1.989579290728184</v>
       </c>
       <c r="H7">
-        <v>11.16824366235646</v>
-      </c>
-      <c r="I7">
-        <v>23.67759573713476</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>8.489389866819122</v>
-      </c>
-      <c r="M7">
-        <v>13.8401121675842</v>
-      </c>
-      <c r="N7">
-        <v>18.60849770247574</v>
-      </c>
       <c r="O7">
-        <v>15.65743089242551</v>
+        <v>23.22983314973489</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>13.87085371586262</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
       <c r="D8">
-        <v>3.001220925319708</v>
+        <v>2.316206025784049</v>
       </c>
       <c r="E8">
-        <v>21.82944021727103</v>
+        <v>30.54815235421993</v>
       </c>
       <c r="F8">
-        <v>18.02115321061076</v>
+        <v>32.39507205034562</v>
       </c>
       <c r="G8">
-        <v>19.07211418886468</v>
+        <v>1.976084409734668</v>
       </c>
       <c r="H8">
-        <v>11.16363775394355</v>
-      </c>
-      <c r="I8">
-        <v>23.50059882452279</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>8.58646777515612</v>
-      </c>
-      <c r="M8">
-        <v>13.96494582556428</v>
-      </c>
-      <c r="N8">
-        <v>18.60512391134727</v>
-      </c>
       <c r="O8">
-        <v>15.74852699667855</v>
+        <v>25.77788376372136</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>14.46092606348855</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
       <c r="D9">
-        <v>3.139583061728506</v>
+        <v>2.562807521672476</v>
       </c>
       <c r="E9">
-        <v>21.98284413006223</v>
+        <v>36.21211963455755</v>
       </c>
       <c r="F9">
-        <v>18.54211733232056</v>
+        <v>38.11286333711386</v>
       </c>
       <c r="G9">
-        <v>20.24038673859481</v>
+        <v>1.950322133379367</v>
       </c>
       <c r="H9">
-        <v>11.17279510262513</v>
-      </c>
-      <c r="I9">
-        <v>23.18782796008752</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>8.781569262148533</v>
-      </c>
-      <c r="M9">
-        <v>14.21788786823367</v>
-      </c>
-      <c r="N9">
-        <v>18.61486762332304</v>
-      </c>
       <c r="O9">
-        <v>15.9604157194541</v>
+        <v>30.36699090932277</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>14.88551064521858</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
-        <v>3.235169265904108</v>
+        <v>2.752223080665883</v>
       </c>
       <c r="E10">
-        <v>22.10180367399632</v>
+        <v>40.18027455303723</v>
       </c>
       <c r="F10">
-        <v>18.94207153420929</v>
+        <v>42.04084519015975</v>
       </c>
       <c r="G10">
-        <v>21.08874873832353</v>
+        <v>1.931517324779137</v>
       </c>
       <c r="H10">
-        <v>11.1905485494308</v>
-      </c>
-      <c r="I10">
-        <v>22.97876666886652</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>8.926789561515074</v>
-      </c>
-      <c r="M10">
-        <v>14.40753463456773</v>
-      </c>
-      <c r="N10">
-        <v>18.63185090261868</v>
-      </c>
       <c r="O10">
-        <v>16.13526642250771</v>
+        <v>33.51877322859582</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>15.07592991137344</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
-        <v>3.277237963557564</v>
+        <v>2.841551368769099</v>
       </c>
       <c r="E11">
-        <v>22.15716022924797</v>
+        <v>41.96009371619354</v>
       </c>
       <c r="F11">
-        <v>19.12692426962258</v>
+        <v>43.77766396158036</v>
       </c>
       <c r="G11">
-        <v>21.47033571344265</v>
+        <v>1.922905058533718</v>
       </c>
       <c r="H11">
-        <v>11.20099963342469</v>
-      </c>
-      <c r="I11">
-        <v>22.88812045659785</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>8.993046700161129</v>
-      </c>
-      <c r="M11">
-        <v>14.4943867996847</v>
-      </c>
-      <c r="N11">
-        <v>18.64167637472136</v>
-      </c>
       <c r="O11">
-        <v>16.21871156477589</v>
+        <v>34.91278061644016</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>15.14758236025306</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
-        <v>3.292957443738364</v>
+        <v>2.875980977148759</v>
       </c>
       <c r="E12">
-        <v>22.17829039001439</v>
+        <v>42.63217003937997</v>
       </c>
       <c r="F12">
-        <v>19.19727180057389</v>
+        <v>44.42910347968066</v>
       </c>
       <c r="G12">
-        <v>21.61404256316742</v>
+        <v>1.919626819093003</v>
       </c>
       <c r="H12">
-        <v>11.2052965228015</v>
-      </c>
-      <c r="I12">
-        <v>22.85443297279715</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>9.018146650072774</v>
-      </c>
-      <c r="M12">
-        <v>14.52733770228645</v>
-      </c>
-      <c r="N12">
-        <v>18.64569584826069</v>
-      </c>
       <c r="O12">
-        <v>16.2508475574561</v>
+        <v>35.43574939600597</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>15.13217193924537</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13">
-        <v>3.289581474480722</v>
+        <v>2.868536388806389</v>
       </c>
       <c r="E13">
-        <v>22.17373233864502</v>
+        <v>42.48747916994571</v>
       </c>
       <c r="F13">
-        <v>19.18210685597826</v>
+        <v>44.28906556110423</v>
       </c>
       <c r="G13">
-        <v>21.58313048622269</v>
+        <v>1.92033375718983</v>
       </c>
       <c r="H13">
-        <v>11.20435605940748</v>
-      </c>
-      <c r="I13">
-        <v>22.86165982930303</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>9.012740780564172</v>
-      </c>
-      <c r="M13">
-        <v>14.5202387288105</v>
-      </c>
-      <c r="N13">
-        <v>18.64481694588751</v>
-      </c>
       <c r="O13">
-        <v>16.24390300672702</v>
+        <v>35.32332264407049</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>15.0818342744362</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
       <c r="D14">
-        <v>3.278535486014127</v>
+        <v>2.844370855340101</v>
       </c>
       <c r="E14">
-        <v>22.15889531821779</v>
+        <v>42.01541264766671</v>
       </c>
       <c r="F14">
-        <v>19.13270523714566</v>
+        <v>43.83137760790603</v>
       </c>
       <c r="G14">
-        <v>21.48217535182678</v>
+        <v>1.922635751368603</v>
       </c>
       <c r="H14">
-        <v>11.20134635503406</v>
-      </c>
-      <c r="I14">
-        <v>22.88533619003279</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>8.995111595957198</v>
-      </c>
-      <c r="M14">
-        <v>14.49709657429163</v>
-      </c>
-      <c r="N14">
-        <v>18.6420010897191</v>
-      </c>
       <c r="O14">
-        <v>16.22134479072107</v>
+        <v>34.95589883823128</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>15.0509399025362</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
       <c r="D15">
-        <v>3.271741798610493</v>
+        <v>2.829652280497055</v>
       </c>
       <c r="E15">
-        <v>22.14982875292285</v>
+        <v>41.7260685547022</v>
       </c>
       <c r="F15">
-        <v>19.10248851784275</v>
+        <v>43.5502468791974</v>
       </c>
       <c r="G15">
-        <v>21.42022951335036</v>
+        <v>1.924043294857992</v>
       </c>
       <c r="H15">
-        <v>11.19954693864119</v>
-      </c>
-      <c r="I15">
-        <v>22.89992168904483</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>8.984313947576084</v>
-      </c>
-      <c r="M15">
-        <v>14.48292875130738</v>
-      </c>
-      <c r="N15">
-        <v>18.64031511087488</v>
-      </c>
       <c r="O15">
-        <v>16.20759644066221</v>
+        <v>34.73022805662531</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>14.87300596565914</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
       <c r="D16">
-        <v>3.232390854718187</v>
+        <v>2.746460802472048</v>
       </c>
       <c r="E16">
-        <v>22.09821006284335</v>
+        <v>40.06359001551285</v>
       </c>
       <c r="F16">
-        <v>18.93004349617954</v>
+        <v>41.92640926738881</v>
       </c>
       <c r="G16">
-        <v>21.06370920002803</v>
+        <v>1.932078291152918</v>
       </c>
       <c r="H16">
-        <v>11.18991315342982</v>
-      </c>
-      <c r="I16">
-        <v>22.98478007031924</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>8.922461869090286</v>
-      </c>
-      <c r="M16">
-        <v>14.4018684791182</v>
-      </c>
-      <c r="N16">
-        <v>18.63125076941362</v>
-      </c>
       <c r="O16">
-        <v>16.12988960108779</v>
+        <v>33.42693701927529</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>14.7631050280164</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
       <c r="D17">
-        <v>3.207882527515803</v>
+        <v>2.696330603022415</v>
       </c>
       <c r="E17">
-        <v>22.06685405301539</v>
+        <v>39.03835436402784</v>
       </c>
       <c r="F17">
-        <v>18.82494927824717</v>
+        <v>40.91803401276306</v>
       </c>
       <c r="G17">
-        <v>20.84376113043674</v>
+        <v>1.936987037635699</v>
       </c>
       <c r="H17">
-        <v>11.18460993467997</v>
-      </c>
-      <c r="I17">
-        <v>23.03797756606218</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>8.884554656541461</v>
-      </c>
-      <c r="M17">
-        <v>14.35227400442456</v>
-      </c>
-      <c r="N17">
-        <v>18.6262256673511</v>
-      </c>
       <c r="O17">
-        <v>16.08320207629615</v>
+        <v>32.61775505244254</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>14.69963987370576</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
       <c r="D18">
-        <v>3.193653323786003</v>
+        <v>2.667784052953446</v>
       </c>
       <c r="E18">
-        <v>22.04893638705346</v>
+        <v>38.44616033910527</v>
       </c>
       <c r="F18">
-        <v>18.76478015178456</v>
+        <v>40.33326736033548</v>
       </c>
       <c r="G18">
-        <v>20.71685387177315</v>
+        <v>1.939805575858262</v>
       </c>
       <c r="H18">
-        <v>11.18178335774902</v>
-      </c>
-      <c r="I18">
-        <v>23.06899500983432</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>8.862770940028094</v>
-      </c>
-      <c r="M18">
-        <v>14.32380455048188</v>
-      </c>
-      <c r="N18">
-        <v>18.62353319107502</v>
-      </c>
       <c r="O18">
-        <v>16.05671770637045</v>
+        <v>32.14853704850322</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>14.67811017905817</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
       <c r="D19">
-        <v>3.188813018627096</v>
+        <v>2.65816399662681</v>
       </c>
       <c r="E19">
-        <v>22.04289027292534</v>
+        <v>38.24517615015719</v>
       </c>
       <c r="F19">
-        <v>18.74445787964705</v>
+        <v>40.13442942213967</v>
       </c>
       <c r="G19">
-        <v>20.67382206100027</v>
+        <v>1.940759289681545</v>
       </c>
       <c r="H19">
-        <v>11.18086480985804</v>
-      </c>
-      <c r="I19">
-        <v>23.07956913903784</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>8.855399259669355</v>
-      </c>
-      <c r="M19">
-        <v>14.31417555628763</v>
-      </c>
-      <c r="N19">
-        <v>18.6226556363228</v>
-      </c>
       <c r="O19">
-        <v>16.04781466421431</v>
+        <v>31.98899345666321</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>14.77483082687932</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
       <c r="D20">
-        <v>3.210505268320492</v>
+        <v>2.701636376945457</v>
       </c>
       <c r="E20">
-        <v>22.07017987161132</v>
+        <v>39.14774034632932</v>
       </c>
       <c r="F20">
-        <v>18.83610844978767</v>
+        <v>41.02586533535019</v>
       </c>
       <c r="G20">
-        <v>20.86721752475292</v>
+        <v>1.936465051754432</v>
       </c>
       <c r="H20">
-        <v>11.18515133499167</v>
-      </c>
-      <c r="I20">
-        <v>23.03227118853972</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>8.888588058141691</v>
-      </c>
-      <c r="M20">
-        <v>14.35754778447407</v>
-      </c>
-      <c r="N20">
-        <v>18.62674014587884</v>
-      </c>
       <c r="O20">
-        <v>16.08813401971349</v>
+        <v>32.70428157197187</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>15.09663250784249</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
       <c r="D21">
-        <v>3.281785746321545</v>
+        <v>2.851451138798347</v>
       </c>
       <c r="E21">
-        <v>22.16324884147558</v>
+        <v>42.15410590564126</v>
       </c>
       <c r="F21">
-        <v>19.14720681336517</v>
+        <v>43.96597301420537</v>
       </c>
       <c r="G21">
-        <v>21.5118510917812</v>
+        <v>1.921960137631775</v>
       </c>
       <c r="H21">
-        <v>11.20222118915119</v>
-      </c>
-      <c r="I21">
-        <v>22.87836456720712</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>9.00028959385179</v>
-      </c>
-      <c r="M21">
-        <v>14.50389247942187</v>
-      </c>
-      <c r="N21">
-        <v>18.64282009185377</v>
-      </c>
       <c r="O21">
-        <v>16.22795630751778</v>
+        <v>35.06394622050002</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>15.30426830429993</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
       <c r="D22">
-        <v>3.327138470334056</v>
+        <v>2.952974241876813</v>
       </c>
       <c r="E22">
-        <v>22.22504801514036</v>
+        <v>44.1089566196849</v>
       </c>
       <c r="F22">
-        <v>19.3525224055754</v>
+        <v>45.85162006124357</v>
       </c>
       <c r="G22">
-        <v>21.92847158896611</v>
+        <v>1.91237612727953</v>
       </c>
       <c r="H22">
-        <v>11.21535372501888</v>
-      </c>
-      <c r="I22">
-        <v>22.78149682400817</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>9.073341811961114</v>
-      </c>
-      <c r="M22">
-        <v>14.59988781362466</v>
-      </c>
-      <c r="N22">
-        <v>18.65506923816456</v>
-      </c>
       <c r="O22">
-        <v>16.3224570261643</v>
+        <v>36.57798997088138</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>15.19371443058325</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
       <c r="D23">
-        <v>3.303048107506203</v>
+        <v>2.898400418239618</v>
       </c>
       <c r="E23">
-        <v>22.19197914248623</v>
+        <v>43.0658491969818</v>
       </c>
       <c r="F23">
-        <v>19.24278236853256</v>
+        <v>44.84813586352318</v>
       </c>
       <c r="G23">
-        <v>21.70659441053733</v>
+        <v>1.917504158225754</v>
       </c>
       <c r="H23">
-        <v>11.20816461629941</v>
-      </c>
-      <c r="I23">
-        <v>22.83285751719215</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>9.034354011922805</v>
-      </c>
-      <c r="M23">
-        <v>14.54862836562617</v>
-      </c>
-      <c r="N23">
-        <v>18.64837350405941</v>
-      </c>
       <c r="O23">
-        <v>16.27174316377314</v>
+        <v>35.77218156047816</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>14.76953046561357</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
       <c r="D24">
-        <v>3.209319959693147</v>
+        <v>2.699236793912984</v>
       </c>
       <c r="E24">
-        <v>22.06867592772347</v>
+        <v>39.09829570508385</v>
       </c>
       <c r="F24">
-        <v>18.83106260125896</v>
+        <v>40.97713055599642</v>
       </c>
       <c r="G24">
-        <v>20.85661429682824</v>
+        <v>1.936701052047868</v>
       </c>
       <c r="H24">
-        <v>11.18490587524013</v>
-      </c>
-      <c r="I24">
-        <v>23.0348496913238</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>8.886764525828719</v>
-      </c>
-      <c r="M24">
-        <v>14.35516337269316</v>
-      </c>
-      <c r="N24">
-        <v>18.62650693775528</v>
-      </c>
       <c r="O24">
-        <v>16.08590317449159</v>
+        <v>32.66517547682048</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>14.30258727726826</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
       <c r="D25">
-        <v>3.103182902902393</v>
+        <v>2.495039762889433</v>
       </c>
       <c r="E25">
-        <v>21.94020608812513</v>
+        <v>34.71862015935246</v>
       </c>
       <c r="F25">
-        <v>18.39788136063837</v>
+        <v>36.61664450726829</v>
       </c>
       <c r="G25">
-        <v>19.92530757286121</v>
+        <v>1.95724508247115</v>
       </c>
       <c r="H25">
-        <v>11.16837583733166</v>
-      </c>
-      <c r="I25">
-        <v>23.26878644044808</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>8.728385899234098</v>
-      </c>
-      <c r="M25">
-        <v>14.14870658843297</v>
-      </c>
-      <c r="N25">
-        <v>18.61049514527085</v>
-      </c>
       <c r="O25">
-        <v>15.89964164860299</v>
+        <v>29.16646652915064</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,629 +415,707 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.349720135345092</v>
+        <v>2.104931546227315</v>
       </c>
       <c r="E2">
-        <v>31.35800337974209</v>
+        <v>32.08426124340383</v>
       </c>
       <c r="F2">
-        <v>33.21936882378018</v>
+        <v>32.50263912979236</v>
       </c>
       <c r="G2">
-        <v>1.972485176699833</v>
+        <v>2.006822032921141</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4.685067244831645</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>26.43978069555541</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>25.77189398948176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.252862348009495</v>
+        <v>2.07901484599523</v>
       </c>
       <c r="E3">
-        <v>28.97648187263925</v>
+        <v>30.08996734270405</v>
       </c>
       <c r="F3">
-        <v>30.78999478642798</v>
+        <v>30.40737855835052</v>
       </c>
       <c r="G3">
-        <v>1.982984461186607</v>
+        <v>2.014456688235499</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4.356391808371115</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="O3">
-        <v>24.48849958122704</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>24.17743910735283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2.193806291917495</v>
+        <v>2.062015653248795</v>
       </c>
       <c r="E4">
-        <v>27.45768493464443</v>
+        <v>28.80488661861066</v>
       </c>
       <c r="F4">
-        <v>29.2329618408612</v>
+        <v>29.06442210359348</v>
       </c>
       <c r="G4">
-        <v>1.9895429514371</v>
+        <v>2.019259790255377</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.148825185931026</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>23.23684182374441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>23.1583291308764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>2.169796820415629</v>
+        <v>2.054817360627801</v>
       </c>
       <c r="E5">
-        <v>26.82386341189581</v>
+        <v>28.2659412095414</v>
       </c>
       <c r="F5">
-        <v>28.58168610131683</v>
+        <v>28.50310277912704</v>
       </c>
       <c r="G5">
-        <v>1.992247343678895</v>
+        <v>2.021247547256435</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.062737089695345</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="O5">
-        <v>22.71298257078601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>22.73311745795231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>2.165812207870548</v>
+        <v>2.053605789454675</v>
       </c>
       <c r="E6">
-        <v>26.71769931539484</v>
+        <v>28.17552759242295</v>
       </c>
       <c r="F6">
-        <v>28.47252089774414</v>
+        <v>28.4090531159221</v>
       </c>
       <c r="G6">
-        <v>1.992698422672597</v>
+        <v>2.021579492430742</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.04834990266911</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>22.62515391665233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>22.66191882739718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>2.193482321617039</v>
+        <v>2.061919668784863</v>
       </c>
       <c r="E7">
-        <v>27.44919817488973</v>
+        <v>28.79768003346285</v>
       </c>
       <c r="F7">
-        <v>29.2242468066048</v>
+        <v>29.05690860914343</v>
       </c>
       <c r="G7">
-        <v>1.989579290728184</v>
+        <v>2.019286472699942</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.147670327775133</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>23.22983314973489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>23.152634451672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>2.316206025784049</v>
+        <v>2.096222154273882</v>
       </c>
       <c r="E8">
-        <v>30.54815235421993</v>
+        <v>31.4091702768249</v>
       </c>
       <c r="F8">
-        <v>32.39507205034562</v>
+        <v>31.79197252358496</v>
       </c>
       <c r="G8">
-        <v>1.976084409734668</v>
+        <v>2.009431407985452</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4.572900976867171</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="O8">
-        <v>25.77788376372136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>25.23053070064459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>2.562807521672476</v>
+        <v>2.154785196017936</v>
       </c>
       <c r="E9">
-        <v>36.21211963455755</v>
+        <v>36.05303923638011</v>
       </c>
       <c r="F9">
-        <v>38.11286333711386</v>
+        <v>36.83731268649606</v>
       </c>
       <c r="G9">
-        <v>1.950322133379367</v>
+        <v>1.990950926588451</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5.363758942983138</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>30.36699090932277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>29.08145777737296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>2.752223080665883</v>
+        <v>2.167284639790014</v>
       </c>
       <c r="E10">
-        <v>40.18027455303723</v>
+        <v>38.30496531119682</v>
       </c>
       <c r="F10">
-        <v>42.04084519015975</v>
+        <v>40.11688766140962</v>
       </c>
       <c r="G10">
-        <v>1.931517324779137</v>
+        <v>1.978295844802251</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5.874786799873153</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="O10">
-        <v>33.51877322859582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>31.67190502327665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>2.841551368769099</v>
+        <v>1.988040873747462</v>
       </c>
       <c r="E11">
-        <v>41.96009371619354</v>
+        <v>31.90383516709814</v>
       </c>
       <c r="F11">
-        <v>43.77766396158036</v>
+        <v>39.69607580327018</v>
       </c>
       <c r="G11">
-        <v>1.922905058533718</v>
+        <v>1.976787567993235</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6.076936552026438</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="O11">
-        <v>34.91278061644016</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>31.16269187899136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>2.875980977148759</v>
+        <v>1.886694621792792</v>
       </c>
       <c r="E12">
-        <v>42.63217003937997</v>
+        <v>26.22082948752583</v>
       </c>
       <c r="F12">
-        <v>44.42910347968066</v>
+        <v>38.66876359871462</v>
       </c>
       <c r="G12">
-        <v>1.919626819093003</v>
+        <v>1.977779670963913</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6.631181598599258</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="O12">
-        <v>35.43574939600597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>30.20426100823344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>2.868536388806389</v>
+        <v>1.845175175909834</v>
       </c>
       <c r="E13">
-        <v>42.48747916994571</v>
+        <v>20.74403178807173</v>
       </c>
       <c r="F13">
-        <v>44.28906556110423</v>
+        <v>37.08093892212274</v>
       </c>
       <c r="G13">
-        <v>1.92033375718983</v>
+        <v>1.980732405307392</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.402518963799866</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="O13">
-        <v>35.32332264407049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>28.81279978420219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>2.844370855340101</v>
+        <v>1.85182681988758</v>
       </c>
       <c r="E14">
-        <v>42.01541264766671</v>
+        <v>17.18237530305624</v>
       </c>
       <c r="F14">
-        <v>43.83137760790603</v>
+        <v>35.69629785485314</v>
       </c>
       <c r="G14">
-        <v>1.922635751368603</v>
+        <v>1.98362620208446</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.048460287447998</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="O14">
-        <v>34.95589883823128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>27.62586430547521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>2.829652280497055</v>
+        <v>1.858155568471455</v>
       </c>
       <c r="E15">
-        <v>41.7260685547022</v>
+        <v>16.35316398773954</v>
       </c>
       <c r="F15">
-        <v>43.5502468791974</v>
+        <v>35.23247085823836</v>
       </c>
       <c r="G15">
-        <v>1.924043294857992</v>
+        <v>1.98479689414014</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.195877317525778</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="O15">
-        <v>34.73022805662531</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>27.2380093710241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>2.746460802472048</v>
+        <v>1.859260628164319</v>
       </c>
       <c r="E16">
-        <v>40.06359001551285</v>
+        <v>16.10521882252414</v>
       </c>
       <c r="F16">
-        <v>41.92640926738881</v>
+        <v>34.07784629588687</v>
       </c>
       <c r="G16">
-        <v>1.932078291152918</v>
+        <v>1.989491393222659</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.892855105775236</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="O16">
-        <v>33.42693701927529</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>26.34182787474889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>2.696330603022415</v>
+        <v>1.851924556190423</v>
       </c>
       <c r="E17">
-        <v>39.03835436402784</v>
+        <v>17.77691526196038</v>
       </c>
       <c r="F17">
-        <v>40.91803401276306</v>
+        <v>33.95121982846675</v>
       </c>
       <c r="G17">
-        <v>1.936987037635699</v>
+        <v>1.991606321526372</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.265542507698992</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="O17">
-        <v>32.61775505244254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>26.30645079517831</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>2.667784052953446</v>
+        <v>1.867210366100637</v>
       </c>
       <c r="E18">
-        <v>38.44616033910527</v>
+        <v>21.78599612047764</v>
       </c>
       <c r="F18">
-        <v>40.33326736033548</v>
+        <v>34.71660349521666</v>
       </c>
       <c r="G18">
-        <v>1.939805575858262</v>
+        <v>1.991542102143376</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6.406190035247825</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="O18">
-        <v>32.14853704850322</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>27.02733415734664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>2.65816399662681</v>
+        <v>1.943077678630588</v>
       </c>
       <c r="E19">
-        <v>38.24517615015719</v>
+        <v>27.6789941233401</v>
       </c>
       <c r="F19">
-        <v>40.13442942213967</v>
+        <v>36.1383136191745</v>
       </c>
       <c r="G19">
-        <v>1.940759289681545</v>
+        <v>1.989428526737569</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5.706895936690269</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="O19">
-        <v>31.98899345666321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>28.3002702775884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>2.701636376945457</v>
+        <v>2.16322082627052</v>
       </c>
       <c r="E20">
-        <v>39.14774034632932</v>
+        <v>37.68523828858719</v>
       </c>
       <c r="F20">
-        <v>41.02586533535019</v>
+        <v>39.26505573281266</v>
       </c>
       <c r="G20">
-        <v>1.936465051754432</v>
+        <v>1.981616666940774</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5.739149298123078</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="O20">
-        <v>32.70428157197187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>30.99836418970007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>2.851451138798347</v>
+        <v>2.210031903568887</v>
       </c>
       <c r="E21">
-        <v>42.15410590564126</v>
+        <v>40.69173931999269</v>
       </c>
       <c r="F21">
-        <v>43.96597301420537</v>
+        <v>42.02310993126699</v>
       </c>
       <c r="G21">
-        <v>1.921960137631775</v>
+        <v>1.971206310666587</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>6.200291860830716</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="O21">
-        <v>35.06394622050002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>33.20735580540065</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>2.952974241876813</v>
+        <v>2.226764471669936</v>
       </c>
       <c r="E22">
-        <v>44.1089566196849</v>
+        <v>42.15519950247793</v>
       </c>
       <c r="F22">
-        <v>45.85162006124357</v>
+        <v>43.66009698774357</v>
       </c>
       <c r="G22">
-        <v>1.91237612727953</v>
+        <v>1.964699594393956</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6.474213141561632</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="O22">
-        <v>36.57798997088138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>34.50849497634176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="D23">
-        <v>2.898400418239618</v>
+        <v>2.217925893142396</v>
       </c>
       <c r="E23">
-        <v>43.0658491969818</v>
+        <v>41.3784766385451</v>
       </c>
       <c r="F23">
-        <v>44.84813586352318</v>
+        <v>42.79119724741173</v>
       </c>
       <c r="G23">
-        <v>1.917504158225754</v>
+        <v>1.968169896246649</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6.328223990864769</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="O23">
-        <v>35.77218156047816</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>33.81792256225349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="D24">
-        <v>2.699236793912984</v>
+        <v>2.182435951789251</v>
       </c>
       <c r="E24">
-        <v>39.09829570508385</v>
+        <v>38.3397785689396</v>
       </c>
       <c r="F24">
-        <v>40.97713055599642</v>
+        <v>39.39336908754179</v>
       </c>
       <c r="G24">
-        <v>1.936701052047868</v>
+        <v>1.981382213315997</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.770189266003064</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="O24">
-        <v>32.66517547682048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>31.11596966726311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="D25">
-        <v>2.495039762889433</v>
+        <v>2.139885247190772</v>
       </c>
       <c r="E25">
-        <v>34.71862015935246</v>
+        <v>34.84722144548751</v>
       </c>
       <c r="F25">
-        <v>36.61664450726829</v>
+        <v>35.48956984981111</v>
       </c>
       <c r="G25">
-        <v>1.95724508247115</v>
+        <v>1.995870373675259</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5.154018993962229</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="O25">
-        <v>29.16646652915064</v>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>28.00786865070119</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_line/loading_percent.xlsx
@@ -426,696 +426,1272 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>11.50102986341638</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
-        <v>2.104931546227315</v>
+        <v>6.422108621120545</v>
       </c>
       <c r="E2">
-        <v>32.08426124340383</v>
+        <v>9.967357841669543</v>
       </c>
       <c r="F2">
-        <v>32.50263912979236</v>
+        <v>20.52877816990237</v>
       </c>
       <c r="G2">
-        <v>2.006822032921141</v>
+        <v>21.89452746359232</v>
       </c>
       <c r="H2">
-        <v>4.685067244831645</v>
+        <v>3.299978843190676</v>
+      </c>
+      <c r="I2">
+        <v>4.58199941297301</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.116558743008186</v>
+      </c>
+      <c r="K2">
+        <v>17.34507910158511</v>
       </c>
       <c r="L2">
+        <v>7.322840478296337</v>
+      </c>
+      <c r="M2">
+        <v>13.47749343087379</v>
+      </c>
+      <c r="N2">
+        <v>6.224980162324865</v>
+      </c>
+      <c r="O2">
+        <v>9.577103165914197</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>25.77189398948176</v>
+        <v>14.70089923413322</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>10.83677530259001</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3">
-        <v>2.07901484599523</v>
+        <v>6.326478136996159</v>
       </c>
       <c r="E3">
-        <v>30.08996734270405</v>
+        <v>9.924761477129461</v>
       </c>
       <c r="F3">
-        <v>30.40737855835052</v>
+        <v>20.46077054883853</v>
       </c>
       <c r="G3">
-        <v>2.014456688235499</v>
+        <v>21.75376753871213</v>
       </c>
       <c r="H3">
-        <v>4.356391808371115</v>
+        <v>3.466457751609454</v>
+      </c>
+      <c r="I3">
+        <v>4.697156679015252</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.170127754271428</v>
+      </c>
+      <c r="K3">
+        <v>17.53140157393118</v>
       </c>
       <c r="L3">
+        <v>7.288198453353512</v>
+      </c>
+      <c r="M3">
+        <v>12.84370898705815</v>
+      </c>
+      <c r="N3">
+        <v>5.968148222963194</v>
+      </c>
+      <c r="O3">
+        <v>9.19508979172746</v>
+      </c>
+      <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>24.17743910735283</v>
+        <v>14.73987791924847</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>10.40474576013406</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4">
-        <v>2.062015653248795</v>
+        <v>6.267381345554853</v>
       </c>
       <c r="E4">
-        <v>28.80488661861066</v>
+        <v>9.897528384262355</v>
       </c>
       <c r="F4">
-        <v>29.06442210359348</v>
+        <v>20.4266954699223</v>
       </c>
       <c r="G4">
-        <v>2.019259790255377</v>
+        <v>21.67928281166203</v>
       </c>
       <c r="H4">
-        <v>4.148825185931026</v>
+        <v>3.572523996640954</v>
+      </c>
+      <c r="I4">
+        <v>4.77113135090496</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.205902281686758</v>
+      </c>
+      <c r="K4">
+        <v>17.64832399826516</v>
       </c>
       <c r="L4">
+        <v>7.266148499333235</v>
+      </c>
+      <c r="M4">
+        <v>12.43888223174514</v>
+      </c>
+      <c r="N4">
+        <v>5.807281944720484</v>
+      </c>
+      <c r="O4">
+        <v>8.95295870987322</v>
+      </c>
+      <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>23.1583291308764</v>
+        <v>14.77005633267613</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>10.21598337248384</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5">
-        <v>2.054817360627801</v>
+        <v>6.242071345183757</v>
       </c>
       <c r="E5">
-        <v>28.2659412095414</v>
+        <v>9.884543552493758</v>
       </c>
       <c r="F5">
-        <v>28.50310277912704</v>
+        <v>20.40821249071874</v>
       </c>
       <c r="G5">
-        <v>2.021247547256435</v>
+        <v>21.64193097445685</v>
       </c>
       <c r="H5">
-        <v>4.062737089695345</v>
+        <v>3.616978816420021</v>
+      </c>
+      <c r="I5">
+        <v>4.804412110530353</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.219574311455361</v>
+      </c>
+      <c r="K5">
+        <v>17.69213111740295</v>
       </c>
       <c r="L5">
+        <v>7.256756977927349</v>
+      </c>
+      <c r="M5">
+        <v>12.27496459434945</v>
+      </c>
+      <c r="N5">
+        <v>5.74629825432062</v>
+      </c>
+      <c r="O5">
+        <v>8.853215440403476</v>
+      </c>
+      <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>22.73311745795231</v>
+        <v>14.77983925005067</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>10.17606772865586</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6">
-        <v>2.053605789454675</v>
+        <v>6.236453506094287</v>
       </c>
       <c r="E6">
-        <v>28.17552759242295</v>
+        <v>9.880407615691171</v>
       </c>
       <c r="F6">
-        <v>28.4090531159221</v>
+        <v>20.39731168125282</v>
       </c>
       <c r="G6">
-        <v>2.021579492430742</v>
+        <v>21.62375045170915</v>
       </c>
       <c r="H6">
-        <v>4.04834990266911</v>
+        <v>3.624728595186003</v>
+      </c>
+      <c r="I6">
+        <v>4.8129223241934</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.219910253547019</v>
+      </c>
+      <c r="K6">
+        <v>17.69398438770877</v>
       </c>
       <c r="L6">
+        <v>7.254940617592311</v>
+      </c>
+      <c r="M6">
+        <v>12.25348452187781</v>
+      </c>
+      <c r="N6">
+        <v>5.742607639345532</v>
+      </c>
+      <c r="O6">
+        <v>8.837421493542619</v>
+      </c>
+      <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>22.66191882739718</v>
+        <v>14.77661349097795</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>10.38026371601327</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="D7">
-        <v>2.061919668784863</v>
+        <v>6.263213058829975</v>
       </c>
       <c r="E7">
-        <v>28.79768003346285</v>
+        <v>9.892046534474783</v>
       </c>
       <c r="F7">
-        <v>29.05690860914343</v>
+        <v>20.40481871394968</v>
       </c>
       <c r="G7">
-        <v>2.019286472699942</v>
+        <v>21.64570985113642</v>
       </c>
       <c r="H7">
-        <v>4.147670327775133</v>
+        <v>3.573942352314172</v>
+      </c>
+      <c r="I7">
+        <v>4.779320340095028</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.200701839824148</v>
+      </c>
+      <c r="K7">
+        <v>17.63405235942151</v>
       </c>
       <c r="L7">
+        <v>7.265394770838832</v>
+      </c>
+      <c r="M7">
+        <v>12.45275865048408</v>
+      </c>
+      <c r="N7">
+        <v>5.823873969954387</v>
+      </c>
+      <c r="O7">
+        <v>8.953960733082715</v>
+      </c>
+      <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>23.152634451672</v>
+        <v>14.75672407350494</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>11.25000541740001</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
       <c r="D8">
-        <v>2.096222154273882</v>
+        <v>6.384289315428501</v>
       </c>
       <c r="E8">
-        <v>31.4091702768249</v>
+        <v>9.946128062216678</v>
       </c>
       <c r="F8">
-        <v>31.79197252358496</v>
+        <v>20.47550419564476</v>
       </c>
       <c r="G8">
-        <v>2.009431407985452</v>
+        <v>21.80044135773321</v>
       </c>
       <c r="H8">
-        <v>4.572900976867171</v>
+        <v>3.357589251182567</v>
+      </c>
+      <c r="I8">
+        <v>4.630704914095288</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.127372827767154</v>
+      </c>
+      <c r="K8">
+        <v>17.38943877721837</v>
       </c>
       <c r="L8">
+        <v>7.310409417706292</v>
+      </c>
+      <c r="M8">
+        <v>13.28257215083037</v>
+      </c>
+      <c r="N8">
+        <v>6.158958147544473</v>
+      </c>
+      <c r="O8">
+        <v>9.449932390465982</v>
+      </c>
+      <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25.23053070064459</v>
+        <v>14.69538185382079</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>12.79639088727759</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9">
-        <v>2.154785196017936</v>
+        <v>6.624401339368998</v>
       </c>
       <c r="E9">
-        <v>36.05303923638011</v>
+        <v>10.05284641897547</v>
       </c>
       <c r="F9">
-        <v>36.83731268649606</v>
+        <v>20.71438489538333</v>
       </c>
       <c r="G9">
-        <v>1.990950926588451</v>
+        <v>22.25910047150974</v>
       </c>
       <c r="H9">
-        <v>5.363758942983138</v>
+        <v>2.962029785702524</v>
+      </c>
+      <c r="I9">
+        <v>4.352375823268058</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.016643203438967</v>
+      </c>
+      <c r="K9">
+        <v>16.95535835196578</v>
       </c>
       <c r="L9">
+        <v>7.393520323876952</v>
+      </c>
+      <c r="M9">
+        <v>14.75411392056873</v>
+      </c>
+      <c r="N9">
+        <v>6.759087480486838</v>
+      </c>
+      <c r="O9">
+        <v>10.35414506335974</v>
+      </c>
+      <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>29.08145777737296</v>
+        <v>14.65046236452703</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>13.77417589432728</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10">
-        <v>2.167284639790014</v>
+        <v>6.759029254054269</v>
       </c>
       <c r="E10">
-        <v>38.30496531119682</v>
+        <v>10.09275981418856</v>
       </c>
       <c r="F10">
-        <v>40.11688766140962</v>
+        <v>20.80512866655865</v>
       </c>
       <c r="G10">
-        <v>1.978295844802251</v>
+        <v>22.48884695616943</v>
       </c>
       <c r="H10">
-        <v>5.874786799873153</v>
+        <v>2.713263108402701</v>
+      </c>
+      <c r="I10">
+        <v>4.171376538277309</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.922862216247706</v>
+      </c>
+      <c r="K10">
+        <v>16.59467097094553</v>
       </c>
       <c r="L10">
+        <v>7.455145937718304</v>
+      </c>
+      <c r="M10">
+        <v>15.7909008941117</v>
+      </c>
+      <c r="N10">
+        <v>7.12954044304195</v>
+      </c>
+      <c r="O10">
+        <v>10.93076302233861</v>
+      </c>
+      <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>31.67190502327665</v>
+        <v>14.58144182235441</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>13.92324424550277</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="D11">
-        <v>1.988040873747462</v>
+        <v>6.504870770894</v>
       </c>
       <c r="E11">
-        <v>31.90383516709814</v>
+        <v>9.932378264873785</v>
       </c>
       <c r="F11">
-        <v>39.69607580327018</v>
+        <v>19.83813110300641</v>
       </c>
       <c r="G11">
-        <v>1.976787567993235</v>
+        <v>21.22561527913432</v>
       </c>
       <c r="H11">
-        <v>6.076936552026438</v>
+        <v>3.450115769096557</v>
+      </c>
+      <c r="I11">
+        <v>4.138330438006054</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.657554714129509</v>
+      </c>
+      <c r="K11">
+        <v>16.05472614106897</v>
       </c>
       <c r="L11">
+        <v>7.571042092850025</v>
+      </c>
+      <c r="M11">
+        <v>16.54388310258063</v>
+      </c>
+      <c r="N11">
+        <v>6.821848886005739</v>
+      </c>
+      <c r="O11">
+        <v>10.80278866971151</v>
+      </c>
+      <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>31.16269187899136</v>
+        <v>13.98528908967618</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>13.87344898666354</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
-        <v>1.886694621792792</v>
+        <v>6.273376468017291</v>
       </c>
       <c r="E12">
-        <v>26.22082948752583</v>
+        <v>9.926961340410836</v>
       </c>
       <c r="F12">
-        <v>38.66876359871462</v>
+        <v>19.0305295660991</v>
       </c>
       <c r="G12">
-        <v>1.977779670963913</v>
+        <v>20.14266417976641</v>
       </c>
       <c r="H12">
-        <v>6.631181598599258</v>
+        <v>4.637292607953206</v>
+      </c>
+      <c r="I12">
+        <v>4.131814986561004</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.460633388392063</v>
+      </c>
+      <c r="K12">
+        <v>15.74872868291321</v>
       </c>
       <c r="L12">
+        <v>7.722180069630608</v>
+      </c>
+      <c r="M12">
+        <v>16.95339719335125</v>
+      </c>
+      <c r="N12">
+        <v>6.45698698485711</v>
+      </c>
+      <c r="O12">
+        <v>10.56590737812087</v>
+      </c>
+      <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30.20426100823344</v>
+        <v>13.51334282824684</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>13.64007002377659</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13">
-        <v>1.845175175909834</v>
+        <v>6.03933696309088</v>
       </c>
       <c r="E13">
-        <v>20.74403178807173</v>
+        <v>10.02783194123299</v>
       </c>
       <c r="F13">
-        <v>37.08093892212274</v>
+        <v>18.26415736813895</v>
       </c>
       <c r="G13">
-        <v>1.980732405307392</v>
+        <v>19.07689565618946</v>
       </c>
       <c r="H13">
-        <v>7.402518963799866</v>
+        <v>5.951970619788492</v>
+      </c>
+      <c r="I13">
+        <v>4.157421262553313</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.296812028970187</v>
+      </c>
+      <c r="K13">
+        <v>15.5837265484273</v>
       </c>
       <c r="L13">
+        <v>7.901998950008267</v>
+      </c>
+      <c r="M13">
+        <v>17.15339651454621</v>
+      </c>
+      <c r="N13">
+        <v>6.0401942847452</v>
+      </c>
+      <c r="O13">
+        <v>10.22856832502008</v>
+      </c>
+      <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28.81279978420219</v>
+        <v>13.08864943063517</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>13.38511272669917</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="D14">
-        <v>1.85182681988758</v>
+        <v>5.8755075361517</v>
       </c>
       <c r="E14">
-        <v>17.18237530305624</v>
+        <v>10.16028709159884</v>
       </c>
       <c r="F14">
-        <v>35.69629785485314</v>
+        <v>17.74667744919725</v>
       </c>
       <c r="G14">
-        <v>1.98362620208446</v>
+        <v>18.33424177299578</v>
       </c>
       <c r="H14">
-        <v>8.048460287447998</v>
+        <v>6.910485415879597</v>
+      </c>
+      <c r="I14">
+        <v>4.192126803736441</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.197229609536071</v>
+      </c>
+      <c r="K14">
+        <v>15.53848799441456</v>
       </c>
       <c r="L14">
+        <v>8.046424124385943</v>
+      </c>
+      <c r="M14">
+        <v>17.20527695487132</v>
+      </c>
+      <c r="N14">
+        <v>5.725522714617671</v>
+      </c>
+      <c r="O14">
+        <v>9.94392320514924</v>
+      </c>
+      <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27.62586430547521</v>
+        <v>12.8129492160887</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>13.2762005397872</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15">
-        <v>1.858155568471455</v>
+        <v>5.833405950044654</v>
       </c>
       <c r="E15">
-        <v>16.35316398773954</v>
+        <v>10.19839594283811</v>
       </c>
       <c r="F15">
-        <v>35.23247085823836</v>
+        <v>17.62427674111542</v>
       </c>
       <c r="G15">
-        <v>1.98479689414014</v>
+        <v>18.14945703612879</v>
       </c>
       <c r="H15">
-        <v>8.195877317525778</v>
+        <v>7.136641168137264</v>
+      </c>
+      <c r="I15">
+        <v>4.211320797223355</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.178689260786239</v>
+      </c>
+      <c r="K15">
+        <v>15.54893322949356</v>
       </c>
       <c r="L15">
+        <v>8.080351423284721</v>
+      </c>
+      <c r="M15">
+        <v>17.17802323476503</v>
+      </c>
+      <c r="N15">
+        <v>5.643196180393999</v>
+      </c>
+      <c r="O15">
+        <v>9.853994357681641</v>
+      </c>
+      <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27.2380093710241</v>
+        <v>12.75270437551505</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>12.89429779468351</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="D16">
-        <v>1.859260628164319</v>
+        <v>5.818699786764006</v>
       </c>
       <c r="E16">
-        <v>16.10521882252414</v>
+        <v>10.14972177543259</v>
       </c>
       <c r="F16">
-        <v>34.07784629588687</v>
+        <v>17.72620953608752</v>
       </c>
       <c r="G16">
-        <v>1.989491393222659</v>
+        <v>18.23131946324216</v>
       </c>
       <c r="H16">
-        <v>7.892855105775236</v>
+        <v>6.957589254197534</v>
+      </c>
+      <c r="I16">
+        <v>4.288919863238355</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.249623279650963</v>
+      </c>
+      <c r="K16">
+        <v>15.72631407994566</v>
       </c>
       <c r="L16">
+        <v>8.010904172398847</v>
+      </c>
+      <c r="M16">
+        <v>16.73145752173509</v>
+      </c>
+      <c r="N16">
+        <v>5.560182954656422</v>
+      </c>
+      <c r="O16">
+        <v>9.666398457658183</v>
+      </c>
+      <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26.34182787474889</v>
+        <v>12.86105575047395</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>12.73701227564685</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
       <c r="D17">
-        <v>1.851924556190423</v>
+        <v>5.893763570699908</v>
       </c>
       <c r="E17">
-        <v>17.77691526196038</v>
+        <v>10.03200903871152</v>
       </c>
       <c r="F17">
-        <v>33.95121982846675</v>
+        <v>18.07708085843003</v>
       </c>
       <c r="G17">
-        <v>1.991606321526372</v>
+        <v>18.68976452729466</v>
       </c>
       <c r="H17">
-        <v>7.265542507698992</v>
+        <v>6.283903044028724</v>
+      </c>
+      <c r="I17">
+        <v>4.330529113179164</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.356320358406679</v>
+      </c>
+      <c r="K17">
+        <v>15.88194677123535</v>
       </c>
       <c r="L17">
+        <v>7.876291367852637</v>
+      </c>
+      <c r="M17">
+        <v>16.35380846829141</v>
+      </c>
+      <c r="N17">
+        <v>5.66960368235626</v>
+      </c>
+      <c r="O17">
+        <v>9.677807588904743</v>
+      </c>
+      <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26.30645079517831</v>
+        <v>13.08911167766051</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>12.77538406943262</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
       <c r="D18">
-        <v>1.867210366100637</v>
+        <v>6.062843893380137</v>
       </c>
       <c r="E18">
-        <v>21.78599612047764</v>
+        <v>9.901135934280267</v>
       </c>
       <c r="F18">
-        <v>34.71660349521666</v>
+        <v>18.70204949229998</v>
       </c>
       <c r="G18">
-        <v>1.991542102143376</v>
+        <v>19.54742018630269</v>
       </c>
       <c r="H18">
-        <v>6.406190035247825</v>
+        <v>5.158213021062885</v>
+      </c>
+      <c r="I18">
+        <v>4.336090677414857</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.510522036981037</v>
+      </c>
+      <c r="K18">
+        <v>16.07051623872749</v>
       </c>
       <c r="L18">
+        <v>7.695208521763918</v>
+      </c>
+      <c r="M18">
+        <v>15.98749157017345</v>
+      </c>
+      <c r="N18">
+        <v>5.945538658032454</v>
+      </c>
+      <c r="O18">
+        <v>9.859994256347616</v>
+      </c>
+      <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27.02733415734664</v>
+        <v>13.45733900887836</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>12.93324548334097</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
       <c r="D19">
-        <v>1.943077678630588</v>
+        <v>6.297766815429985</v>
       </c>
       <c r="E19">
-        <v>27.6789941233401</v>
+        <v>9.865385936084255</v>
       </c>
       <c r="F19">
-        <v>36.1383136191745</v>
+        <v>19.47900761639944</v>
       </c>
       <c r="G19">
-        <v>1.989428526737569</v>
+        <v>20.61570042350272</v>
       </c>
       <c r="H19">
-        <v>5.706895936690269</v>
+        <v>3.905769520106022</v>
+      </c>
+      <c r="I19">
+        <v>4.325143585241496</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.685649712692442</v>
+      </c>
+      <c r="K19">
+        <v>16.30044147206127</v>
       </c>
       <c r="L19">
+        <v>7.538576445105918</v>
+      </c>
+      <c r="M19">
+        <v>15.69231719960532</v>
+      </c>
+      <c r="N19">
+        <v>6.358586127117302</v>
+      </c>
+      <c r="O19">
+        <v>10.16514295004722</v>
+      </c>
+      <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28.3002702775884</v>
+        <v>13.89572642626702</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>13.47014665904859</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
       <c r="D20">
-        <v>2.16322082627052</v>
+        <v>6.711451977852367</v>
       </c>
       <c r="E20">
-        <v>37.68523828858719</v>
+        <v>10.0670961739438</v>
       </c>
       <c r="F20">
-        <v>39.26505573281266</v>
+        <v>20.70980926708558</v>
       </c>
       <c r="G20">
-        <v>1.981616666940774</v>
+        <v>22.3210243913453</v>
       </c>
       <c r="H20">
-        <v>5.739149298123078</v>
+        <v>2.779188405719824</v>
+      </c>
+      <c r="I20">
+        <v>4.242063988171604</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.929118195221228</v>
+      </c>
+      <c r="K20">
+        <v>16.64330738716455</v>
       </c>
       <c r="L20">
+        <v>7.438939436711014</v>
+      </c>
+      <c r="M20">
+        <v>15.56859892952714</v>
+      </c>
+      <c r="N20">
+        <v>7.075874926166296</v>
+      </c>
+      <c r="O20">
+        <v>10.78618903308204</v>
+      </c>
+      <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>30.99836418970007</v>
+        <v>14.55399560000783</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>14.2402906738174</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
       <c r="D21">
-        <v>2.210031903568887</v>
+        <v>6.872357443569293</v>
       </c>
       <c r="E21">
-        <v>40.69173931999269</v>
+        <v>10.14806420652483</v>
       </c>
       <c r="F21">
-        <v>42.02310993126699</v>
+        <v>20.98389260804565</v>
       </c>
       <c r="G21">
-        <v>1.971206310666587</v>
+        <v>22.77928445877433</v>
       </c>
       <c r="H21">
-        <v>6.200291860830716</v>
+        <v>2.557184492535467</v>
+      </c>
+      <c r="I21">
+        <v>4.096361838096676</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.904949640876513</v>
+      </c>
+      <c r="K21">
+        <v>16.45045946206099</v>
       </c>
       <c r="L21">
+        <v>7.479423715250043</v>
+      </c>
+      <c r="M21">
+        <v>16.2762203592285</v>
+      </c>
+      <c r="N21">
+        <v>7.430386917565772</v>
+      </c>
+      <c r="O21">
+        <v>11.28070451100855</v>
+      </c>
+      <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>33.20735580540065</v>
+        <v>14.62064202190122</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>14.72696816555179</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
       <c r="D22">
-        <v>2.226764471669936</v>
+        <v>6.962227879186707</v>
       </c>
       <c r="E22">
-        <v>42.15519950247793</v>
+        <v>10.19018177367054</v>
       </c>
       <c r="F22">
-        <v>43.66009698774357</v>
+        <v>21.13812251715569</v>
       </c>
       <c r="G22">
-        <v>1.964699594393956</v>
+        <v>23.05034207182131</v>
       </c>
       <c r="H22">
-        <v>6.474213141561632</v>
+        <v>2.425791677266997</v>
+      </c>
+      <c r="I22">
+        <v>3.996191499318893</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.886132371213899</v>
+      </c>
+      <c r="K22">
+        <v>16.32129606885623</v>
       </c>
       <c r="L22">
+        <v>7.507572347232948</v>
+      </c>
+      <c r="M22">
+        <v>16.72288191623399</v>
+      </c>
+      <c r="N22">
+        <v>7.610819451868165</v>
+      </c>
+      <c r="O22">
+        <v>11.5697357184545</v>
+      </c>
+      <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>34.50849497634176</v>
+        <v>14.6552557844371</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>14.48849490604486</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
       <c r="D23">
-        <v>2.217925893142396</v>
+        <v>6.918360292941577</v>
       </c>
       <c r="E23">
-        <v>41.3784766385451</v>
+        <v>10.17308482652582</v>
       </c>
       <c r="F23">
-        <v>42.79119724741173</v>
+        <v>21.07881056361487</v>
       </c>
       <c r="G23">
-        <v>1.968169896246649</v>
+        <v>22.94008127862823</v>
       </c>
       <c r="H23">
-        <v>6.328223990864769</v>
+        <v>2.494975064476133</v>
+      </c>
+      <c r="I23">
+        <v>4.040190246744087</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.901986403437794</v>
+      </c>
+      <c r="K23">
+        <v>16.40658166540691</v>
       </c>
       <c r="L23">
+        <v>7.492698068547186</v>
+      </c>
+      <c r="M23">
+        <v>16.47064285948193</v>
+      </c>
+      <c r="N23">
+        <v>7.498726429370543</v>
+      </c>
+      <c r="O23">
+        <v>11.41422024896959</v>
+      </c>
+      <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>33.81792256225349</v>
+        <v>14.65124065208975</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>13.51131623838351</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
       <c r="D24">
-        <v>2.182435951789251</v>
+        <v>6.744119724684004</v>
       </c>
       <c r="E24">
-        <v>38.3397785689396</v>
+        <v>10.09868182629</v>
       </c>
       <c r="F24">
-        <v>39.39336908754179</v>
+        <v>20.83314794288202</v>
       </c>
       <c r="G24">
-        <v>1.981382213315997</v>
+        <v>22.49223775492264</v>
       </c>
       <c r="H24">
-        <v>5.770189266003064</v>
+        <v>2.76395155969513</v>
+      </c>
+      <c r="I24">
+        <v>4.22655336559731</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.958956196789883</v>
+      </c>
+      <c r="K24">
+        <v>16.70785961970693</v>
       </c>
       <c r="L24">
+        <v>7.435285660542641</v>
+      </c>
+      <c r="M24">
+        <v>15.50645694008616</v>
+      </c>
+      <c r="N24">
+        <v>7.089832137675548</v>
+      </c>
+      <c r="O24">
+        <v>10.81001890906872</v>
+      </c>
+      <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>31.11596966726311</v>
+        <v>14.62710999346302</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>12.36556558678331</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="D25">
-        <v>2.139885247190772</v>
+        <v>6.553486380803824</v>
       </c>
       <c r="E25">
-        <v>34.84722144548751</v>
+        <v>10.01608262555158</v>
       </c>
       <c r="F25">
-        <v>35.48956984981111</v>
+        <v>20.60517517581542</v>
       </c>
       <c r="G25">
-        <v>1.995870373675259</v>
+        <v>22.06700562617775</v>
       </c>
       <c r="H25">
-        <v>5.154018993962229</v>
+        <v>3.067119079295315</v>
+      </c>
+      <c r="I25">
+        <v>4.438372207120402</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.034461314855612</v>
+      </c>
+      <c r="K25">
+        <v>17.04488257949602</v>
       </c>
       <c r="L25">
+        <v>7.371084435147814</v>
+      </c>
+      <c r="M25">
+        <v>14.39630919575656</v>
+      </c>
+      <c r="N25">
+        <v>6.627846749035903</v>
+      </c>
+      <c r="O25">
+        <v>10.12066325428058</v>
+      </c>
+      <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>28.00786865070119</v>
+        <v>14.63304406902614</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.50102986341638</v>
+        <v>11.13926935493816</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.422108621120545</v>
+        <v>6.285682369049335</v>
       </c>
       <c r="E2">
-        <v>9.967357841669543</v>
+        <v>9.591241593420545</v>
       </c>
       <c r="F2">
-        <v>20.52877816990237</v>
+        <v>20.12372628084055</v>
       </c>
       <c r="G2">
-        <v>21.89452746359232</v>
+        <v>20.85092213194955</v>
       </c>
       <c r="H2">
-        <v>3.299978843190676</v>
+        <v>3.107066210478923</v>
       </c>
       <c r="I2">
-        <v>4.58199941297301</v>
+        <v>4.240625006326805</v>
       </c>
       <c r="J2">
-        <v>9.116558743008186</v>
+        <v>9.355863251671918</v>
       </c>
       <c r="K2">
-        <v>17.34507910158511</v>
+        <v>16.44464257189642</v>
       </c>
       <c r="L2">
-        <v>7.322840478296337</v>
+        <v>12.42893881255529</v>
       </c>
       <c r="M2">
-        <v>13.47749343087379</v>
+        <v>11.79373765398077</v>
       </c>
       <c r="N2">
-        <v>6.224980162324865</v>
+        <v>7.115161035165758</v>
       </c>
       <c r="O2">
-        <v>9.577103165914197</v>
+        <v>13.4797004081485</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.608485489854001</v>
       </c>
       <c r="Q2">
-        <v>14.70089923413322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.581546526898297</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.45293129105589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.83677530259001</v>
+        <v>10.49266967738038</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.326478136996159</v>
+        <v>6.195957903727001</v>
       </c>
       <c r="E3">
-        <v>9.924761477129461</v>
+        <v>9.553712826217442</v>
       </c>
       <c r="F3">
-        <v>20.46077054883853</v>
+        <v>20.08152342843389</v>
       </c>
       <c r="G3">
-        <v>21.75376753871213</v>
+        <v>20.78394099095508</v>
       </c>
       <c r="H3">
-        <v>3.466457751609454</v>
+        <v>3.263946102754222</v>
       </c>
       <c r="I3">
-        <v>4.697156679015252</v>
+        <v>4.34057010863728</v>
       </c>
       <c r="J3">
-        <v>9.170127754271428</v>
+        <v>9.382210412735754</v>
       </c>
       <c r="K3">
-        <v>17.53140157393118</v>
+        <v>16.63372588235105</v>
       </c>
       <c r="L3">
-        <v>7.288198453353512</v>
+        <v>12.60072097573192</v>
       </c>
       <c r="M3">
-        <v>12.84370898705815</v>
+        <v>11.95434811025966</v>
       </c>
       <c r="N3">
-        <v>5.968148222963194</v>
+        <v>7.076360782865216</v>
       </c>
       <c r="O3">
-        <v>9.19508979172746</v>
+        <v>12.80624623302994</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.339742100724457</v>
       </c>
       <c r="Q3">
-        <v>14.73987791924847</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.191907290942511</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.50659624458347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.40474576013406</v>
+        <v>10.07052972252812</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.267381345554853</v>
+        <v>6.140454151360474</v>
       </c>
       <c r="E4">
-        <v>9.897528384262355</v>
+        <v>9.529676439104087</v>
       </c>
       <c r="F4">
-        <v>20.4266954699223</v>
+        <v>20.06237540284413</v>
       </c>
       <c r="G4">
-        <v>21.67928281166203</v>
+        <v>20.75690701242984</v>
       </c>
       <c r="H4">
-        <v>3.572523996640954</v>
+        <v>3.3639016301451</v>
       </c>
       <c r="I4">
-        <v>4.77113135090496</v>
+        <v>4.40502584901437</v>
       </c>
       <c r="J4">
-        <v>9.205902281686758</v>
+        <v>9.399803847433851</v>
       </c>
       <c r="K4">
-        <v>17.64832399826516</v>
+        <v>16.75182509471072</v>
       </c>
       <c r="L4">
-        <v>7.266148499333235</v>
+        <v>12.7114374831562</v>
       </c>
       <c r="M4">
-        <v>12.43888223174514</v>
+        <v>12.06291782894011</v>
       </c>
       <c r="N4">
-        <v>5.807281944720484</v>
+        <v>7.051911962998803</v>
       </c>
       <c r="O4">
-        <v>8.95295870987322</v>
+        <v>12.3758551356357</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.172265258919579</v>
       </c>
       <c r="Q4">
-        <v>14.77005633267613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.944712334326846</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.54509451799266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.21598337248384</v>
+        <v>9.88578451501629</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.242071345183757</v>
+        <v>6.116665977939195</v>
       </c>
       <c r="E5">
-        <v>9.884543552493758</v>
+        <v>9.518151747838431</v>
       </c>
       <c r="F5">
-        <v>20.40821249071874</v>
+        <v>20.05012970948072</v>
       </c>
       <c r="G5">
-        <v>21.64193097445685</v>
+        <v>20.73986021732708</v>
       </c>
       <c r="H5">
-        <v>3.616978816420021</v>
+        <v>3.405799905814987</v>
       </c>
       <c r="I5">
-        <v>4.804412110530353</v>
+        <v>4.434773804292138</v>
       </c>
       <c r="J5">
-        <v>9.219574311455361</v>
+        <v>9.40579966235541</v>
       </c>
       <c r="K5">
-        <v>17.69213111740295</v>
+        <v>16.79632873774375</v>
       </c>
       <c r="L5">
-        <v>7.256756977927349</v>
+        <v>12.75296188139118</v>
       </c>
       <c r="M5">
-        <v>12.27496459434945</v>
+        <v>12.10819537517209</v>
       </c>
       <c r="N5">
-        <v>5.74629825432062</v>
+        <v>7.041640694400139</v>
       </c>
       <c r="O5">
-        <v>8.853215440403476</v>
+        <v>12.20102160089274</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.108231559928702</v>
       </c>
       <c r="Q5">
-        <v>14.77983925005067</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.842768710693269</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.55834480311631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.17606772865586</v>
+        <v>9.846855681732945</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.236453506094287</v>
+        <v>6.111383942685478</v>
       </c>
       <c r="E6">
-        <v>9.880407615691171</v>
+        <v>9.514428716558944</v>
       </c>
       <c r="F6">
-        <v>20.39731168125282</v>
+        <v>20.04072991084476</v>
       </c>
       <c r="G6">
-        <v>21.62375045170915</v>
+        <v>20.72568131346208</v>
       </c>
       <c r="H6">
-        <v>3.624728595186003</v>
+        <v>3.413108442645401</v>
       </c>
       <c r="I6">
-        <v>4.8129223241934</v>
+        <v>4.443210577959158</v>
       </c>
       <c r="J6">
-        <v>9.219910253547019</v>
+        <v>9.404952080430437</v>
       </c>
       <c r="K6">
-        <v>17.69398438770877</v>
+        <v>16.79871466890176</v>
       </c>
       <c r="L6">
-        <v>7.254940617592311</v>
+        <v>12.75398104796436</v>
       </c>
       <c r="M6">
-        <v>12.25348452187781</v>
+        <v>12.11408808740968</v>
       </c>
       <c r="N6">
-        <v>5.742607639345532</v>
+        <v>7.039753106641069</v>
       </c>
       <c r="O6">
-        <v>8.837421493542619</v>
+        <v>12.17744606055104</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.103367449648675</v>
       </c>
       <c r="Q6">
-        <v>14.77661349097795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.826550029439064</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.55599247590519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.38026371601327</v>
+        <v>10.05002845358762</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.263213058829975</v>
+        <v>6.139258837674125</v>
       </c>
       <c r="E7">
-        <v>9.892046534474783</v>
+        <v>9.524722164742382</v>
       </c>
       <c r="F7">
-        <v>20.40481871394968</v>
+        <v>20.03105986180819</v>
       </c>
       <c r="G7">
-        <v>21.64570985113642</v>
+        <v>20.7935559986698</v>
       </c>
       <c r="H7">
-        <v>3.573942352314172</v>
+        <v>3.365691043380821</v>
       </c>
       <c r="I7">
-        <v>4.779320340095028</v>
+        <v>4.414771995646656</v>
       </c>
       <c r="J7">
-        <v>9.200701839824148</v>
+        <v>9.36444626983379</v>
       </c>
       <c r="K7">
-        <v>17.63405235942151</v>
+        <v>16.73577610109577</v>
       </c>
       <c r="L7">
-        <v>7.265394770838832</v>
+        <v>12.69296498933019</v>
       </c>
       <c r="M7">
-        <v>12.45275865048408</v>
+        <v>12.05700024186312</v>
       </c>
       <c r="N7">
-        <v>5.823873969954387</v>
+        <v>7.050944703496377</v>
       </c>
       <c r="O7">
-        <v>8.953960733082715</v>
+        <v>12.38599082691011</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.185628467914231</v>
       </c>
       <c r="Q7">
-        <v>14.75672407350494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.945772838629237</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.5240327198053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.25000541740001</v>
+        <v>10.90494552868315</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.384289315428501</v>
+        <v>6.259154584813088</v>
       </c>
       <c r="E8">
-        <v>9.946128062216678</v>
+        <v>9.572636958796817</v>
       </c>
       <c r="F8">
-        <v>20.47550419564476</v>
+        <v>20.04570385699517</v>
       </c>
       <c r="G8">
-        <v>21.80044135773321</v>
+        <v>21.01116229823004</v>
       </c>
       <c r="H8">
-        <v>3.357589251182567</v>
+        <v>3.16271967140099</v>
       </c>
       <c r="I8">
-        <v>4.630704914095288</v>
+        <v>4.286609476283295</v>
       </c>
       <c r="J8">
-        <v>9.127372827767154</v>
+        <v>9.259102273629589</v>
       </c>
       <c r="K8">
-        <v>17.38943877721837</v>
+        <v>16.48246765563198</v>
       </c>
       <c r="L8">
-        <v>7.310409417706292</v>
+        <v>12.45946589154417</v>
       </c>
       <c r="M8">
-        <v>13.28257215083037</v>
+        <v>11.83330700122604</v>
       </c>
       <c r="N8">
-        <v>6.158958147544473</v>
+        <v>7.100310658256685</v>
       </c>
       <c r="O8">
-        <v>9.449932390465982</v>
+        <v>13.26148926733023</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.531642773879208</v>
       </c>
       <c r="Q8">
-        <v>14.69538185382079</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.452339933370244</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.42526500521649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.79639088727759</v>
+        <v>12.403757968593</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.624401339368998</v>
+        <v>6.486325053644064</v>
       </c>
       <c r="E9">
-        <v>10.05284641897547</v>
+        <v>9.666856145471895</v>
       </c>
       <c r="F9">
-        <v>20.71438489538333</v>
+        <v>20.20492252313705</v>
       </c>
       <c r="G9">
-        <v>22.25910047150974</v>
+        <v>21.35703530919935</v>
       </c>
       <c r="H9">
-        <v>2.962029785702524</v>
+        <v>2.790191897209444</v>
       </c>
       <c r="I9">
-        <v>4.352375823268058</v>
+        <v>4.043938398828159</v>
       </c>
       <c r="J9">
-        <v>9.016643203438967</v>
+        <v>9.180114394491385</v>
       </c>
       <c r="K9">
-        <v>16.95535835196578</v>
+        <v>16.03516673905355</v>
       </c>
       <c r="L9">
-        <v>7.393520323876952</v>
+        <v>12.07936671787497</v>
       </c>
       <c r="M9">
-        <v>14.75411392056873</v>
+        <v>11.49115766694736</v>
       </c>
       <c r="N9">
-        <v>6.759087480486838</v>
+        <v>7.194197353297632</v>
       </c>
       <c r="O9">
-        <v>10.35414506335974</v>
+        <v>14.82405573715241</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.165675507289754</v>
       </c>
       <c r="Q9">
-        <v>14.65046236452703</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.37358660888041</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.33116630714604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.77417589432728</v>
+        <v>13.3671190434741</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.759029254054269</v>
+        <v>6.628105478028158</v>
       </c>
       <c r="E10">
-        <v>10.09275981418856</v>
+        <v>9.704695256339857</v>
       </c>
       <c r="F10">
-        <v>20.80512866655865</v>
+        <v>20.1849278261912</v>
       </c>
       <c r="G10">
-        <v>22.48884695616943</v>
+        <v>21.92412708883454</v>
       </c>
       <c r="H10">
-        <v>2.713263108402701</v>
+        <v>2.559514724844309</v>
       </c>
       <c r="I10">
-        <v>4.171376538277309</v>
+        <v>3.889852573855027</v>
       </c>
       <c r="J10">
-        <v>8.922862216247706</v>
+        <v>8.941798256337357</v>
       </c>
       <c r="K10">
-        <v>16.59467097094553</v>
+        <v>15.65969530062514</v>
       </c>
       <c r="L10">
-        <v>7.455145937718304</v>
+        <v>11.78707779649454</v>
       </c>
       <c r="M10">
-        <v>15.7909008941117</v>
+        <v>11.24484990037922</v>
       </c>
       <c r="N10">
-        <v>7.12954044304195</v>
+        <v>7.265433465124531</v>
       </c>
       <c r="O10">
-        <v>10.93076302233861</v>
+        <v>15.9007651189303</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.548734724067295</v>
       </c>
       <c r="Q10">
-        <v>14.58144182235441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.96042307879835</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.18097869047658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.92324424550277</v>
+        <v>13.60616279388587</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.504870770894</v>
+        <v>6.413469750360465</v>
       </c>
       <c r="E11">
-        <v>9.932378264873785</v>
+        <v>9.583741312634732</v>
       </c>
       <c r="F11">
-        <v>19.83813110300641</v>
+        <v>19.1675273874908</v>
       </c>
       <c r="G11">
-        <v>21.22561527913432</v>
+        <v>21.59780705614207</v>
       </c>
       <c r="H11">
-        <v>3.450115769096557</v>
+        <v>3.337061555555346</v>
       </c>
       <c r="I11">
-        <v>4.138330438006054</v>
+        <v>3.869081444491517</v>
       </c>
       <c r="J11">
-        <v>8.657554714129509</v>
+        <v>8.431240527730129</v>
       </c>
       <c r="K11">
-        <v>16.05472614106897</v>
+        <v>15.19520136330342</v>
       </c>
       <c r="L11">
-        <v>7.571042092850025</v>
+        <v>11.47212669850375</v>
       </c>
       <c r="M11">
-        <v>16.54388310258063</v>
+        <v>10.88423113439893</v>
       </c>
       <c r="N11">
-        <v>6.821848886005739</v>
+        <v>7.401762660639534</v>
       </c>
       <c r="O11">
-        <v>10.80278866971151</v>
+        <v>16.59165176912742</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.17943493444978</v>
       </c>
       <c r="Q11">
-        <v>13.98528908967618</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.82831102342687</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.53241164538426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.87344898666354</v>
+        <v>13.62727270145005</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.273376468017291</v>
+        <v>6.201375835783777</v>
       </c>
       <c r="E12">
-        <v>9.926961340410836</v>
+        <v>9.597272548390395</v>
       </c>
       <c r="F12">
-        <v>19.0305295660991</v>
+        <v>18.3794514211704</v>
       </c>
       <c r="G12">
-        <v>20.14266417976641</v>
+        <v>20.97671482920718</v>
       </c>
       <c r="H12">
-        <v>4.637292607953206</v>
+        <v>4.55466151587729</v>
       </c>
       <c r="I12">
-        <v>4.131814986561004</v>
+        <v>3.864572756834719</v>
       </c>
       <c r="J12">
-        <v>8.460633388392063</v>
+        <v>8.186809124811621</v>
       </c>
       <c r="K12">
-        <v>15.74872868291321</v>
+        <v>14.95681937552289</v>
       </c>
       <c r="L12">
-        <v>7.722180069630608</v>
+        <v>11.33505871777496</v>
       </c>
       <c r="M12">
-        <v>16.95339719335125</v>
+        <v>10.67496582551354</v>
       </c>
       <c r="N12">
-        <v>6.45698698485711</v>
+        <v>7.56180781285282</v>
       </c>
       <c r="O12">
-        <v>10.56590737812087</v>
+        <v>16.94757744952314</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.766740276979279</v>
       </c>
       <c r="Q12">
-        <v>13.51334282824684</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.58557692218048</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.06591767386386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.64007002377659</v>
+        <v>13.45233072764841</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.03933696309088</v>
+        <v>5.968171886787867</v>
       </c>
       <c r="E13">
-        <v>10.02783194123299</v>
+        <v>9.707695339637592</v>
       </c>
       <c r="F13">
-        <v>18.26415736813895</v>
+        <v>17.70999693327017</v>
       </c>
       <c r="G13">
-        <v>19.07689565618946</v>
+        <v>19.85713562326707</v>
       </c>
       <c r="H13">
-        <v>5.951970619788492</v>
+        <v>5.885764444227229</v>
       </c>
       <c r="I13">
-        <v>4.157421262553313</v>
+        <v>3.886319585172018</v>
       </c>
       <c r="J13">
-        <v>8.296812028970187</v>
+        <v>8.119856889220271</v>
       </c>
       <c r="K13">
-        <v>15.5837265484273</v>
+        <v>14.85281049850672</v>
       </c>
       <c r="L13">
-        <v>7.901998950008267</v>
+        <v>11.28433378148686</v>
       </c>
       <c r="M13">
-        <v>17.15339651454621</v>
+        <v>10.56702153031287</v>
       </c>
       <c r="N13">
-        <v>6.0401942847452</v>
+        <v>7.743568113686138</v>
       </c>
       <c r="O13">
-        <v>10.22856832502008</v>
+        <v>17.10126793571602</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.311067470266061</v>
       </c>
       <c r="Q13">
-        <v>13.08864943063517</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.23993203593351</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.70924245336811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.38511272669917</v>
+        <v>13.23393761492605</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.8755075361517</v>
+        <v>5.797914495401315</v>
       </c>
       <c r="E14">
-        <v>10.16028709159884</v>
+        <v>9.843155507842685</v>
       </c>
       <c r="F14">
-        <v>17.74667744919725</v>
+        <v>17.28982185941199</v>
       </c>
       <c r="G14">
-        <v>18.33424177299578</v>
+        <v>18.85731090185655</v>
       </c>
       <c r="H14">
-        <v>6.910485415879597</v>
+        <v>6.851267803392623</v>
       </c>
       <c r="I14">
-        <v>4.192126803736441</v>
+        <v>3.91618866453167</v>
       </c>
       <c r="J14">
-        <v>8.197229609536071</v>
+        <v>8.135836618144857</v>
       </c>
       <c r="K14">
-        <v>15.53848799441456</v>
+        <v>14.83957730478156</v>
       </c>
       <c r="L14">
-        <v>8.046424124385943</v>
+        <v>11.28018949427113</v>
       </c>
       <c r="M14">
-        <v>17.20527695487132</v>
+        <v>10.54307811294893</v>
       </c>
       <c r="N14">
-        <v>5.725522714617671</v>
+        <v>7.885488375791312</v>
       </c>
       <c r="O14">
-        <v>9.94392320514924</v>
+        <v>17.12303053404437</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.973309015157295</v>
       </c>
       <c r="Q14">
-        <v>12.8129492160887</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.948195920999561</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.50488064942225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.2762005397872</v>
+        <v>13.13206302147373</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.833405950044654</v>
+        <v>5.751741546541545</v>
       </c>
       <c r="E15">
-        <v>10.19839594283811</v>
+        <v>9.882317968499457</v>
       </c>
       <c r="F15">
-        <v>17.62427674111542</v>
+        <v>17.203880732893</v>
       </c>
       <c r="G15">
-        <v>18.14945703612879</v>
+        <v>18.52070070809502</v>
       </c>
       <c r="H15">
-        <v>7.136641168137264</v>
+        <v>7.078162464997141</v>
       </c>
       <c r="I15">
-        <v>4.211320797223355</v>
+        <v>3.933585883964045</v>
       </c>
       <c r="J15">
-        <v>8.178689260786239</v>
+        <v>8.1667556671814</v>
       </c>
       <c r="K15">
-        <v>15.54893322949356</v>
+        <v>14.85544176053954</v>
       </c>
       <c r="L15">
-        <v>8.080351423284721</v>
+        <v>11.28665189320333</v>
       </c>
       <c r="M15">
-        <v>17.17802323476503</v>
+        <v>10.55533339768646</v>
       </c>
       <c r="N15">
-        <v>5.643196180393999</v>
+        <v>7.918139102251429</v>
       </c>
       <c r="O15">
-        <v>9.853994357681641</v>
+        <v>17.08943922366536</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.886504965378251</v>
       </c>
       <c r="Q15">
-        <v>12.75270437551505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.855940754910048</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.47218502257065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.89429779468351</v>
+        <v>12.7295051117402</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.818699786764006</v>
+        <v>5.716568743455131</v>
       </c>
       <c r="E16">
-        <v>10.14972177543259</v>
+        <v>9.840743126411841</v>
       </c>
       <c r="F16">
-        <v>17.72620953608752</v>
+        <v>17.41036393530313</v>
       </c>
       <c r="G16">
-        <v>18.23131946324216</v>
+        <v>17.88745597198256</v>
       </c>
       <c r="H16">
-        <v>6.957589254197534</v>
+        <v>6.891167801751045</v>
       </c>
       <c r="I16">
-        <v>4.288919863238355</v>
+        <v>3.999698316412947</v>
       </c>
       <c r="J16">
-        <v>8.249623279650963</v>
+        <v>8.434610564679728</v>
       </c>
       <c r="K16">
-        <v>15.72631407994566</v>
+        <v>15.02122558432175</v>
       </c>
       <c r="L16">
-        <v>8.010904172398847</v>
+        <v>11.34997856070616</v>
       </c>
       <c r="M16">
-        <v>16.73145752173509</v>
+        <v>10.71355813293876</v>
       </c>
       <c r="N16">
-        <v>5.560182954656422</v>
+        <v>7.846420446333386</v>
       </c>
       <c r="O16">
-        <v>9.666398457658183</v>
+        <v>16.65407571249062</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.816053798833201</v>
       </c>
       <c r="Q16">
-        <v>12.86105575047395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.663582662236717</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.66385614284716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.73701227564685</v>
+        <v>12.53907767704237</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.893763570699908</v>
+        <v>5.781071822803895</v>
       </c>
       <c r="E17">
-        <v>10.03200903871152</v>
+        <v>9.723971745375236</v>
       </c>
       <c r="F17">
-        <v>18.07708085843003</v>
+        <v>17.78085749583253</v>
       </c>
       <c r="G17">
-        <v>18.68976452729466</v>
+        <v>18.03225194809372</v>
       </c>
       <c r="H17">
-        <v>6.283903044028724</v>
+        <v>6.206232863450183</v>
       </c>
       <c r="I17">
-        <v>4.330529113179164</v>
+        <v>4.035390804274523</v>
       </c>
       <c r="J17">
-        <v>8.356320358406679</v>
+        <v>8.623750605817349</v>
       </c>
       <c r="K17">
-        <v>15.88194677123535</v>
+        <v>15.15837562087754</v>
       </c>
       <c r="L17">
-        <v>7.876291367852637</v>
+        <v>11.41670489665785</v>
       </c>
       <c r="M17">
-        <v>16.35380846829141</v>
+        <v>10.83967143476213</v>
       </c>
       <c r="N17">
-        <v>5.66960368235626</v>
+        <v>7.711350066558663</v>
       </c>
       <c r="O17">
-        <v>9.677807588904743</v>
+        <v>16.29808917684802</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.945212877012021</v>
       </c>
       <c r="Q17">
-        <v>13.08911167766051</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.675498112155937</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.91055965255584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.77538406943262</v>
+        <v>12.52469890537277</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.062843893380137</v>
+        <v>5.94094894902259</v>
       </c>
       <c r="E18">
-        <v>9.901135934280267</v>
+        <v>9.585864932347118</v>
       </c>
       <c r="F18">
-        <v>18.70204949229998</v>
+        <v>18.37405352299938</v>
       </c>
       <c r="G18">
-        <v>19.54742018630269</v>
+        <v>18.71511311032776</v>
       </c>
       <c r="H18">
-        <v>5.158213021062885</v>
+        <v>5.061613694411682</v>
       </c>
       <c r="I18">
-        <v>4.336090677414857</v>
+        <v>4.037541836304962</v>
       </c>
       <c r="J18">
-        <v>8.510522036981037</v>
+        <v>8.800679642382526</v>
       </c>
       <c r="K18">
-        <v>16.07051623872749</v>
+        <v>15.31484125826372</v>
       </c>
       <c r="L18">
-        <v>7.695208521763918</v>
+        <v>11.51784916518556</v>
       </c>
       <c r="M18">
-        <v>15.98749157017345</v>
+        <v>10.96841321762989</v>
       </c>
       <c r="N18">
-        <v>5.945538658032454</v>
+        <v>7.529409275292827</v>
       </c>
       <c r="O18">
-        <v>9.859994256347616</v>
+        <v>15.96995330451013</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.253880744623095</v>
       </c>
       <c r="Q18">
-        <v>13.45733900887836</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.86273035264526</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.26031622084821</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.93324548334097</v>
+        <v>12.61886423908506</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.297766815429985</v>
+        <v>6.1661398751204</v>
       </c>
       <c r="E19">
-        <v>9.865385936084255</v>
+        <v>9.530320975015075</v>
       </c>
       <c r="F19">
-        <v>19.47900761639944</v>
+        <v>19.08734793378317</v>
       </c>
       <c r="G19">
-        <v>20.61570042350272</v>
+        <v>19.66962161259429</v>
       </c>
       <c r="H19">
-        <v>3.905769520106022</v>
+        <v>3.779618556649188</v>
       </c>
       <c r="I19">
-        <v>4.325143585241496</v>
+        <v>4.028818982371832</v>
       </c>
       <c r="J19">
-        <v>8.685649712692442</v>
+        <v>8.965274289684281</v>
       </c>
       <c r="K19">
-        <v>16.30044147206127</v>
+        <v>15.49507921022991</v>
       </c>
       <c r="L19">
-        <v>7.538576445105918</v>
+        <v>11.65302616004105</v>
       </c>
       <c r="M19">
-        <v>15.69231719960532</v>
+        <v>11.10504815335925</v>
       </c>
       <c r="N19">
-        <v>6.358586127117302</v>
+        <v>7.367254010688484</v>
       </c>
       <c r="O19">
-        <v>10.16514295004722</v>
+        <v>15.7226209656669</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.707895934751201</v>
       </c>
       <c r="Q19">
-        <v>13.89572642626702</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.17581682311392</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.65784386963144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.47014665904859</v>
+        <v>13.06225642644369</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.711451977852367</v>
+        <v>6.570132665926199</v>
       </c>
       <c r="E20">
-        <v>10.0670961739438</v>
+        <v>9.681687525523701</v>
       </c>
       <c r="F20">
-        <v>20.70980926708558</v>
+        <v>20.16138220578418</v>
       </c>
       <c r="G20">
-        <v>22.3210243913453</v>
+        <v>21.42947597004981</v>
       </c>
       <c r="H20">
-        <v>2.779188405719824</v>
+        <v>2.619348469320115</v>
       </c>
       <c r="I20">
-        <v>4.242063988171604</v>
+        <v>3.957524607675336</v>
       </c>
       <c r="J20">
-        <v>8.929118195221228</v>
+        <v>9.089480551629837</v>
       </c>
       <c r="K20">
-        <v>16.64330738716455</v>
+        <v>15.72912590746271</v>
       </c>
       <c r="L20">
-        <v>7.438939436711014</v>
+        <v>11.83908012246217</v>
       </c>
       <c r="M20">
-        <v>15.56859892952714</v>
+        <v>11.28530764535747</v>
       </c>
       <c r="N20">
-        <v>7.075874926166296</v>
+        <v>7.248992162929531</v>
       </c>
       <c r="O20">
-        <v>10.78618903308204</v>
+        <v>15.67435152651476</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.492032081253199</v>
       </c>
       <c r="Q20">
-        <v>14.55399560000783</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.81228274233753</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.20906404236225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.2402906738174</v>
+        <v>13.8488843989645</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.872357443569293</v>
+        <v>6.783800559297914</v>
       </c>
       <c r="E21">
-        <v>10.14806420652483</v>
+        <v>9.754901799683539</v>
       </c>
       <c r="F21">
-        <v>20.98389260804565</v>
+        <v>20.13391559656134</v>
       </c>
       <c r="G21">
-        <v>22.77928445877433</v>
+        <v>23.42778980528833</v>
       </c>
       <c r="H21">
-        <v>2.557184492535467</v>
+        <v>2.416643461949426</v>
       </c>
       <c r="I21">
-        <v>4.096361838096676</v>
+        <v>3.835609238887176</v>
       </c>
       <c r="J21">
-        <v>8.904949640876513</v>
+        <v>8.470386317710584</v>
       </c>
       <c r="K21">
-        <v>16.45045946206099</v>
+        <v>15.45720395825038</v>
       </c>
       <c r="L21">
-        <v>7.479423715250043</v>
+        <v>11.64289187362734</v>
       </c>
       <c r="M21">
-        <v>16.2762203592285</v>
+        <v>11.11476217842879</v>
       </c>
       <c r="N21">
-        <v>7.430386917565772</v>
+        <v>7.286816492712688</v>
       </c>
       <c r="O21">
-        <v>11.28070451100855</v>
+        <v>16.37869847665631</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.844415037988453</v>
       </c>
       <c r="Q21">
-        <v>14.62064202190122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.31869162356764</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.03836898675772</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.72696816555179</v>
+        <v>14.35102605814147</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.962227879186707</v>
+        <v>6.913632726168865</v>
       </c>
       <c r="E22">
-        <v>10.19018177367054</v>
+        <v>9.796107796397122</v>
       </c>
       <c r="F22">
-        <v>21.13812251715569</v>
+        <v>20.07730167415204</v>
       </c>
       <c r="G22">
-        <v>23.05034207182131</v>
+        <v>24.83752175986359</v>
       </c>
       <c r="H22">
-        <v>2.425791677266997</v>
+        <v>2.297582800448794</v>
       </c>
       <c r="I22">
-        <v>3.996191499318893</v>
+        <v>3.748524170152363</v>
       </c>
       <c r="J22">
-        <v>8.886132371213899</v>
+        <v>8.107183982651961</v>
       </c>
       <c r="K22">
-        <v>16.32129606885623</v>
+        <v>15.27431797465946</v>
       </c>
       <c r="L22">
-        <v>7.507572347232948</v>
+        <v>11.51869639879437</v>
       </c>
       <c r="M22">
-        <v>16.72288191623399</v>
+        <v>11.00439015540504</v>
       </c>
       <c r="N22">
-        <v>7.610819451868165</v>
+        <v>7.31441621469005</v>
       </c>
       <c r="O22">
-        <v>11.5697357184545</v>
+        <v>16.81822052551857</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.020264065933945</v>
       </c>
       <c r="Q22">
-        <v>14.6552557844371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.61463705875251</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.90439765949862</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.48849490604486</v>
+        <v>14.09751321958185</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.918360292941577</v>
+        <v>6.841003239537656</v>
       </c>
       <c r="E23">
-        <v>10.17308482652582</v>
+        <v>9.777978278617953</v>
       </c>
       <c r="F23">
-        <v>21.07881056361487</v>
+        <v>20.15642794314912</v>
       </c>
       <c r="G23">
-        <v>22.94008127862823</v>
+        <v>23.9315821226981</v>
       </c>
       <c r="H23">
-        <v>2.494975064476133</v>
+        <v>2.359553006964545</v>
       </c>
       <c r="I23">
-        <v>4.040190246744087</v>
+        <v>3.783290605442113</v>
       </c>
       <c r="J23">
-        <v>8.901986403437794</v>
+        <v>8.34942558522901</v>
       </c>
       <c r="K23">
-        <v>16.40658166540691</v>
+        <v>15.39146564723177</v>
       </c>
       <c r="L23">
-        <v>7.492698068547186</v>
+        <v>11.59645827742999</v>
       </c>
       <c r="M23">
-        <v>16.47064285948193</v>
+        <v>11.08015151332744</v>
       </c>
       <c r="N23">
-        <v>7.498726429370543</v>
+        <v>7.300116353350782</v>
       </c>
       <c r="O23">
-        <v>11.41422024896959</v>
+        <v>16.57623738120445</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.915116434185429</v>
       </c>
       <c r="Q23">
-        <v>14.65124065208975</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.45524228541736</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.0119423962922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.51131623838351</v>
+        <v>13.09498863709197</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.744119724684004</v>
+        <v>6.600820008944651</v>
       </c>
       <c r="E24">
-        <v>10.09868182629</v>
+        <v>9.707660595668974</v>
       </c>
       <c r="F24">
-        <v>20.83314794288202</v>
+        <v>20.27616361665611</v>
       </c>
       <c r="G24">
-        <v>22.49223775492264</v>
+        <v>21.57572966287672</v>
       </c>
       <c r="H24">
-        <v>2.76395155969513</v>
+        <v>2.603855971933215</v>
       </c>
       <c r="I24">
-        <v>4.22655336559731</v>
+        <v>3.939139576960068</v>
       </c>
       <c r="J24">
-        <v>8.958956196789883</v>
+        <v>9.120414502640795</v>
       </c>
       <c r="K24">
-        <v>16.70785961970693</v>
+        <v>15.78141788536603</v>
       </c>
       <c r="L24">
-        <v>7.435285660542641</v>
+        <v>11.87862235037084</v>
       </c>
       <c r="M24">
-        <v>15.50645694008616</v>
+        <v>11.32494495599012</v>
       </c>
       <c r="N24">
-        <v>7.089832137675548</v>
+        <v>7.242611103568364</v>
       </c>
       <c r="O24">
-        <v>10.81001890906872</v>
+        <v>15.61803283760704</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.512985054711048</v>
       </c>
       <c r="Q24">
-        <v>14.62710999346302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.83708939312951</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.27682777289683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.36556558678331</v>
+        <v>11.98441258114555</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.553486380803824</v>
+        <v>6.415566473374605</v>
       </c>
       <c r="E25">
-        <v>10.01608262555158</v>
+        <v>9.634482591966103</v>
       </c>
       <c r="F25">
-        <v>20.60517517581542</v>
+        <v>20.1356905424308</v>
       </c>
       <c r="G25">
-        <v>22.06700562617775</v>
+        <v>21.09898448348257</v>
       </c>
       <c r="H25">
-        <v>3.067119079295315</v>
+        <v>2.888620545986096</v>
       </c>
       <c r="I25">
-        <v>4.438372207120402</v>
+        <v>4.12263221942293</v>
       </c>
       <c r="J25">
-        <v>9.034461314855612</v>
+        <v>9.233549528994436</v>
       </c>
       <c r="K25">
-        <v>17.04488257949602</v>
+        <v>16.13628464524174</v>
       </c>
       <c r="L25">
-        <v>7.371084435147814</v>
+        <v>12.16137566976454</v>
       </c>
       <c r="M25">
-        <v>14.39630919575656</v>
+        <v>11.56321524956369</v>
       </c>
       <c r="N25">
-        <v>6.627846749035903</v>
+        <v>7.169795581343512</v>
       </c>
       <c r="O25">
-        <v>10.12066325428058</v>
+        <v>14.44517374742738</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.024289163538098</v>
       </c>
       <c r="Q25">
-        <v>14.63304406902614</v>
+        <v>10.13534695170394</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.34161015066563</v>
       </c>
     </row>
   </sheetData>
